--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -5491,17 +5491,13 @@
         <v>885.75</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>879</v>
-      </c>
-      <c r="K146" t="n">
-        <v>879</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
@@ -5530,104 +5526,96 @@
         <v>885.05</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>881</v>
+      </c>
+      <c r="C148" t="n">
+        <v>881</v>
+      </c>
+      <c r="D148" t="n">
+        <v>881</v>
+      </c>
+      <c r="E148" t="n">
+        <v>881</v>
+      </c>
+      <c r="F148" t="n">
+        <v>263.16</v>
+      </c>
+      <c r="G148" t="n">
+        <v>884.55</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
         <v>879</v>
       </c>
-      <c r="K147" t="n">
+      <c r="K148" t="n">
         <v>879</v>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>906</v>
+      </c>
+      <c r="C149" t="n">
+        <v>906</v>
+      </c>
+      <c r="D149" t="n">
+        <v>906</v>
+      </c>
+      <c r="E149" t="n">
+        <v>906</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G149" t="n">
+        <v>885.35</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>881</v>
+      </c>
+      <c r="K149" t="n">
+        <v>879</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>881</v>
-      </c>
-      <c r="C148" t="n">
-        <v>881</v>
-      </c>
-      <c r="D148" t="n">
-        <v>881</v>
-      </c>
-      <c r="E148" t="n">
-        <v>881</v>
-      </c>
-      <c r="F148" t="n">
-        <v>263.16</v>
-      </c>
-      <c r="G148" t="n">
-        <v>884.55</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>881</v>
-      </c>
-      <c r="K148" t="n">
-        <v>879</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>906</v>
-      </c>
-      <c r="C149" t="n">
-        <v>906</v>
-      </c>
-      <c r="D149" t="n">
-        <v>906</v>
-      </c>
-      <c r="E149" t="n">
-        <v>906</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G149" t="n">
-        <v>885.35</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>906</v>
-      </c>
-      <c r="K149" t="n">
-        <v>906</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5661,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="K150" t="n">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5704,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>906</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5727,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>906</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5780,22 +5756,14 @@
         <v>883.65</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>880</v>
-      </c>
-      <c r="K153" t="n">
-        <v>906</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +5791,14 @@
         <v>884.25</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>900</v>
-      </c>
-      <c r="K154" t="n">
-        <v>906</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5866,22 +5826,14 @@
         <v>884.25</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>886</v>
-      </c>
-      <c r="K155" t="n">
-        <v>906</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5915,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>906</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5950,22 +5896,14 @@
         <v>884.5</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>885</v>
-      </c>
-      <c r="K157" t="n">
-        <v>906</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5993,22 +5931,14 @@
         <v>884.55</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>884</v>
-      </c>
-      <c r="K158" t="n">
-        <v>906</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6036,22 +5966,14 @@
         <v>884.3</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>882</v>
-      </c>
-      <c r="K159" t="n">
-        <v>906</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6079,22 +6001,14 @@
         <v>883.75</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>880</v>
-      </c>
-      <c r="K160" t="n">
-        <v>906</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6122,22 +6036,14 @@
         <v>883.3</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>881</v>
-      </c>
-      <c r="K161" t="n">
-        <v>906</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6165,22 +6071,14 @@
         <v>883.1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>883</v>
-      </c>
-      <c r="K162" t="n">
-        <v>906</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6106,14 @@
         <v>883.15</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>883</v>
-      </c>
-      <c r="K163" t="n">
-        <v>906</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6251,22 +6141,14 @@
         <v>883.65</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>883</v>
-      </c>
-      <c r="K164" t="n">
-        <v>906</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6294,22 +6176,14 @@
         <v>883.9</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>883</v>
-      </c>
-      <c r="K165" t="n">
-        <v>906</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6337,22 +6211,14 @@
         <v>883.95</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>880</v>
-      </c>
-      <c r="K166" t="n">
-        <v>906</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6380,22 +6246,14 @@
         <v>883.95</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>879</v>
-      </c>
-      <c r="K167" t="n">
-        <v>906</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6423,22 +6281,14 @@
         <v>883.9</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>880</v>
-      </c>
-      <c r="K168" t="n">
-        <v>906</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6466,22 +6316,14 @@
         <v>882.7</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>882</v>
-      </c>
-      <c r="K169" t="n">
-        <v>906</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6509,22 +6351,14 @@
         <v>883.05</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>888</v>
-      </c>
-      <c r="K170" t="n">
-        <v>906</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6552,22 +6386,14 @@
         <v>883.5</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>887</v>
-      </c>
-      <c r="K171" t="n">
-        <v>906</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6595,22 +6421,14 @@
         <v>884.15</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>891</v>
-      </c>
-      <c r="K172" t="n">
-        <v>906</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6638,22 +6456,14 @@
         <v>884.65</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>890</v>
-      </c>
-      <c r="K173" t="n">
-        <v>906</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6681,22 +6491,14 @@
         <v>884.3</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>893</v>
-      </c>
-      <c r="K174" t="n">
-        <v>906</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6724,22 +6526,14 @@
         <v>884.9</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>898</v>
-      </c>
-      <c r="K175" t="n">
-        <v>906</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6773,14 +6567,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>906</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +6602,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>906</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6855,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>906</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>906</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6937,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>906</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6978,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>906</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7019,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>906</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>906</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7101,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>906</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7142,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>906</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7183,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>906</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7224,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>906</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7259,22 +6981,14 @@
         <v>889.35</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>883</v>
-      </c>
-      <c r="K188" t="n">
-        <v>906</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7302,22 +7016,14 @@
         <v>889.2</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>879</v>
-      </c>
-      <c r="K189" t="n">
-        <v>906</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C2" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D2" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E2" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>0.0001</v>
       </c>
       <c r="G2" t="n">
-        <v>894.35</v>
+        <v>887.2333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>896</v>
       </c>
       <c r="F3" t="n">
-        <v>190.1861</v>
+        <v>4.8</v>
       </c>
       <c r="G3" t="n">
-        <v>894.7</v>
+        <v>887.45</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>896</v>
       </c>
       <c r="F4" t="n">
-        <v>44.69</v>
+        <v>190.1861</v>
       </c>
       <c r="G4" t="n">
-        <v>895.05</v>
+        <v>887.7333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C5" t="n">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D5" t="n">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E5" t="n">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F5" t="n">
-        <v>734.607</v>
+        <v>44.69</v>
       </c>
       <c r="G5" t="n">
-        <v>895.4</v>
+        <v>888.0666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C6" t="n">
         <v>901</v>
@@ -582,13 +582,13 @@
         <v>901</v>
       </c>
       <c r="E6" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F6" t="n">
-        <v>2668.6065</v>
+        <v>734.607</v>
       </c>
       <c r="G6" t="n">
-        <v>896</v>
+        <v>888.4833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C7" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D7" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E7" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F7" t="n">
-        <v>17.6662</v>
+        <v>2668.6065</v>
       </c>
       <c r="G7" t="n">
-        <v>896.6</v>
+        <v>888.85</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C8" t="n">
         <v>905</v>
@@ -652,13 +652,13 @@
         <v>905</v>
       </c>
       <c r="E8" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="F8" t="n">
-        <v>560.1284000000001</v>
+        <v>17.6662</v>
       </c>
       <c r="G8" t="n">
-        <v>896.65</v>
+        <v>889.35</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C9" t="n">
         <v>905</v>
@@ -687,13 +687,13 @@
         <v>905</v>
       </c>
       <c r="E9" t="n">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F9" t="n">
-        <v>413.41</v>
+        <v>560.1284000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>897</v>
+        <v>889.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C10" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D10" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E10" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F10" t="n">
-        <v>33.7461</v>
+        <v>413.41</v>
       </c>
       <c r="G10" t="n">
-        <v>897.45</v>
+        <v>890.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C11" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D11" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E11" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F11" t="n">
-        <v>363.94</v>
+        <v>33.7461</v>
       </c>
       <c r="G11" t="n">
-        <v>897.8</v>
+        <v>891</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>905</v>
       </c>
       <c r="F12" t="n">
-        <v>3004.3248</v>
+        <v>363.94</v>
       </c>
       <c r="G12" t="n">
-        <v>897.95</v>
+        <v>891.4666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C13" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D13" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E13" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F13" t="n">
-        <v>86.73999999999999</v>
+        <v>3004.3248</v>
       </c>
       <c r="G13" t="n">
-        <v>898.55</v>
+        <v>891.95</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>910</v>
       </c>
       <c r="E14" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F14" t="n">
-        <v>353.148</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>899.5</v>
+        <v>892.5166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C15" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D15" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E15" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F15" t="n">
-        <v>35.696</v>
+        <v>353.148</v>
       </c>
       <c r="G15" t="n">
-        <v>900.4</v>
+        <v>893.05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C16" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D16" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="E16" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="F16" t="n">
-        <v>94.2099</v>
+        <v>35.696</v>
       </c>
       <c r="G16" t="n">
-        <v>900.9</v>
+        <v>893.6333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C17" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D17" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E17" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F17" t="n">
-        <v>105.8755</v>
+        <v>94.2099</v>
       </c>
       <c r="G17" t="n">
-        <v>901.1</v>
+        <v>894.0666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C18" t="n">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D18" t="n">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E18" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F18" t="n">
-        <v>71.1215</v>
+        <v>105.8755</v>
       </c>
       <c r="G18" t="n">
-        <v>901.6</v>
+        <v>894.4666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C19" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D19" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E19" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F19" t="n">
-        <v>12.77</v>
+        <v>71.1215</v>
       </c>
       <c r="G19" t="n">
-        <v>902.3</v>
+        <v>894.8833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C20" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E20" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>12.77</v>
       </c>
       <c r="G20" t="n">
-        <v>902.95</v>
+        <v>895.35</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C21" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="D21" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>903.55</v>
+        <v>895.6666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>903</v>
       </c>
       <c r="C22" t="n">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D22" t="n">
         <v>903</v>
       </c>
       <c r="E22" t="n">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F22" t="n">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>903.9</v>
+        <v>895.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C23" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D23" t="n">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="E23" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>270</v>
       </c>
       <c r="G23" t="n">
-        <v>904.05</v>
+        <v>896.35</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C24" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="D24" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E24" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F24" t="n">
-        <v>53.99</v>
+        <v>1.45</v>
       </c>
       <c r="G24" t="n">
-        <v>904.55</v>
+        <v>896.6833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C25" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E25" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F25" t="n">
-        <v>119.4903</v>
+        <v>53.99</v>
       </c>
       <c r="G25" t="n">
-        <v>904.9</v>
+        <v>897.0833333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C26" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="D26" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F26" t="n">
-        <v>2097.5418</v>
+        <v>119.4903</v>
       </c>
       <c r="G26" t="n">
-        <v>904.95</v>
+        <v>897.4666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C27" t="n">
         <v>898</v>
       </c>
       <c r="D27" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E27" t="n">
         <v>898</v>
       </c>
       <c r="F27" t="n">
-        <v>933.9272</v>
+        <v>2097.5418</v>
       </c>
       <c r="G27" t="n">
-        <v>904.6</v>
+        <v>897.5833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C28" t="n">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D28" t="n">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E28" t="n">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F28" t="n">
-        <v>35.0158</v>
+        <v>933.9272</v>
       </c>
       <c r="G28" t="n">
-        <v>904.7</v>
+        <v>897.7166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C29" t="n">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D29" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E29" t="n">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F29" t="n">
-        <v>806.974</v>
+        <v>35.0158</v>
       </c>
       <c r="G29" t="n">
-        <v>904.65</v>
+        <v>898</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>904</v>
+      </c>
+      <c r="C30" t="n">
         <v>907</v>
       </c>
-      <c r="C30" t="n">
-        <v>909</v>
-      </c>
       <c r="D30" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E30" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F30" t="n">
-        <v>3790.265</v>
+        <v>806.974</v>
       </c>
       <c r="G30" t="n">
-        <v>904.8</v>
+        <v>898.2166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C31" t="n">
         <v>909</v>
@@ -1457,13 +1457,13 @@
         <v>909</v>
       </c>
       <c r="E31" t="n">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>3790.265</v>
       </c>
       <c r="G31" t="n">
-        <v>905</v>
+        <v>898.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C32" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D32" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="E32" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="F32" t="n">
-        <v>977.6987</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C33" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D33" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E33" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F33" t="n">
-        <v>2.55</v>
+        <v>977.6987</v>
       </c>
       <c r="G33" t="n">
-        <v>904.7</v>
+        <v>899.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>904</v>
       </c>
       <c r="F34" t="n">
-        <v>12.45</v>
+        <v>2.55</v>
       </c>
       <c r="G34" t="n">
-        <v>904.4</v>
+        <v>899.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C35" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D35" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="E35" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>12.45</v>
       </c>
       <c r="G35" t="n">
-        <v>903.65</v>
+        <v>899.5666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C36" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D36" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E36" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F36" t="n">
-        <v>37.66</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>903.4</v>
+        <v>899.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C37" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D37" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="E37" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>37.66</v>
       </c>
       <c r="G37" t="n">
-        <v>903.05</v>
+        <v>899.6833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C38" t="n">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="D38" t="n">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E38" t="n">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F38" t="n">
-        <v>1130.8352</v>
+        <v>2.34</v>
       </c>
       <c r="G38" t="n">
-        <v>903.1</v>
+        <v>899.6666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C39" t="n">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="D39" t="n">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="E39" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F39" t="n">
-        <v>3003.589</v>
+        <v>1130.8352</v>
       </c>
       <c r="G39" t="n">
-        <v>903.05</v>
+        <v>900.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C40" t="n">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="D40" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E40" t="n">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F40" t="n">
-        <v>2.87</v>
+        <v>3003.589</v>
       </c>
       <c r="G40" t="n">
-        <v>903.25</v>
+        <v>900.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C41" t="n">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D41" t="n">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E41" t="n">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="F41" t="n">
-        <v>277.49</v>
+        <v>2.87</v>
       </c>
       <c r="G41" t="n">
-        <v>904</v>
+        <v>900.55</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C42" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D42" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E42" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F42" t="n">
-        <v>16.7468</v>
+        <v>277.49</v>
       </c>
       <c r="G42" t="n">
-        <v>904.95</v>
+        <v>900.9666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C43" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D43" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E43" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F43" t="n">
-        <v>2.56</v>
+        <v>16.7468</v>
       </c>
       <c r="G43" t="n">
-        <v>906.15</v>
+        <v>901.4166666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C44" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D44" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E44" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="F44" t="n">
-        <v>1091.2714</v>
+        <v>2.56</v>
       </c>
       <c r="G44" t="n">
-        <v>906.8</v>
+        <v>901.9833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C45" t="n">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D45" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E45" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="F45" t="n">
-        <v>18.7415</v>
+        <v>1091.2714</v>
       </c>
       <c r="G45" t="n">
-        <v>907.15</v>
+        <v>902.4666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C46" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D46" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E46" t="n">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F46" t="n">
-        <v>1117.2764</v>
+        <v>18.7415</v>
       </c>
       <c r="G46" t="n">
-        <v>908</v>
+        <v>902.9333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C47" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D47" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E47" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F47" t="n">
-        <v>999.9999</v>
+        <v>1117.2764</v>
       </c>
       <c r="G47" t="n">
-        <v>909.1</v>
+        <v>903.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C48" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D48" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E48" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F48" t="n">
-        <v>517.4206</v>
+        <v>999.9999</v>
       </c>
       <c r="G48" t="n">
-        <v>910.1</v>
+        <v>903.85</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>921</v>
       </c>
       <c r="C49" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="D49" t="n">
         <v>921</v>
       </c>
       <c r="E49" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F49" t="n">
-        <v>177.3675</v>
+        <v>517.4206</v>
       </c>
       <c r="G49" t="n">
-        <v>910.95</v>
+        <v>904.2333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C50" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D50" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E50" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="F50" t="n">
-        <v>3104.9227</v>
+        <v>177.3675</v>
       </c>
       <c r="G50" t="n">
-        <v>911.25</v>
+        <v>904.55</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>913</v>
+      </c>
+      <c r="C51" t="n">
         <v>922</v>
       </c>
-      <c r="C51" t="n">
-        <v>913</v>
-      </c>
       <c r="D51" t="n">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E51" t="n">
         <v>913</v>
       </c>
       <c r="F51" t="n">
-        <v>6092.2</v>
+        <v>3104.9227</v>
       </c>
       <c r="G51" t="n">
-        <v>911.9</v>
+        <v>904.9333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C52" t="n">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D52" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E52" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F52" t="n">
-        <v>22130.6359</v>
+        <v>6092.2</v>
       </c>
       <c r="G52" t="n">
-        <v>912.5</v>
+        <v>905.15</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C53" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D53" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E53" t="n">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F53" t="n">
-        <v>2084.6009</v>
+        <v>22130.6359</v>
       </c>
       <c r="G53" t="n">
-        <v>913.35</v>
+        <v>905.5666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>921</v>
+      </c>
+      <c r="C54" t="n">
         <v>919</v>
       </c>
-      <c r="C54" t="n">
-        <v>921</v>
-      </c>
       <c r="D54" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E54" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F54" t="n">
-        <v>3710.608</v>
+        <v>2084.6009</v>
       </c>
       <c r="G54" t="n">
-        <v>914.1</v>
+        <v>905.9333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>919</v>
       </c>
       <c r="C55" t="n">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D55" t="n">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E55" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F55" t="n">
-        <v>2769.3548</v>
+        <v>3710.608</v>
       </c>
       <c r="G55" t="n">
-        <v>915.25</v>
+        <v>906.3833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C56" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D56" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E56" t="n">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F56" t="n">
-        <v>4213</v>
+        <v>2769.3548</v>
       </c>
       <c r="G56" t="n">
-        <v>916.65</v>
+        <v>906.9166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>927</v>
+      </c>
+      <c r="C57" t="n">
         <v>929</v>
-      </c>
-      <c r="C57" t="n">
-        <v>928</v>
       </c>
       <c r="D57" t="n">
         <v>929</v>
       </c>
       <c r="E57" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F57" t="n">
-        <v>2734.2866</v>
+        <v>4213</v>
       </c>
       <c r="G57" t="n">
-        <v>918.35</v>
+        <v>907.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C58" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="D58" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="E58" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="F58" t="n">
-        <v>593</v>
+        <v>2734.2866</v>
       </c>
       <c r="G58" t="n">
-        <v>919.25</v>
+        <v>908.0666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C59" t="n">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D59" t="n">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E59" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F59" t="n">
-        <v>2345.633403767492</v>
+        <v>593</v>
       </c>
       <c r="G59" t="n">
-        <v>920.2</v>
+        <v>908.55</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C60" t="n">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D60" t="n">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E60" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F60" t="n">
-        <v>1055</v>
+        <v>2345.633403767492</v>
       </c>
       <c r="G60" t="n">
-        <v>920.9</v>
+        <v>909.1333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="C61" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="D61" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="E61" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="F61" t="n">
-        <v>19000</v>
+        <v>1055</v>
       </c>
       <c r="G61" t="n">
-        <v>920.85</v>
+        <v>909.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C62" t="n">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="D62" t="n">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E62" t="n">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="F62" t="n">
-        <v>1400</v>
+        <v>19000</v>
       </c>
       <c r="G62" t="n">
-        <v>920.9</v>
+        <v>910.0166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="C63" t="n">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="D63" t="n">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="E63" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="F63" t="n">
-        <v>20000</v>
+        <v>1400</v>
       </c>
       <c r="G63" t="n">
-        <v>920.45</v>
+        <v>910.4833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>914</v>
       </c>
       <c r="C64" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="D64" t="n">
         <v>914</v>
       </c>
       <c r="E64" t="n">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F64" t="n">
-        <v>177.8651</v>
+        <v>20000</v>
       </c>
       <c r="G64" t="n">
-        <v>920.2</v>
+        <v>910.6666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>914</v>
       </c>
       <c r="C65" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D65" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E65" t="n">
         <v>913</v>
       </c>
       <c r="F65" t="n">
-        <v>561.9537</v>
+        <v>177.8651</v>
       </c>
       <c r="G65" t="n">
-        <v>920.2</v>
+        <v>910.9666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C66" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D66" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E66" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F66" t="n">
-        <v>2040.4812</v>
+        <v>561.9537</v>
       </c>
       <c r="G66" t="n">
-        <v>919.8</v>
+        <v>911.1666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>911</v>
+      </c>
+      <c r="C67" t="n">
         <v>912</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
+        <v>912</v>
+      </c>
+      <c r="E67" t="n">
         <v>911</v>
       </c>
-      <c r="D67" t="n">
-        <v>918</v>
-      </c>
-      <c r="E67" t="n">
-        <v>910</v>
-      </c>
       <c r="F67" t="n">
-        <v>17229.3411</v>
+        <v>2040.4812</v>
       </c>
       <c r="G67" t="n">
-        <v>919.4</v>
+        <v>911.35</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C68" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="D68" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E68" t="n">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="F68" t="n">
-        <v>23215.7714</v>
+        <v>17229.3411</v>
       </c>
       <c r="G68" t="n">
-        <v>918.7</v>
+        <v>911.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>907</v>
       </c>
       <c r="C69" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D69" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E69" t="n">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="F69" t="n">
-        <v>894</v>
+        <v>23215.7714</v>
       </c>
       <c r="G69" t="n">
-        <v>918</v>
+        <v>911.4833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>907</v>
+      </c>
+      <c r="C70" t="n">
+        <v>905</v>
+      </c>
+      <c r="D70" t="n">
+        <v>907</v>
+      </c>
+      <c r="E70" t="n">
         <v>904</v>
       </c>
-      <c r="C70" t="n">
-        <v>903</v>
-      </c>
-      <c r="D70" t="n">
-        <v>904</v>
-      </c>
-      <c r="E70" t="n">
-        <v>903</v>
-      </c>
       <c r="F70" t="n">
-        <v>2497.5396</v>
+        <v>894</v>
       </c>
       <c r="G70" t="n">
-        <v>917.55</v>
+        <v>911.4833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="C71" t="n">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="D71" t="n">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="E71" t="n">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="F71" t="n">
-        <v>4126.4792</v>
+        <v>2497.5396</v>
       </c>
       <c r="G71" t="n">
-        <v>917.35</v>
+        <v>911.4666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>918</v>
+      </c>
+      <c r="C72" t="n">
         <v>916</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
+        <v>918</v>
+      </c>
+      <c r="E72" t="n">
         <v>914</v>
       </c>
-      <c r="D72" t="n">
-        <v>923</v>
-      </c>
-      <c r="E72" t="n">
-        <v>913</v>
-      </c>
       <c r="F72" t="n">
-        <v>15848.8388</v>
+        <v>4126.4792</v>
       </c>
       <c r="G72" t="n">
-        <v>917.3</v>
+        <v>911.65</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>916</v>
+      </c>
+      <c r="C73" t="n">
+        <v>914</v>
+      </c>
+      <c r="D73" t="n">
+        <v>923</v>
+      </c>
+      <c r="E73" t="n">
         <v>913</v>
       </c>
-      <c r="C73" t="n">
-        <v>913</v>
-      </c>
-      <c r="D73" t="n">
-        <v>916</v>
-      </c>
-      <c r="E73" t="n">
-        <v>912</v>
-      </c>
       <c r="F73" t="n">
-        <v>1530</v>
+        <v>15848.8388</v>
       </c>
       <c r="G73" t="n">
-        <v>916.9</v>
+        <v>911.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>913</v>
       </c>
       <c r="C74" t="n">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="D74" t="n">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E74" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F74" t="n">
-        <v>484</v>
+        <v>1530</v>
       </c>
       <c r="G74" t="n">
-        <v>916.6</v>
+        <v>911.85</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C75" t="n">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D75" t="n">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="E75" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F75" t="n">
-        <v>804.3817</v>
+        <v>484</v>
       </c>
       <c r="G75" t="n">
-        <v>916.45</v>
+        <v>912.0166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C76" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D76" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E76" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F76" t="n">
-        <v>81.81</v>
+        <v>804.3817</v>
       </c>
       <c r="G76" t="n">
-        <v>915.7</v>
+        <v>912.0833333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C77" t="n">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="D77" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E77" t="n">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="F77" t="n">
-        <v>1285.8596</v>
+        <v>81.81</v>
       </c>
       <c r="G77" t="n">
-        <v>914.75</v>
+        <v>912.2166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C78" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D78" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E78" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F78" t="n">
-        <v>147</v>
+        <v>1285.8596</v>
       </c>
       <c r="G78" t="n">
-        <v>913.8</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C79" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D79" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E79" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F79" t="n">
-        <v>811.802</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
-        <v>912.75</v>
+        <v>912.0166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C80" t="n">
         <v>903</v>
       </c>
       <c r="D80" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E80" t="n">
         <v>903</v>
       </c>
       <c r="F80" t="n">
-        <v>103</v>
+        <v>811.802</v>
       </c>
       <c r="G80" t="n">
-        <v>911.65</v>
+        <v>911.9333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C81" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D81" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E81" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F81" t="n">
-        <v>172.0508</v>
+        <v>103</v>
       </c>
       <c r="G81" t="n">
-        <v>911.15</v>
+        <v>911.8666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>907</v>
       </c>
       <c r="F82" t="n">
-        <v>714.2608</v>
+        <v>172.0508</v>
       </c>
       <c r="G82" t="n">
-        <v>910.35</v>
+        <v>911.9333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>907</v>
       </c>
       <c r="F83" t="n">
-        <v>511.6508</v>
+        <v>714.2608</v>
       </c>
       <c r="G83" t="n">
-        <v>910</v>
+        <v>912.05</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C84" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D84" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E84" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F84" t="n">
-        <v>529.9559</v>
+        <v>511.6508</v>
       </c>
       <c r="G84" t="n">
-        <v>909.5</v>
+        <v>912.1833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C85" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D85" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E85" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="F85" t="n">
-        <v>34.4088</v>
+        <v>529.9559</v>
       </c>
       <c r="G85" t="n">
-        <v>908.8</v>
+        <v>912.15</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C86" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D86" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E86" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F86" t="n">
-        <v>105</v>
+        <v>34.4088</v>
       </c>
       <c r="G86" t="n">
-        <v>908.2</v>
+        <v>912.0333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C87" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D87" t="n">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E87" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F87" t="n">
-        <v>2218.728</v>
+        <v>105</v>
       </c>
       <c r="G87" t="n">
-        <v>907.45</v>
+        <v>912.05</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C88" t="n">
         <v>902</v>
       </c>
       <c r="D88" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E88" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F88" t="n">
-        <v>42.9124</v>
+        <v>2218.728</v>
       </c>
       <c r="G88" t="n">
-        <v>907.2</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C89" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D89" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E89" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F89" t="n">
-        <v>1689</v>
+        <v>42.9124</v>
       </c>
       <c r="G89" t="n">
-        <v>906.85</v>
+        <v>912.1333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C90" t="n">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D90" t="n">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="E90" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="F90" t="n">
-        <v>505</v>
+        <v>1689</v>
       </c>
       <c r="G90" t="n">
-        <v>906.35</v>
+        <v>912.0333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C91" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D91" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E91" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="F91" t="n">
-        <v>2339.7693</v>
+        <v>505</v>
       </c>
       <c r="G91" t="n">
-        <v>905</v>
+        <v>911.7833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C92" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D92" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E92" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F92" t="n">
-        <v>36.45</v>
+        <v>2339.7693</v>
       </c>
       <c r="G92" t="n">
-        <v>904.05</v>
+        <v>911.4833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,28 +3621,32 @@
         <v>897</v>
       </c>
       <c r="C93" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D93" t="n">
         <v>897</v>
       </c>
       <c r="E93" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F93" t="n">
-        <v>2732.29</v>
+        <v>36.45</v>
       </c>
       <c r="G93" t="n">
-        <v>903.25</v>
+        <v>911.35</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>891</v>
+      </c>
+      <c r="K93" t="n">
+        <v>891</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3653,22 +3657,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C94" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D94" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E94" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F94" t="n">
-        <v>2254.85</v>
+        <v>2732.29</v>
       </c>
       <c r="G94" t="n">
-        <v>902.5</v>
+        <v>911.2166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3681,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>891</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,19 +3701,19 @@
         <v>898</v>
       </c>
       <c r="C95" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D95" t="n">
         <v>898</v>
       </c>
       <c r="E95" t="n">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="F95" t="n">
-        <v>3044.18</v>
+        <v>2254.85</v>
       </c>
       <c r="G95" t="n">
-        <v>901.6</v>
+        <v>911.1166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>891</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C96" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D96" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E96" t="n">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F96" t="n">
-        <v>318.468</v>
+        <v>3044.18</v>
       </c>
       <c r="G96" t="n">
-        <v>900.8</v>
+        <v>911.1333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C97" t="n">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D97" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E97" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F97" t="n">
-        <v>2156.05</v>
+        <v>318.468</v>
       </c>
       <c r="G97" t="n">
-        <v>900.2</v>
+        <v>911.0833333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C98" t="n">
+        <v>905</v>
+      </c>
+      <c r="D98" t="n">
         <v>906</v>
       </c>
-      <c r="D98" t="n">
-        <v>907</v>
-      </c>
       <c r="E98" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F98" t="n">
-        <v>1668.95</v>
+        <v>2156.05</v>
       </c>
       <c r="G98" t="n">
-        <v>900.35</v>
+        <v>911.25</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3847,19 @@
         <v>907</v>
       </c>
       <c r="C99" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D99" t="n">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E99" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F99" t="n">
-        <v>287.5142</v>
+        <v>1668.95</v>
       </c>
       <c r="G99" t="n">
-        <v>900.45</v>
+        <v>910.9833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C100" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D100" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E100" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F100" t="n">
-        <v>916</v>
+        <v>287.5142</v>
       </c>
       <c r="G100" t="n">
-        <v>900.9</v>
+        <v>911.0666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C101" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D101" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E101" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F101" t="n">
-        <v>43.37</v>
+        <v>916</v>
       </c>
       <c r="G101" t="n">
-        <v>901.25</v>
+        <v>911.0833333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C102" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D102" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E102" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F102" t="n">
-        <v>196.3642</v>
+        <v>43.37</v>
       </c>
       <c r="G102" t="n">
-        <v>901.5</v>
+        <v>910.9666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C103" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D103" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E103" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F103" t="n">
-        <v>60</v>
+        <v>196.3642</v>
       </c>
       <c r="G103" t="n">
-        <v>901.8</v>
+        <v>910.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="C104" t="n">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="D104" t="n">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="E104" t="n">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="F104" t="n">
-        <v>77.9081</v>
+        <v>60</v>
       </c>
       <c r="G104" t="n">
-        <v>901.7</v>
+        <v>910.6333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C105" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D105" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E105" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>77.9081</v>
       </c>
       <c r="G105" t="n">
-        <v>901.85</v>
+        <v>910.3833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C106" t="n">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D106" t="n">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E106" t="n">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F106" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>902.35</v>
+        <v>910.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4127,19 @@
         <v>909</v>
       </c>
       <c r="C107" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D107" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E107" t="n">
         <v>909</v>
       </c>
       <c r="F107" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>902.95</v>
+        <v>909.9333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C108" t="n">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D108" t="n">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E108" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F108" t="n">
-        <v>810</v>
+        <v>120</v>
       </c>
       <c r="G108" t="n">
-        <v>903.25</v>
+        <v>909.8333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="C109" t="n">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D109" t="n">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="E109" t="n">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="F109" t="n">
-        <v>980</v>
+        <v>810</v>
       </c>
       <c r="G109" t="n">
-        <v>903.2</v>
+        <v>909.6166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="C110" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D110" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E110" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="F110" t="n">
-        <v>535.2696999999999</v>
+        <v>980</v>
       </c>
       <c r="G110" t="n">
-        <v>903.1</v>
+        <v>909.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="C111" t="n">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D111" t="n">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E111" t="n">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>535.2696999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>903.75</v>
+        <v>908.8666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C112" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D112" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E112" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F112" t="n">
-        <v>281.82</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>903.8</v>
+        <v>908.7166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4346,10 @@
         <v>898</v>
       </c>
       <c r="F113" t="n">
-        <v>99.9999</v>
+        <v>281.82</v>
       </c>
       <c r="G113" t="n">
-        <v>903.85</v>
+        <v>908.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C114" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D114" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E114" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F114" t="n">
-        <v>1.56</v>
+        <v>99.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>904.05</v>
+        <v>907.95</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C115" t="n">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="D115" t="n">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E115" t="n">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="F115" t="n">
-        <v>173.4333</v>
+        <v>1.56</v>
       </c>
       <c r="G115" t="n">
-        <v>903.9</v>
+        <v>907.6333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C116" t="n">
         <v>895</v>
       </c>
       <c r="D116" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E116" t="n">
         <v>895</v>
       </c>
       <c r="F116" t="n">
-        <v>2022</v>
+        <v>173.4333</v>
       </c>
       <c r="G116" t="n">
-        <v>904</v>
+        <v>907.1333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C117" t="n">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D117" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E117" t="n">
         <v>895</v>
       </c>
       <c r="F117" t="n">
-        <v>1662.2791</v>
+        <v>2022</v>
       </c>
       <c r="G117" t="n">
-        <v>903.9</v>
+        <v>906.5666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C118" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D118" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E118" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F118" t="n">
-        <v>175.981</v>
+        <v>1662.2791</v>
       </c>
       <c r="G118" t="n">
-        <v>903.45</v>
+        <v>906.05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C119" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D119" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E119" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F119" t="n">
         <v>175.981</v>
       </c>
       <c r="G119" t="n">
-        <v>902.85</v>
+        <v>905.6333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C120" t="n">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D120" t="n">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E120" t="n">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="F120" t="n">
-        <v>2.2295</v>
+        <v>175.981</v>
       </c>
       <c r="G120" t="n">
-        <v>902.35</v>
+        <v>905.0666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="C121" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="D121" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E121" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="F121" t="n">
-        <v>116.3296</v>
+        <v>2.2295</v>
       </c>
       <c r="G121" t="n">
-        <v>901.5</v>
+        <v>904.6833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4661,10 @@
         <v>897</v>
       </c>
       <c r="F122" t="n">
-        <v>397.1238</v>
+        <v>116.3296</v>
       </c>
       <c r="G122" t="n">
-        <v>900.75</v>
+        <v>904.4666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="C123" t="n">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D123" t="n">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E123" t="n">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="F123" t="n">
-        <v>268.558</v>
+        <v>397.1238</v>
       </c>
       <c r="G123" t="n">
-        <v>899.65</v>
+        <v>904.0166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4722,19 @@
         <v>891</v>
       </c>
       <c r="C124" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D124" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E124" t="n">
         <v>891</v>
       </c>
       <c r="F124" t="n">
-        <v>2.2239</v>
+        <v>268.558</v>
       </c>
       <c r="G124" t="n">
-        <v>899.1</v>
+        <v>903.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C125" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D125" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E125" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F125" t="n">
-        <v>1359.14</v>
+        <v>2.2239</v>
       </c>
       <c r="G125" t="n">
-        <v>898.75</v>
+        <v>903.4166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4792,19 @@
         <v>896</v>
       </c>
       <c r="C126" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D126" t="n">
+        <v>897</v>
+      </c>
+      <c r="E126" t="n">
         <v>896</v>
       </c>
-      <c r="E126" t="n">
-        <v>895</v>
-      </c>
       <c r="F126" t="n">
-        <v>308.0461</v>
+        <v>1359.14</v>
       </c>
       <c r="G126" t="n">
-        <v>898.1</v>
+        <v>903.1333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C127" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D127" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E127" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F127" t="n">
-        <v>330.1282</v>
+        <v>308.0461</v>
       </c>
       <c r="G127" t="n">
-        <v>897.3</v>
+        <v>902.85</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C128" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D128" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E128" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F128" t="n">
-        <v>1107.5824</v>
+        <v>330.1282</v>
       </c>
       <c r="G128" t="n">
-        <v>896.45</v>
+        <v>902.55</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C129" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="D129" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E129" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="F129" t="n">
-        <v>21.9994</v>
+        <v>1107.5824</v>
       </c>
       <c r="G129" t="n">
-        <v>896</v>
+        <v>902.2833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C130" t="n">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D130" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E130" t="n">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F130" t="n">
-        <v>37.94</v>
+        <v>21.9994</v>
       </c>
       <c r="G130" t="n">
-        <v>895.8</v>
+        <v>901.9666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C131" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D131" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E131" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F131" t="n">
-        <v>955.1306</v>
+        <v>37.94</v>
       </c>
       <c r="G131" t="n">
-        <v>894.9</v>
+        <v>901.7166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C132" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D132" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E132" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F132" t="n">
-        <v>235.803</v>
+        <v>955.1306</v>
       </c>
       <c r="G132" t="n">
-        <v>894.35</v>
+        <v>901.2166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C133" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D133" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E133" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F133" t="n">
-        <v>302.6227</v>
+        <v>235.803</v>
       </c>
       <c r="G133" t="n">
-        <v>893.95</v>
+        <v>900.7666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C134" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D134" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E134" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F134" t="n">
-        <v>225.2252</v>
+        <v>302.6227</v>
       </c>
       <c r="G134" t="n">
-        <v>893.25</v>
+        <v>900.3833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C135" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D135" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E135" t="n">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F135" t="n">
-        <v>797.2012</v>
+        <v>225.2252</v>
       </c>
       <c r="G135" t="n">
-        <v>892.8</v>
+        <v>899.85</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C136" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D136" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E136" t="n">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="F136" t="n">
-        <v>755.4893</v>
+        <v>797.2012</v>
       </c>
       <c r="G136" t="n">
-        <v>892.1</v>
+        <v>899.3666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C137" t="n">
         <v>882</v>
       </c>
       <c r="D137" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E137" t="n">
         <v>882</v>
       </c>
       <c r="F137" t="n">
-        <v>70.5538</v>
+        <v>755.4893</v>
       </c>
       <c r="G137" t="n">
-        <v>891.4</v>
+        <v>898.8666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C138" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D138" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E138" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F138" t="n">
-        <v>304.6999</v>
+        <v>70.5538</v>
       </c>
       <c r="G138" t="n">
-        <v>890.65</v>
+        <v>898.6333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C139" t="n">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="D139" t="n">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="E139" t="n">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F139" t="n">
-        <v>37.5702</v>
+        <v>304.6999</v>
       </c>
       <c r="G139" t="n">
-        <v>890.25</v>
+        <v>898.3666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C140" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="D140" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="E140" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F140" t="n">
-        <v>7.2312</v>
+        <v>37.5702</v>
       </c>
       <c r="G140" t="n">
-        <v>889.7</v>
+        <v>898.2333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C141" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D141" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E141" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>7.2312</v>
       </c>
       <c r="G141" t="n">
-        <v>889.35</v>
+        <v>898.0333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C142" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D142" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E142" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>888.85</v>
+        <v>897.75</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="C143" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="D143" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E143" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="F143" t="n">
-        <v>328.4717</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>888.4</v>
+        <v>897.4166666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="C144" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D144" t="n">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E144" t="n">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F144" t="n">
-        <v>1111.9863</v>
+        <v>328.4717</v>
       </c>
       <c r="G144" t="n">
-        <v>887.5</v>
+        <v>896.8833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C145" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D145" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E145" t="n">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F145" t="n">
-        <v>186.57</v>
+        <v>1111.9863</v>
       </c>
       <c r="G145" t="n">
-        <v>886.6</v>
+        <v>896.4166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,7 +5489,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C146" t="n">
         <v>879</v>
@@ -5482,13 +5498,13 @@
         <v>879</v>
       </c>
       <c r="E146" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F146" t="n">
-        <v>108.8299</v>
+        <v>186.57</v>
       </c>
       <c r="G146" t="n">
-        <v>885.75</v>
+        <v>896.0666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5536,10 @@
         <v>879</v>
       </c>
       <c r="F147" t="n">
-        <v>52.1146</v>
+        <v>108.8299</v>
       </c>
       <c r="G147" t="n">
-        <v>885.05</v>
+        <v>895.7333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,35 +5559,31 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C148" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D148" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E148" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F148" t="n">
-        <v>263.16</v>
+        <v>52.1146</v>
       </c>
       <c r="G148" t="n">
-        <v>884.55</v>
+        <v>895.35</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>879</v>
-      </c>
-      <c r="K148" t="n">
-        <v>879</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
@@ -5582,40 +5594,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="C149" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="D149" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="E149" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="F149" t="n">
-        <v>1.78</v>
+        <v>263.16</v>
       </c>
       <c r="G149" t="n">
-        <v>885.35</v>
+        <v>895</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>881</v>
-      </c>
-      <c r="K149" t="n">
-        <v>879</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5625,40 +5629,32 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="C150" t="n">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="D150" t="n">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="E150" t="n">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="F150" t="n">
-        <v>16.1115</v>
+        <v>1.78</v>
       </c>
       <c r="G150" t="n">
-        <v>885</v>
+        <v>895.0833333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>906</v>
-      </c>
-      <c r="K150" t="n">
-        <v>879</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5668,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C151" t="n">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D151" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E151" t="n">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F151" t="n">
-        <v>140.8435</v>
+        <v>16.1115</v>
       </c>
       <c r="G151" t="n">
-        <v>884.6</v>
+        <v>894.8666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5706,19 +5702,19 @@
         <v>878</v>
       </c>
       <c r="C152" t="n">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D152" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E152" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F152" t="n">
-        <v>1136.4</v>
+        <v>140.8435</v>
       </c>
       <c r="G152" t="n">
-        <v>884.15</v>
+        <v>894.6333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5738,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>878</v>
+      </c>
+      <c r="C153" t="n">
         <v>880</v>
       </c>
-      <c r="C153" t="n">
-        <v>886</v>
-      </c>
       <c r="D153" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E153" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F153" t="n">
-        <v>888.2324</v>
+        <v>1136.4</v>
       </c>
       <c r="G153" t="n">
-        <v>883.65</v>
+        <v>894.35</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C154" t="n">
         <v>886</v>
       </c>
       <c r="D154" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="E154" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F154" t="n">
-        <v>275.9509</v>
+        <v>888.2324</v>
       </c>
       <c r="G154" t="n">
-        <v>884.25</v>
+        <v>894.1833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5808,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="C155" t="n">
         <v>886</v>
       </c>
       <c r="D155" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="E155" t="n">
         <v>886</v>
       </c>
       <c r="F155" t="n">
-        <v>15</v>
+        <v>275.9509</v>
       </c>
       <c r="G155" t="n">
-        <v>884.25</v>
+        <v>893.9833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5855,10 +5851,10 @@
         <v>886</v>
       </c>
       <c r="F156" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="G156" t="n">
-        <v>884.35</v>
+        <v>893.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5878,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C157" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D157" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E157" t="n">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="F157" t="n">
-        <v>2156.0396</v>
+        <v>7.9</v>
       </c>
       <c r="G157" t="n">
-        <v>884.5</v>
+        <v>893.6333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,22 +5909,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C158" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D158" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E158" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F158" t="n">
-        <v>84</v>
+        <v>2156.0396</v>
       </c>
       <c r="G158" t="n">
-        <v>884.55</v>
+        <v>893.25</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C159" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D159" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E159" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F159" t="n">
-        <v>49.67</v>
+        <v>84</v>
       </c>
       <c r="G159" t="n">
-        <v>884.3</v>
+        <v>892.8666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5983,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C160" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D160" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E160" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F160" t="n">
-        <v>167.3403</v>
+        <v>49.67</v>
       </c>
       <c r="G160" t="n">
-        <v>883.75</v>
+        <v>892.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C161" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D161" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E161" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F161" t="n">
-        <v>258.15</v>
+        <v>167.3403</v>
       </c>
       <c r="G161" t="n">
-        <v>883.3</v>
+        <v>891.8666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C162" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D162" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E162" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F162" t="n">
-        <v>470.4932</v>
+        <v>258.15</v>
       </c>
       <c r="G162" t="n">
-        <v>883.1</v>
+        <v>891.3166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6100,10 +6096,10 @@
         <v>883</v>
       </c>
       <c r="F163" t="n">
-        <v>66.1542</v>
+        <v>470.4932</v>
       </c>
       <c r="G163" t="n">
-        <v>883.15</v>
+        <v>890.8333333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6135,10 +6131,10 @@
         <v>883</v>
       </c>
       <c r="F164" t="n">
-        <v>36.3072</v>
+        <v>66.1542</v>
       </c>
       <c r="G164" t="n">
-        <v>883.65</v>
+        <v>890.3333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6170,10 +6166,10 @@
         <v>883</v>
       </c>
       <c r="F165" t="n">
-        <v>846.9654</v>
+        <v>36.3072</v>
       </c>
       <c r="G165" t="n">
-        <v>883.9</v>
+        <v>890.0166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6193,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C166" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D166" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E166" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F166" t="n">
-        <v>76.1803</v>
+        <v>846.9654</v>
       </c>
       <c r="G166" t="n">
-        <v>883.95</v>
+        <v>889.6833333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6228,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C167" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D167" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E167" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F167" t="n">
-        <v>286.2667</v>
+        <v>76.1803</v>
       </c>
       <c r="G167" t="n">
-        <v>883.95</v>
+        <v>889.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6263,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C168" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D168" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E168" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F168" t="n">
-        <v>25</v>
+        <v>286.2667</v>
       </c>
       <c r="G168" t="n">
-        <v>883.9</v>
+        <v>888.6166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6298,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C169" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="D169" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E169" t="n">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F169" t="n">
-        <v>2685.0075</v>
+        <v>25</v>
       </c>
       <c r="G169" t="n">
-        <v>882.7</v>
+        <v>888.15</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6333,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C170" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D170" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E170" t="n">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F170" t="n">
-        <v>14</v>
+        <v>2685.0075</v>
       </c>
       <c r="G170" t="n">
-        <v>883.05</v>
+        <v>887.9166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C171" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D171" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E171" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F171" t="n">
-        <v>109.12</v>
+        <v>14</v>
       </c>
       <c r="G171" t="n">
-        <v>883.5</v>
+        <v>887.7833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6403,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C172" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D172" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E172" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F172" t="n">
-        <v>1.7755</v>
+        <v>109.12</v>
       </c>
       <c r="G172" t="n">
-        <v>884.15</v>
+        <v>887.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C173" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D173" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E173" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F173" t="n">
-        <v>68.38</v>
+        <v>1.7755</v>
       </c>
       <c r="G173" t="n">
-        <v>884.65</v>
+        <v>887.3833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6473,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C174" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D174" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E174" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F174" t="n">
-        <v>109.7454</v>
+        <v>68.38</v>
       </c>
       <c r="G174" t="n">
-        <v>884.3</v>
+        <v>887.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C175" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D175" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E175" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F175" t="n">
-        <v>1.55</v>
+        <v>109.7454</v>
       </c>
       <c r="G175" t="n">
-        <v>884.9</v>
+        <v>887.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6543,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="C176" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="D176" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E176" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="F176" t="n">
-        <v>372.2974</v>
+        <v>1.55</v>
       </c>
       <c r="G176" t="n">
-        <v>885.25</v>
+        <v>887.15</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6578,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C177" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D177" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E177" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F177" t="n">
-        <v>36.2147</v>
+        <v>372.2974</v>
       </c>
       <c r="G177" t="n">
-        <v>885.55</v>
+        <v>887.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C178" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D178" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E178" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F178" t="n">
-        <v>1.911</v>
+        <v>36.2147</v>
       </c>
       <c r="G178" t="n">
-        <v>886.05</v>
+        <v>887</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C179" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="D179" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="E179" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="F179" t="n">
-        <v>820.3246</v>
+        <v>1.911</v>
       </c>
       <c r="G179" t="n">
-        <v>886.4</v>
+        <v>886.9333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6683,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C180" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D180" t="n">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E180" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F180" t="n">
-        <v>156.878</v>
+        <v>820.3246</v>
       </c>
       <c r="G180" t="n">
-        <v>886.9</v>
+        <v>886.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C181" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D181" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E181" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F181" t="n">
-        <v>34.6536</v>
+        <v>156.878</v>
       </c>
       <c r="G181" t="n">
-        <v>887.4</v>
+        <v>886.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6753,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C182" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D182" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E182" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F182" t="n">
-        <v>1.44</v>
+        <v>34.6536</v>
       </c>
       <c r="G182" t="n">
-        <v>888.1</v>
+        <v>886.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6788,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C183" t="n">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D183" t="n">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="E183" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="F183" t="n">
-        <v>310.664</v>
+        <v>1.44</v>
       </c>
       <c r="G183" t="n">
-        <v>888.55</v>
+        <v>886.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6823,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C184" t="n">
         <v>893</v>
       </c>
       <c r="D184" t="n">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E184" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F184" t="n">
-        <v>271.6307</v>
+        <v>310.664</v>
       </c>
       <c r="G184" t="n">
-        <v>889.1</v>
+        <v>886.4833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6858,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="C185" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D185" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E185" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F185" t="n">
-        <v>30</v>
+        <v>271.6307</v>
       </c>
       <c r="G185" t="n">
-        <v>889.3</v>
+        <v>886.5166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6893,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="C186" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D186" t="n">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E186" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F186" t="n">
-        <v>64.52</v>
+        <v>30</v>
       </c>
       <c r="G186" t="n">
-        <v>889.3</v>
+        <v>886.3666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6928,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C187" t="n">
         <v>878</v>
       </c>
       <c r="D187" t="n">
+        <v>880</v>
+      </c>
+      <c r="E187" t="n">
         <v>878</v>
       </c>
-      <c r="E187" t="n">
-        <v>877</v>
-      </c>
       <c r="F187" t="n">
-        <v>198.9065</v>
+        <v>64.52</v>
       </c>
       <c r="G187" t="n">
-        <v>889.2</v>
+        <v>886.0833333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,22 +6959,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C188" t="n">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D188" t="n">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E188" t="n">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F188" t="n">
-        <v>708.5995</v>
+        <v>198.9065</v>
       </c>
       <c r="G188" t="n">
-        <v>889.35</v>
+        <v>885.8333333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C189" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D189" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E189" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F189" t="n">
-        <v>626.5199</v>
+        <v>708.5995</v>
       </c>
       <c r="G189" t="n">
-        <v>889.2</v>
+        <v>885.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7028,6 +7024,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>879</v>
+      </c>
+      <c r="C190" t="n">
+        <v>880</v>
+      </c>
+      <c r="D190" t="n">
+        <v>880</v>
+      </c>
+      <c r="E190" t="n">
+        <v>879</v>
+      </c>
+      <c r="F190" t="n">
+        <v>626.5199</v>
+      </c>
+      <c r="G190" t="n">
+        <v>885.6</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.0001</v>
       </c>
       <c r="G2" t="n">
+        <v>895.2666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>887.2333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>4.8</v>
       </c>
       <c r="G3" t="n">
+        <v>895.4666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>887.45</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>891</v>
+      </c>
+      <c r="L3" t="n">
+        <v>891</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>190.1861</v>
       </c>
       <c r="G4" t="n">
+        <v>895.3333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>887.7333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>896</v>
+      </c>
+      <c r="L4" t="n">
+        <v>891</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>44.69</v>
       </c>
       <c r="G5" t="n">
+        <v>895.1333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>888.0666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>896</v>
+      </c>
+      <c r="L5" t="n">
+        <v>891</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>734.607</v>
       </c>
       <c r="G6" t="n">
+        <v>895.2666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>888.4833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>896</v>
+      </c>
+      <c r="L6" t="n">
+        <v>896</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>2668.6065</v>
       </c>
       <c r="G7" t="n">
+        <v>895.3333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>888.85</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>896</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>17.6662</v>
       </c>
       <c r="G8" t="n">
+        <v>895.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>889.35</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>896</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,21 @@
         <v>560.1284000000001</v>
       </c>
       <c r="G9" t="n">
+        <v>896.3333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>889.85</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,21 @@
         <v>413.41</v>
       </c>
       <c r="G10" t="n">
+        <v>897.0666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>890.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,21 @@
         <v>33.7461</v>
       </c>
       <c r="G11" t="n">
+        <v>897.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>891</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +869,21 @@
         <v>363.94</v>
       </c>
       <c r="G12" t="n">
+        <v>898.5333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>891.4666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +907,21 @@
         <v>3004.3248</v>
       </c>
       <c r="G13" t="n">
+        <v>899.2666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>891.95</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +945,21 @@
         <v>86.73999999999999</v>
       </c>
       <c r="G14" t="n">
+        <v>900.3333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>892.5166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +983,21 @@
         <v>353.148</v>
       </c>
       <c r="G15" t="n">
+        <v>901.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>893.05</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1021,21 @@
         <v>35.696</v>
       </c>
       <c r="G16" t="n">
+        <v>902.7333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>893.6333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1059,21 @@
         <v>94.2099</v>
       </c>
       <c r="G17" t="n">
+        <v>903.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>894.0666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1097,21 @@
         <v>105.8755</v>
       </c>
       <c r="G18" t="n">
+        <v>904</v>
+      </c>
+      <c r="H18" t="n">
         <v>894.4666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1135,21 @@
         <v>71.1215</v>
       </c>
       <c r="G19" t="n">
+        <v>904.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>894.8833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1173,21 @@
         <v>12.77</v>
       </c>
       <c r="G20" t="n">
+        <v>905.4</v>
+      </c>
+      <c r="H20" t="n">
         <v>895.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1211,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>905.8</v>
+      </c>
+      <c r="H21" t="n">
         <v>895.6666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1249,21 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>905.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>895.9</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1287,21 @@
         <v>270</v>
       </c>
       <c r="G23" t="n">
+        <v>905.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>896.35</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1325,21 @@
         <v>1.45</v>
       </c>
       <c r="G24" t="n">
+        <v>905.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>896.6833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1363,21 @@
         <v>53.99</v>
       </c>
       <c r="G25" t="n">
+        <v>905.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>897.0833333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1401,21 @@
         <v>119.4903</v>
       </c>
       <c r="G26" t="n">
+        <v>905.4666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>897.4666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,21 @@
         <v>2097.5418</v>
       </c>
       <c r="G27" t="n">
+        <v>905</v>
+      </c>
+      <c r="H27" t="n">
         <v>897.5833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1477,21 @@
         <v>933.9272</v>
       </c>
       <c r="G28" t="n">
+        <v>904.5333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>897.7166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1515,21 @@
         <v>35.0158</v>
       </c>
       <c r="G29" t="n">
+        <v>903.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>898</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1553,21 @@
         <v>806.974</v>
       </c>
       <c r="G30" t="n">
+        <v>903.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>898.2166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1591,21 @@
         <v>3790.265</v>
       </c>
       <c r="G31" t="n">
+        <v>903.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>898.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1629,21 @@
         <v>60</v>
       </c>
       <c r="G32" t="n">
+        <v>903.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>899</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1667,21 @@
         <v>977.6987</v>
       </c>
       <c r="G33" t="n">
+        <v>904.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>899.2</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1705,21 @@
         <v>2.55</v>
       </c>
       <c r="G34" t="n">
+        <v>904.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>899.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1743,21 @@
         <v>12.45</v>
       </c>
       <c r="G35" t="n">
+        <v>903.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>899.5666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1781,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>903.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>899.6</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1819,21 @@
         <v>37.66</v>
       </c>
       <c r="G37" t="n">
+        <v>902.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>899.6833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1857,21 @@
         <v>2.34</v>
       </c>
       <c r="G38" t="n">
+        <v>902.4666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>899.6666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1895,21 @@
         <v>1130.8352</v>
       </c>
       <c r="G39" t="n">
+        <v>904</v>
+      </c>
+      <c r="H39" t="n">
         <v>900.1166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1933,21 @@
         <v>3003.589</v>
       </c>
       <c r="G40" t="n">
+        <v>903.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>900.3</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1971,21 @@
         <v>2.87</v>
       </c>
       <c r="G41" t="n">
+        <v>904.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>900.55</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2009,21 @@
         <v>277.49</v>
       </c>
       <c r="G42" t="n">
+        <v>905.6666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>900.9666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2047,21 @@
         <v>16.7468</v>
       </c>
       <c r="G43" t="n">
+        <v>907.2666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>901.4166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2085,21 @@
         <v>2.56</v>
       </c>
       <c r="G44" t="n">
+        <v>908.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>901.9833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2123,21 @@
         <v>1091.2714</v>
       </c>
       <c r="G45" t="n">
+        <v>909.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>902.4666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2161,21 @@
         <v>18.7415</v>
       </c>
       <c r="G46" t="n">
+        <v>910.1333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>902.9333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2199,21 @@
         <v>1117.2764</v>
       </c>
       <c r="G47" t="n">
+        <v>910.8</v>
+      </c>
+      <c r="H47" t="n">
         <v>903.4</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2237,21 @@
         <v>999.9999</v>
       </c>
       <c r="G48" t="n">
+        <v>911.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>903.85</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2275,21 @@
         <v>517.4206</v>
       </c>
       <c r="G49" t="n">
+        <v>912.9333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>904.2333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2313,21 @@
         <v>177.3675</v>
       </c>
       <c r="G50" t="n">
+        <v>913.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>904.55</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2351,21 @@
         <v>3104.9227</v>
       </c>
       <c r="G51" t="n">
+        <v>915.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>904.9333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2389,21 @@
         <v>6092.2</v>
       </c>
       <c r="G52" t="n">
+        <v>916.5333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>905.15</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2427,21 @@
         <v>22130.6359</v>
       </c>
       <c r="G53" t="n">
+        <v>918.4</v>
+      </c>
+      <c r="H53" t="n">
         <v>905.5666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2465,21 @@
         <v>2084.6009</v>
       </c>
       <c r="G54" t="n">
+        <v>918.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>905.9333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2503,21 @@
         <v>3710.608</v>
       </c>
       <c r="G55" t="n">
+        <v>919.3333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>906.3833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2541,21 @@
         <v>2769.3548</v>
       </c>
       <c r="G56" t="n">
+        <v>920.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>906.9166666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2579,21 @@
         <v>4213</v>
       </c>
       <c r="G57" t="n">
+        <v>920.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>907.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2617,21 @@
         <v>2734.2866</v>
       </c>
       <c r="G58" t="n">
+        <v>921.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>908.0666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2655,21 @@
         <v>593</v>
       </c>
       <c r="G59" t="n">
+        <v>921.2</v>
+      </c>
+      <c r="H59" t="n">
         <v>908.55</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2693,21 @@
         <v>2345.633403767492</v>
       </c>
       <c r="G60" t="n">
+        <v>922</v>
+      </c>
+      <c r="H60" t="n">
         <v>909.1333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2731,21 @@
         <v>1055</v>
       </c>
       <c r="G61" t="n">
+        <v>922.3333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>909.7</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2769,21 @@
         <v>19000</v>
       </c>
       <c r="G62" t="n">
+        <v>921.7333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>910.0166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2807,21 @@
         <v>1400</v>
       </c>
       <c r="G63" t="n">
+        <v>922</v>
+      </c>
+      <c r="H63" t="n">
         <v>910.4833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2845,21 @@
         <v>20000</v>
       </c>
       <c r="G64" t="n">
+        <v>921.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>910.6666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2883,21 @@
         <v>177.8651</v>
       </c>
       <c r="G65" t="n">
+        <v>920.8</v>
+      </c>
+      <c r="H65" t="n">
         <v>910.9666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2921,21 @@
         <v>561.9537</v>
       </c>
       <c r="G66" t="n">
+        <v>920.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>911.1666666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2959,21 @@
         <v>2040.4812</v>
       </c>
       <c r="G67" t="n">
+        <v>920.1333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>911.35</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2997,21 @@
         <v>17229.3411</v>
       </c>
       <c r="G68" t="n">
+        <v>919.3333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>911.45</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3035,21 @@
         <v>23215.7714</v>
       </c>
       <c r="G69" t="n">
+        <v>918.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>911.4833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3073,21 @@
         <v>894</v>
       </c>
       <c r="G70" t="n">
+        <v>917.4666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>911.4833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3111,21 @@
         <v>2497.5396</v>
       </c>
       <c r="G71" t="n">
+        <v>916</v>
+      </c>
+      <c r="H71" t="n">
         <v>911.4666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3149,21 @@
         <v>4126.4792</v>
       </c>
       <c r="G72" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>911.65</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3187,21 @@
         <v>15848.8388</v>
       </c>
       <c r="G73" t="n">
+        <v>914.2</v>
+      </c>
+      <c r="H73" t="n">
         <v>911.8</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3225,21 @@
         <v>1530</v>
       </c>
       <c r="G74" t="n">
+        <v>913.5333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>911.85</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3263,21 @@
         <v>484</v>
       </c>
       <c r="G75" t="n">
+        <v>912.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>912.0166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3301,21 @@
         <v>804.3817</v>
       </c>
       <c r="G76" t="n">
+        <v>912.2666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>912.0833333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3339,21 @@
         <v>81.81</v>
       </c>
       <c r="G77" t="n">
+        <v>912.4</v>
+      </c>
+      <c r="H77" t="n">
         <v>912.2166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3377,21 @@
         <v>1285.8596</v>
       </c>
       <c r="G78" t="n">
+        <v>910.5333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>912.1166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3415,21 @@
         <v>147</v>
       </c>
       <c r="G79" t="n">
+        <v>910</v>
+      </c>
+      <c r="H79" t="n">
         <v>912.0166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3453,21 @@
         <v>811.802</v>
       </c>
       <c r="G80" t="n">
+        <v>909.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>911.9333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3491,21 @@
         <v>103</v>
       </c>
       <c r="G81" t="n">
+        <v>908.6</v>
+      </c>
+      <c r="H81" t="n">
         <v>911.8666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3529,21 @@
         <v>172.0508</v>
       </c>
       <c r="G82" t="n">
+        <v>908.2666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>911.9333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3567,21 @@
         <v>714.2608</v>
       </c>
       <c r="G83" t="n">
+        <v>908</v>
+      </c>
+      <c r="H83" t="n">
         <v>912.05</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3605,21 @@
         <v>511.6508</v>
       </c>
       <c r="G84" t="n">
+        <v>908</v>
+      </c>
+      <c r="H84" t="n">
         <v>912.1833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3643,21 @@
         <v>529.9559</v>
       </c>
       <c r="G85" t="n">
+        <v>907.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>912.15</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3681,21 @@
         <v>34.4088</v>
       </c>
       <c r="G86" t="n">
+        <v>907.7333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>912.0333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3719,21 @@
         <v>105</v>
       </c>
       <c r="G87" t="n">
+        <v>906.6</v>
+      </c>
+      <c r="H87" t="n">
         <v>912.05</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3757,21 @@
         <v>2218.728</v>
       </c>
       <c r="G88" t="n">
+        <v>905.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>912.1166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3795,21 @@
         <v>42.9124</v>
       </c>
       <c r="G89" t="n">
+        <v>905.0666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>912.1333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3833,21 @@
         <v>1689</v>
       </c>
       <c r="G90" t="n">
+        <v>903.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>912.0333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3871,21 @@
         <v>505</v>
       </c>
       <c r="G91" t="n">
+        <v>902.4</v>
+      </c>
+      <c r="H91" t="n">
         <v>911.7833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3909,21 @@
         <v>2339.7693</v>
       </c>
       <c r="G92" t="n">
+        <v>901</v>
+      </c>
+      <c r="H92" t="n">
         <v>911.4833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,22 +3947,21 @@
         <v>36.45</v>
       </c>
       <c r="G93" t="n">
+        <v>901.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>911.35</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>891</v>
-      </c>
-      <c r="K93" t="n">
-        <v>891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,1675 +3985,1825 @@
         <v>2732.29</v>
       </c>
       <c r="G94" t="n">
+        <v>900.8666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>911.2166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>898</v>
+      </c>
+      <c r="C95" t="n">
+        <v>898</v>
+      </c>
+      <c r="D95" t="n">
+        <v>898</v>
+      </c>
+      <c r="E95" t="n">
+        <v>898</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2254.85</v>
+      </c>
+      <c r="G95" t="n">
+        <v>900.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>911.1166666666667</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>898</v>
+      </c>
+      <c r="C96" t="n">
+        <v>897</v>
+      </c>
+      <c r="D96" t="n">
+        <v>898</v>
+      </c>
+      <c r="E96" t="n">
+        <v>888</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3044.18</v>
+      </c>
+      <c r="G96" t="n">
+        <v>900.1333333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>911.1333333333333</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>896</v>
+      </c>
+      <c r="C97" t="n">
+        <v>896</v>
+      </c>
+      <c r="D97" t="n">
+        <v>896</v>
+      </c>
+      <c r="E97" t="n">
+        <v>895</v>
+      </c>
+      <c r="F97" t="n">
+        <v>318.468</v>
+      </c>
+      <c r="G97" t="n">
+        <v>899.4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>911.0833333333334</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>898</v>
+      </c>
+      <c r="C98" t="n">
+        <v>905</v>
+      </c>
+      <c r="D98" t="n">
+        <v>906</v>
+      </c>
+      <c r="E98" t="n">
+        <v>898</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2156.05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>899.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>911.25</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>907</v>
+      </c>
+      <c r="C99" t="n">
+        <v>906</v>
+      </c>
+      <c r="D99" t="n">
+        <v>907</v>
+      </c>
+      <c r="E99" t="n">
+        <v>906</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1668.95</v>
+      </c>
+      <c r="G99" t="n">
+        <v>899.2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>910.9833333333333</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>907</v>
+      </c>
+      <c r="C100" t="n">
+        <v>909</v>
+      </c>
+      <c r="D100" t="n">
+        <v>909</v>
+      </c>
+      <c r="E100" t="n">
+        <v>907</v>
+      </c>
+      <c r="F100" t="n">
+        <v>287.5142</v>
+      </c>
+      <c r="G100" t="n">
+        <v>899.5333333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>911.0666666666667</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>912</v>
+      </c>
+      <c r="C101" t="n">
+        <v>912</v>
+      </c>
+      <c r="D101" t="n">
+        <v>912</v>
+      </c>
+      <c r="E101" t="n">
+        <v>912</v>
+      </c>
+      <c r="F101" t="n">
+        <v>916</v>
+      </c>
+      <c r="G101" t="n">
+        <v>900.3333333333334</v>
+      </c>
+      <c r="H101" t="n">
+        <v>911.0833333333334</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>914</v>
+      </c>
+      <c r="C102" t="n">
+        <v>914</v>
+      </c>
+      <c r="D102" t="n">
+        <v>914</v>
+      </c>
+      <c r="E102" t="n">
+        <v>914</v>
+      </c>
+      <c r="F102" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="G102" t="n">
+        <v>901.3333333333334</v>
+      </c>
+      <c r="H102" t="n">
+        <v>910.9666666666667</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>912</v>
+      </c>
+      <c r="C103" t="n">
+        <v>912</v>
+      </c>
+      <c r="D103" t="n">
+        <v>912</v>
+      </c>
+      <c r="E103" t="n">
+        <v>912</v>
+      </c>
+      <c r="F103" t="n">
+        <v>196.3642</v>
+      </c>
+      <c r="G103" t="n">
+        <v>902</v>
+      </c>
+      <c r="H103" t="n">
+        <v>910.8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>913</v>
+      </c>
+      <c r="C104" t="n">
+        <v>913</v>
+      </c>
+      <c r="D104" t="n">
+        <v>913</v>
+      </c>
+      <c r="E104" t="n">
+        <v>913</v>
+      </c>
+      <c r="F104" t="n">
+        <v>60</v>
+      </c>
+      <c r="G104" t="n">
+        <v>902.7333333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>910.6333333333333</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>902</v>
+      </c>
+      <c r="C105" t="n">
+        <v>902</v>
+      </c>
+      <c r="D105" t="n">
+        <v>902</v>
+      </c>
+      <c r="E105" t="n">
+        <v>902</v>
+      </c>
+      <c r="F105" t="n">
+        <v>77.9081</v>
+      </c>
+      <c r="G105" t="n">
+        <v>902.8</v>
+      </c>
+      <c r="H105" t="n">
+        <v>910.3833333333333</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>903</v>
+      </c>
+      <c r="C106" t="n">
+        <v>903</v>
+      </c>
+      <c r="D106" t="n">
+        <v>903</v>
+      </c>
+      <c r="E106" t="n">
+        <v>903</v>
+      </c>
+      <c r="F106" t="n">
+        <v>500</v>
+      </c>
+      <c r="G106" t="n">
+        <v>903.4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>910.1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>909</v>
+      </c>
+      <c r="C107" t="n">
+        <v>909</v>
+      </c>
+      <c r="D107" t="n">
+        <v>909</v>
+      </c>
+      <c r="E107" t="n">
+        <v>909</v>
+      </c>
+      <c r="F107" t="n">
+        <v>60</v>
+      </c>
+      <c r="G107" t="n">
+        <v>904.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>909.9333333333333</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>909</v>
+      </c>
+      <c r="C108" t="n">
+        <v>914</v>
+      </c>
+      <c r="D108" t="n">
+        <v>914</v>
+      </c>
+      <c r="E108" t="n">
+        <v>909</v>
+      </c>
+      <c r="F108" t="n">
+        <v>120</v>
+      </c>
+      <c r="G108" t="n">
+        <v>905.7333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>909.8333333333334</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>908</v>
+      </c>
+      <c r="C109" t="n">
+        <v>908</v>
+      </c>
+      <c r="D109" t="n">
+        <v>908</v>
+      </c>
+      <c r="E109" t="n">
+        <v>908</v>
+      </c>
+      <c r="F109" t="n">
+        <v>810</v>
+      </c>
+      <c r="G109" t="n">
+        <v>906.5333333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>909.6166666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>899</v>
+      </c>
+      <c r="C110" t="n">
+        <v>899</v>
+      </c>
+      <c r="D110" t="n">
+        <v>899</v>
+      </c>
+      <c r="E110" t="n">
+        <v>899</v>
+      </c>
+      <c r="F110" t="n">
+        <v>980</v>
+      </c>
+      <c r="G110" t="n">
+        <v>906.6</v>
+      </c>
+      <c r="H110" t="n">
+        <v>909.3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>892</v>
+      </c>
+      <c r="C111" t="n">
+        <v>896</v>
+      </c>
+      <c r="D111" t="n">
+        <v>896</v>
+      </c>
+      <c r="E111" t="n">
+        <v>892</v>
+      </c>
+      <c r="F111" t="n">
+        <v>535.2696999999999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>906.5333333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>908.8666666666667</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>904</v>
+      </c>
+      <c r="C112" t="n">
+        <v>904</v>
+      </c>
+      <c r="D112" t="n">
+        <v>904</v>
+      </c>
+      <c r="E112" t="n">
+        <v>904</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>907.0666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>908.7166666666667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>898</v>
+      </c>
+      <c r="C113" t="n">
+        <v>898</v>
+      </c>
+      <c r="D113" t="n">
+        <v>898</v>
+      </c>
+      <c r="E113" t="n">
+        <v>898</v>
+      </c>
+      <c r="F113" t="n">
+        <v>281.82</v>
+      </c>
+      <c r="G113" t="n">
+        <v>906.6</v>
+      </c>
+      <c r="H113" t="n">
+        <v>908.3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>898</v>
+      </c>
+      <c r="C114" t="n">
+        <v>898</v>
+      </c>
+      <c r="D114" t="n">
+        <v>898</v>
+      </c>
+      <c r="E114" t="n">
+        <v>898</v>
+      </c>
+      <c r="F114" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>906.0666666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>907.95</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>902</v>
+      </c>
+      <c r="C115" t="n">
+        <v>902</v>
+      </c>
+      <c r="D115" t="n">
+        <v>902</v>
+      </c>
+      <c r="E115" t="n">
+        <v>902</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G115" t="n">
+        <v>905.6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>907.6333333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>895</v>
+      </c>
+      <c r="C116" t="n">
+        <v>895</v>
+      </c>
+      <c r="D116" t="n">
+        <v>895</v>
+      </c>
+      <c r="E116" t="n">
+        <v>895</v>
+      </c>
+      <c r="F116" t="n">
+        <v>173.4333</v>
+      </c>
+      <c r="G116" t="n">
+        <v>904.4666666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>907.1333333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>898</v>
+      </c>
+      <c r="C117" t="n">
+        <v>895</v>
+      </c>
+      <c r="D117" t="n">
+        <v>898</v>
+      </c>
+      <c r="E117" t="n">
+        <v>895</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G117" t="n">
+        <v>903.2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>906.5666666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>896</v>
+      </c>
+      <c r="C118" t="n">
+        <v>897</v>
+      </c>
+      <c r="D118" t="n">
+        <v>897</v>
+      </c>
+      <c r="E118" t="n">
+        <v>895</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1662.2791</v>
+      </c>
+      <c r="G118" t="n">
+        <v>902.2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>906.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>898</v>
+      </c>
+      <c r="C119" t="n">
+        <v>898</v>
+      </c>
+      <c r="D119" t="n">
+        <v>898</v>
+      </c>
+      <c r="E119" t="n">
+        <v>898</v>
+      </c>
+      <c r="F119" t="n">
+        <v>175.981</v>
+      </c>
+      <c r="G119" t="n">
+        <v>901.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>905.6333333333333</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>895</v>
+      </c>
+      <c r="C120" t="n">
+        <v>895</v>
+      </c>
+      <c r="D120" t="n">
+        <v>895</v>
+      </c>
+      <c r="E120" t="n">
+        <v>895</v>
+      </c>
+      <c r="F120" t="n">
+        <v>175.981</v>
+      </c>
+      <c r="G120" t="n">
+        <v>900.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>905.0666666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>902</v>
+      </c>
+      <c r="C121" t="n">
+        <v>902</v>
+      </c>
+      <c r="D121" t="n">
+        <v>902</v>
+      </c>
+      <c r="E121" t="n">
+        <v>902</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.2295</v>
+      </c>
+      <c r="G121" t="n">
+        <v>900.6666666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>904.6833333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>897</v>
+      </c>
+      <c r="C122" t="n">
+        <v>897</v>
+      </c>
+      <c r="D122" t="n">
+        <v>897</v>
+      </c>
+      <c r="E122" t="n">
+        <v>897</v>
+      </c>
+      <c r="F122" t="n">
+        <v>116.3296</v>
+      </c>
+      <c r="G122" t="n">
+        <v>899.8666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>904.4666666666667</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>897</v>
+      </c>
+      <c r="C123" t="n">
+        <v>897</v>
+      </c>
+      <c r="D123" t="n">
+        <v>897</v>
+      </c>
+      <c r="E123" t="n">
+        <v>897</v>
+      </c>
+      <c r="F123" t="n">
+        <v>397.1238</v>
+      </c>
+      <c r="G123" t="n">
+        <v>898.7333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>904.0166666666667</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>891</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="C124" t="n">
+        <v>894</v>
+      </c>
+      <c r="D124" t="n">
+        <v>894</v>
+      </c>
+      <c r="E124" t="n">
+        <v>891</v>
+      </c>
+      <c r="F124" t="n">
+        <v>268.558</v>
+      </c>
+      <c r="G124" t="n">
+        <v>897.8</v>
+      </c>
+      <c r="H124" t="n">
+        <v>903.8</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>891</v>
+      </c>
+      <c r="C125" t="n">
+        <v>891</v>
+      </c>
+      <c r="D125" t="n">
+        <v>891</v>
+      </c>
+      <c r="E125" t="n">
+        <v>891</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.2239</v>
+      </c>
+      <c r="G125" t="n">
+        <v>897.2666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>903.4166666666666</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>896</v>
+      </c>
+      <c r="C126" t="n">
+        <v>896</v>
+      </c>
+      <c r="D126" t="n">
+        <v>897</v>
+      </c>
+      <c r="E126" t="n">
+        <v>896</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1359.14</v>
+      </c>
+      <c r="G126" t="n">
+        <v>897.2666666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>903.1333333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>896</v>
+      </c>
+      <c r="C127" t="n">
+        <v>895</v>
+      </c>
+      <c r="D127" t="n">
+        <v>896</v>
+      </c>
+      <c r="E127" t="n">
+        <v>895</v>
+      </c>
+      <c r="F127" t="n">
+        <v>308.0461</v>
+      </c>
+      <c r="G127" t="n">
+        <v>896.6666666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>902.85</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>893</v>
+      </c>
+      <c r="C128" t="n">
+        <v>893</v>
+      </c>
+      <c r="D128" t="n">
+        <v>893</v>
+      </c>
+      <c r="E128" t="n">
+        <v>893</v>
+      </c>
+      <c r="F128" t="n">
+        <v>330.1282</v>
+      </c>
+      <c r="G128" t="n">
+        <v>896.3333333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>902.55</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>891</v>
+      </c>
+      <c r="C129" t="n">
+        <v>891</v>
+      </c>
+      <c r="D129" t="n">
+        <v>891</v>
+      </c>
+      <c r="E129" t="n">
+        <v>891</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1107.5824</v>
+      </c>
+      <c r="G129" t="n">
+        <v>895.8666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>902.2833333333333</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>890</v>
+      </c>
+      <c r="C130" t="n">
+        <v>886</v>
+      </c>
+      <c r="D130" t="n">
+        <v>890</v>
+      </c>
+      <c r="E130" t="n">
+        <v>886</v>
+      </c>
+      <c r="F130" t="n">
+        <v>21.9994</v>
+      </c>
+      <c r="G130" t="n">
+        <v>894.8</v>
+      </c>
+      <c r="H130" t="n">
+        <v>901.9666666666667</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>888</v>
+      </c>
+      <c r="C131" t="n">
+        <v>888</v>
+      </c>
+      <c r="D131" t="n">
+        <v>888</v>
+      </c>
+      <c r="E131" t="n">
+        <v>888</v>
+      </c>
+      <c r="F131" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="G131" t="n">
+        <v>894.3333333333334</v>
+      </c>
+      <c r="H131" t="n">
+        <v>901.7166666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>886</v>
+      </c>
+      <c r="C132" t="n">
+        <v>886</v>
+      </c>
+      <c r="D132" t="n">
+        <v>886</v>
+      </c>
+      <c r="E132" t="n">
+        <v>886</v>
+      </c>
+      <c r="F132" t="n">
+        <v>955.1306</v>
+      </c>
+      <c r="G132" t="n">
+        <v>893.7333333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>901.2166666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>887</v>
+      </c>
+      <c r="C133" t="n">
+        <v>887</v>
+      </c>
+      <c r="D133" t="n">
+        <v>887</v>
+      </c>
+      <c r="E133" t="n">
+        <v>887</v>
+      </c>
+      <c r="F133" t="n">
+        <v>235.803</v>
+      </c>
+      <c r="G133" t="n">
+        <v>893.0666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>900.7666666666667</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>890</v>
+      </c>
+      <c r="C134" t="n">
+        <v>890</v>
+      </c>
+      <c r="D134" t="n">
+        <v>890</v>
+      </c>
+      <c r="E134" t="n">
+        <v>890</v>
+      </c>
+      <c r="F134" t="n">
+        <v>302.6227</v>
+      </c>
+      <c r="G134" t="n">
+        <v>892.5333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>900.3833333333333</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>888</v>
+      </c>
+      <c r="C135" t="n">
+        <v>888</v>
+      </c>
+      <c r="D135" t="n">
+        <v>888</v>
+      </c>
+      <c r="E135" t="n">
+        <v>888</v>
+      </c>
+      <c r="F135" t="n">
+        <v>225.2252</v>
+      </c>
+      <c r="G135" t="n">
+        <v>892.0666666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>899.85</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>886</v>
+      </c>
+      <c r="C136" t="n">
+        <v>886</v>
+      </c>
+      <c r="D136" t="n">
+        <v>886</v>
+      </c>
+      <c r="E136" t="n">
+        <v>885</v>
+      </c>
+      <c r="F136" t="n">
+        <v>797.2012</v>
+      </c>
+      <c r="G136" t="n">
+        <v>891</v>
+      </c>
+      <c r="H136" t="n">
+        <v>899.3666666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>884</v>
+      </c>
+      <c r="C137" t="n">
+        <v>882</v>
+      </c>
+      <c r="D137" t="n">
+        <v>884</v>
+      </c>
+      <c r="E137" t="n">
+        <v>882</v>
+      </c>
+      <c r="F137" t="n">
+        <v>755.4893</v>
+      </c>
+      <c r="G137" t="n">
+        <v>890</v>
+      </c>
+      <c r="H137" t="n">
+        <v>898.8666666666667</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>882</v>
+      </c>
+      <c r="C138" t="n">
+        <v>882</v>
+      </c>
+      <c r="D138" t="n">
+        <v>882</v>
+      </c>
+      <c r="E138" t="n">
+        <v>882</v>
+      </c>
+      <c r="F138" t="n">
+        <v>70.5538</v>
+      </c>
+      <c r="G138" t="n">
+        <v>889</v>
+      </c>
+      <c r="H138" t="n">
+        <v>898.6333333333333</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>883</v>
+      </c>
+      <c r="C139" t="n">
+        <v>883</v>
+      </c>
+      <c r="D139" t="n">
+        <v>883</v>
+      </c>
+      <c r="E139" t="n">
+        <v>883</v>
+      </c>
+      <c r="F139" t="n">
+        <v>304.6999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>888.2666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>898.3666666666667</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>882</v>
+      </c>
+      <c r="L139" t="n">
+        <v>882</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>887</v>
+      </c>
+      <c r="C140" t="n">
+        <v>895</v>
+      </c>
+      <c r="D140" t="n">
+        <v>895</v>
+      </c>
+      <c r="E140" t="n">
+        <v>887</v>
+      </c>
+      <c r="F140" t="n">
+        <v>37.5702</v>
+      </c>
+      <c r="G140" t="n">
+        <v>888.5333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>898.2333333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>883</v>
+      </c>
+      <c r="L140" t="n">
+        <v>882</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>898</v>
-      </c>
-      <c r="C95" t="n">
-        <v>898</v>
-      </c>
-      <c r="D95" t="n">
-        <v>898</v>
-      </c>
-      <c r="E95" t="n">
-        <v>898</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2254.85</v>
-      </c>
-      <c r="G95" t="n">
-        <v>911.1166666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>891</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="C141" t="n">
+        <v>891</v>
+      </c>
+      <c r="D141" t="n">
+        <v>891</v>
+      </c>
+      <c r="E141" t="n">
+        <v>891</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7.2312</v>
+      </c>
+      <c r="G141" t="n">
+        <v>888.2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>898.0333333333333</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>882</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>898</v>
-      </c>
-      <c r="C96" t="n">
-        <v>897</v>
-      </c>
-      <c r="D96" t="n">
-        <v>898</v>
-      </c>
-      <c r="E96" t="n">
-        <v>888</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3044.18</v>
-      </c>
-      <c r="G96" t="n">
-        <v>911.1333333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>896</v>
-      </c>
-      <c r="C97" t="n">
-        <v>896</v>
-      </c>
-      <c r="D97" t="n">
-        <v>896</v>
-      </c>
-      <c r="E97" t="n">
-        <v>895</v>
-      </c>
-      <c r="F97" t="n">
-        <v>318.468</v>
-      </c>
-      <c r="G97" t="n">
-        <v>911.0833333333334</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>898</v>
-      </c>
-      <c r="C98" t="n">
-        <v>905</v>
-      </c>
-      <c r="D98" t="n">
-        <v>906</v>
-      </c>
-      <c r="E98" t="n">
-        <v>898</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2156.05</v>
-      </c>
-      <c r="G98" t="n">
-        <v>911.25</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>907</v>
-      </c>
-      <c r="C99" t="n">
-        <v>906</v>
-      </c>
-      <c r="D99" t="n">
-        <v>907</v>
-      </c>
-      <c r="E99" t="n">
-        <v>906</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1668.95</v>
-      </c>
-      <c r="G99" t="n">
-        <v>910.9833333333333</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>907</v>
-      </c>
-      <c r="C100" t="n">
-        <v>909</v>
-      </c>
-      <c r="D100" t="n">
-        <v>909</v>
-      </c>
-      <c r="E100" t="n">
-        <v>907</v>
-      </c>
-      <c r="F100" t="n">
-        <v>287.5142</v>
-      </c>
-      <c r="G100" t="n">
-        <v>911.0666666666667</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>912</v>
-      </c>
-      <c r="C101" t="n">
-        <v>912</v>
-      </c>
-      <c r="D101" t="n">
-        <v>912</v>
-      </c>
-      <c r="E101" t="n">
-        <v>912</v>
-      </c>
-      <c r="F101" t="n">
-        <v>916</v>
-      </c>
-      <c r="G101" t="n">
-        <v>911.0833333333334</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>914</v>
-      </c>
-      <c r="C102" t="n">
-        <v>914</v>
-      </c>
-      <c r="D102" t="n">
-        <v>914</v>
-      </c>
-      <c r="E102" t="n">
-        <v>914</v>
-      </c>
-      <c r="F102" t="n">
-        <v>43.37</v>
-      </c>
-      <c r="G102" t="n">
-        <v>910.9666666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>912</v>
-      </c>
-      <c r="C103" t="n">
-        <v>912</v>
-      </c>
-      <c r="D103" t="n">
-        <v>912</v>
-      </c>
-      <c r="E103" t="n">
-        <v>912</v>
-      </c>
-      <c r="F103" t="n">
-        <v>196.3642</v>
-      </c>
-      <c r="G103" t="n">
-        <v>910.8</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>913</v>
-      </c>
-      <c r="C104" t="n">
-        <v>913</v>
-      </c>
-      <c r="D104" t="n">
-        <v>913</v>
-      </c>
-      <c r="E104" t="n">
-        <v>913</v>
-      </c>
-      <c r="F104" t="n">
-        <v>60</v>
-      </c>
-      <c r="G104" t="n">
-        <v>910.6333333333333</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>902</v>
-      </c>
-      <c r="C105" t="n">
-        <v>902</v>
-      </c>
-      <c r="D105" t="n">
-        <v>902</v>
-      </c>
-      <c r="E105" t="n">
-        <v>902</v>
-      </c>
-      <c r="F105" t="n">
-        <v>77.9081</v>
-      </c>
-      <c r="G105" t="n">
-        <v>910.3833333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>903</v>
-      </c>
-      <c r="C106" t="n">
-        <v>903</v>
-      </c>
-      <c r="D106" t="n">
-        <v>903</v>
-      </c>
-      <c r="E106" t="n">
-        <v>903</v>
-      </c>
-      <c r="F106" t="n">
-        <v>500</v>
-      </c>
-      <c r="G106" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>909</v>
-      </c>
-      <c r="C107" t="n">
-        <v>909</v>
-      </c>
-      <c r="D107" t="n">
-        <v>909</v>
-      </c>
-      <c r="E107" t="n">
-        <v>909</v>
-      </c>
-      <c r="F107" t="n">
-        <v>60</v>
-      </c>
-      <c r="G107" t="n">
-        <v>909.9333333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>909</v>
-      </c>
-      <c r="C108" t="n">
-        <v>914</v>
-      </c>
-      <c r="D108" t="n">
-        <v>914</v>
-      </c>
-      <c r="E108" t="n">
-        <v>909</v>
-      </c>
-      <c r="F108" t="n">
-        <v>120</v>
-      </c>
-      <c r="G108" t="n">
-        <v>909.8333333333334</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>908</v>
-      </c>
-      <c r="C109" t="n">
-        <v>908</v>
-      </c>
-      <c r="D109" t="n">
-        <v>908</v>
-      </c>
-      <c r="E109" t="n">
-        <v>908</v>
-      </c>
-      <c r="F109" t="n">
-        <v>810</v>
-      </c>
-      <c r="G109" t="n">
-        <v>909.6166666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>899</v>
-      </c>
-      <c r="C110" t="n">
-        <v>899</v>
-      </c>
-      <c r="D110" t="n">
-        <v>899</v>
-      </c>
-      <c r="E110" t="n">
-        <v>899</v>
-      </c>
-      <c r="F110" t="n">
-        <v>980</v>
-      </c>
-      <c r="G110" t="n">
-        <v>909.3</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>892</v>
-      </c>
-      <c r="C111" t="n">
-        <v>896</v>
-      </c>
-      <c r="D111" t="n">
-        <v>896</v>
-      </c>
-      <c r="E111" t="n">
-        <v>892</v>
-      </c>
-      <c r="F111" t="n">
-        <v>535.2696999999999</v>
-      </c>
-      <c r="G111" t="n">
-        <v>908.8666666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>904</v>
-      </c>
-      <c r="C112" t="n">
-        <v>904</v>
-      </c>
-      <c r="D112" t="n">
-        <v>904</v>
-      </c>
-      <c r="E112" t="n">
-        <v>904</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>908.7166666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>898</v>
-      </c>
-      <c r="C113" t="n">
-        <v>898</v>
-      </c>
-      <c r="D113" t="n">
-        <v>898</v>
-      </c>
-      <c r="E113" t="n">
-        <v>898</v>
-      </c>
-      <c r="F113" t="n">
-        <v>281.82</v>
-      </c>
-      <c r="G113" t="n">
-        <v>908.3</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>898</v>
-      </c>
-      <c r="C114" t="n">
-        <v>898</v>
-      </c>
-      <c r="D114" t="n">
-        <v>898</v>
-      </c>
-      <c r="E114" t="n">
-        <v>898</v>
-      </c>
-      <c r="F114" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>907.95</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>902</v>
-      </c>
-      <c r="C115" t="n">
-        <v>902</v>
-      </c>
-      <c r="D115" t="n">
-        <v>902</v>
-      </c>
-      <c r="E115" t="n">
-        <v>902</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G115" t="n">
-        <v>907.6333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>895</v>
-      </c>
-      <c r="C116" t="n">
-        <v>895</v>
-      </c>
-      <c r="D116" t="n">
-        <v>895</v>
-      </c>
-      <c r="E116" t="n">
-        <v>895</v>
-      </c>
-      <c r="F116" t="n">
-        <v>173.4333</v>
-      </c>
-      <c r="G116" t="n">
-        <v>907.1333333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>898</v>
-      </c>
-      <c r="C117" t="n">
-        <v>895</v>
-      </c>
-      <c r="D117" t="n">
-        <v>898</v>
-      </c>
-      <c r="E117" t="n">
-        <v>895</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G117" t="n">
-        <v>906.5666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>896</v>
-      </c>
-      <c r="C118" t="n">
-        <v>897</v>
-      </c>
-      <c r="D118" t="n">
-        <v>897</v>
-      </c>
-      <c r="E118" t="n">
-        <v>895</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1662.2791</v>
-      </c>
-      <c r="G118" t="n">
-        <v>906.05</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>898</v>
-      </c>
-      <c r="C119" t="n">
-        <v>898</v>
-      </c>
-      <c r="D119" t="n">
-        <v>898</v>
-      </c>
-      <c r="E119" t="n">
-        <v>898</v>
-      </c>
-      <c r="F119" t="n">
-        <v>175.981</v>
-      </c>
-      <c r="G119" t="n">
-        <v>905.6333333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>895</v>
-      </c>
-      <c r="C120" t="n">
-        <v>895</v>
-      </c>
-      <c r="D120" t="n">
-        <v>895</v>
-      </c>
-      <c r="E120" t="n">
-        <v>895</v>
-      </c>
-      <c r="F120" t="n">
-        <v>175.981</v>
-      </c>
-      <c r="G120" t="n">
-        <v>905.0666666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>902</v>
-      </c>
-      <c r="C121" t="n">
-        <v>902</v>
-      </c>
-      <c r="D121" t="n">
-        <v>902</v>
-      </c>
-      <c r="E121" t="n">
-        <v>902</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2.2295</v>
-      </c>
-      <c r="G121" t="n">
-        <v>904.6833333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>897</v>
-      </c>
-      <c r="C122" t="n">
-        <v>897</v>
-      </c>
-      <c r="D122" t="n">
-        <v>897</v>
-      </c>
-      <c r="E122" t="n">
-        <v>897</v>
-      </c>
-      <c r="F122" t="n">
-        <v>116.3296</v>
-      </c>
-      <c r="G122" t="n">
-        <v>904.4666666666667</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>897</v>
-      </c>
-      <c r="C123" t="n">
-        <v>897</v>
-      </c>
-      <c r="D123" t="n">
-        <v>897</v>
-      </c>
-      <c r="E123" t="n">
-        <v>897</v>
-      </c>
-      <c r="F123" t="n">
-        <v>397.1238</v>
-      </c>
-      <c r="G123" t="n">
-        <v>904.0166666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>891</v>
-      </c>
-      <c r="C124" t="n">
-        <v>894</v>
-      </c>
-      <c r="D124" t="n">
-        <v>894</v>
-      </c>
-      <c r="E124" t="n">
-        <v>891</v>
-      </c>
-      <c r="F124" t="n">
-        <v>268.558</v>
-      </c>
-      <c r="G124" t="n">
-        <v>903.8</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>891</v>
-      </c>
-      <c r="C125" t="n">
-        <v>891</v>
-      </c>
-      <c r="D125" t="n">
-        <v>891</v>
-      </c>
-      <c r="E125" t="n">
-        <v>891</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.2239</v>
-      </c>
-      <c r="G125" t="n">
-        <v>903.4166666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>896</v>
-      </c>
-      <c r="C126" t="n">
-        <v>896</v>
-      </c>
-      <c r="D126" t="n">
-        <v>897</v>
-      </c>
-      <c r="E126" t="n">
-        <v>896</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1359.14</v>
-      </c>
-      <c r="G126" t="n">
-        <v>903.1333333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>896</v>
-      </c>
-      <c r="C127" t="n">
-        <v>895</v>
-      </c>
-      <c r="D127" t="n">
-        <v>896</v>
-      </c>
-      <c r="E127" t="n">
-        <v>895</v>
-      </c>
-      <c r="F127" t="n">
-        <v>308.0461</v>
-      </c>
-      <c r="G127" t="n">
-        <v>902.85</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>893</v>
-      </c>
-      <c r="C128" t="n">
-        <v>893</v>
-      </c>
-      <c r="D128" t="n">
-        <v>893</v>
-      </c>
-      <c r="E128" t="n">
-        <v>893</v>
-      </c>
-      <c r="F128" t="n">
-        <v>330.1282</v>
-      </c>
-      <c r="G128" t="n">
-        <v>902.55</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>891</v>
-      </c>
-      <c r="C129" t="n">
-        <v>891</v>
-      </c>
-      <c r="D129" t="n">
-        <v>891</v>
-      </c>
-      <c r="E129" t="n">
-        <v>891</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1107.5824</v>
-      </c>
-      <c r="G129" t="n">
-        <v>902.2833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>890</v>
-      </c>
-      <c r="C130" t="n">
-        <v>886</v>
-      </c>
-      <c r="D130" t="n">
-        <v>890</v>
-      </c>
-      <c r="E130" t="n">
-        <v>886</v>
-      </c>
-      <c r="F130" t="n">
-        <v>21.9994</v>
-      </c>
-      <c r="G130" t="n">
-        <v>901.9666666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>888</v>
-      </c>
-      <c r="C131" t="n">
-        <v>888</v>
-      </c>
-      <c r="D131" t="n">
-        <v>888</v>
-      </c>
-      <c r="E131" t="n">
-        <v>888</v>
-      </c>
-      <c r="F131" t="n">
-        <v>37.94</v>
-      </c>
-      <c r="G131" t="n">
-        <v>901.7166666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>886</v>
-      </c>
-      <c r="C132" t="n">
-        <v>886</v>
-      </c>
-      <c r="D132" t="n">
-        <v>886</v>
-      </c>
-      <c r="E132" t="n">
-        <v>886</v>
-      </c>
-      <c r="F132" t="n">
-        <v>955.1306</v>
-      </c>
-      <c r="G132" t="n">
-        <v>901.2166666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>887</v>
-      </c>
-      <c r="C133" t="n">
-        <v>887</v>
-      </c>
-      <c r="D133" t="n">
-        <v>887</v>
-      </c>
-      <c r="E133" t="n">
-        <v>887</v>
-      </c>
-      <c r="F133" t="n">
-        <v>235.803</v>
-      </c>
-      <c r="G133" t="n">
-        <v>900.7666666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>890</v>
-      </c>
-      <c r="C134" t="n">
-        <v>890</v>
-      </c>
-      <c r="D134" t="n">
-        <v>890</v>
-      </c>
-      <c r="E134" t="n">
-        <v>890</v>
-      </c>
-      <c r="F134" t="n">
-        <v>302.6227</v>
-      </c>
-      <c r="G134" t="n">
-        <v>900.3833333333333</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>888</v>
-      </c>
-      <c r="C135" t="n">
-        <v>888</v>
-      </c>
-      <c r="D135" t="n">
-        <v>888</v>
-      </c>
-      <c r="E135" t="n">
-        <v>888</v>
-      </c>
-      <c r="F135" t="n">
-        <v>225.2252</v>
-      </c>
-      <c r="G135" t="n">
-        <v>899.85</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>886</v>
-      </c>
-      <c r="C136" t="n">
-        <v>886</v>
-      </c>
-      <c r="D136" t="n">
-        <v>886</v>
-      </c>
-      <c r="E136" t="n">
-        <v>885</v>
-      </c>
-      <c r="F136" t="n">
-        <v>797.2012</v>
-      </c>
-      <c r="G136" t="n">
-        <v>899.3666666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>884</v>
-      </c>
-      <c r="C137" t="n">
-        <v>882</v>
-      </c>
-      <c r="D137" t="n">
-        <v>884</v>
-      </c>
-      <c r="E137" t="n">
-        <v>882</v>
-      </c>
-      <c r="F137" t="n">
-        <v>755.4893</v>
-      </c>
-      <c r="G137" t="n">
-        <v>898.8666666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>882</v>
-      </c>
-      <c r="C138" t="n">
-        <v>882</v>
-      </c>
-      <c r="D138" t="n">
-        <v>882</v>
-      </c>
-      <c r="E138" t="n">
-        <v>882</v>
-      </c>
-      <c r="F138" t="n">
-        <v>70.5538</v>
-      </c>
-      <c r="G138" t="n">
-        <v>898.6333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>883</v>
-      </c>
-      <c r="C139" t="n">
-        <v>883</v>
-      </c>
-      <c r="D139" t="n">
-        <v>883</v>
-      </c>
-      <c r="E139" t="n">
-        <v>883</v>
-      </c>
-      <c r="F139" t="n">
-        <v>304.6999</v>
-      </c>
-      <c r="G139" t="n">
-        <v>898.3666666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>887</v>
-      </c>
-      <c r="C140" t="n">
-        <v>895</v>
-      </c>
-      <c r="D140" t="n">
-        <v>895</v>
-      </c>
-      <c r="E140" t="n">
-        <v>887</v>
-      </c>
-      <c r="F140" t="n">
-        <v>37.5702</v>
-      </c>
-      <c r="G140" t="n">
-        <v>898.2333333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>891</v>
-      </c>
-      <c r="C141" t="n">
-        <v>891</v>
-      </c>
-      <c r="D141" t="n">
-        <v>891</v>
-      </c>
-      <c r="E141" t="n">
-        <v>891</v>
-      </c>
-      <c r="F141" t="n">
-        <v>7.2312</v>
-      </c>
-      <c r="G141" t="n">
-        <v>898.0333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5827,21 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
+        <v>887.8666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>897.75</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5865,21 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
+        <v>887.4666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>897.4166666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5903,21 @@
         <v>328.4717</v>
       </c>
       <c r="G144" t="n">
+        <v>886.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>896.8833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5941,27 @@
         <v>1111.9863</v>
       </c>
       <c r="G145" t="n">
+        <v>885.7333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>896.4166666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>875</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +5985,27 @@
         <v>186.57</v>
       </c>
       <c r="G146" t="n">
+        <v>885.1333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>896.0666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>876</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6029,27 @@
         <v>108.8299</v>
       </c>
       <c r="G147" t="n">
+        <v>884.6666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>895.7333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>879</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6073,27 @@
         <v>52.1146</v>
       </c>
       <c r="G148" t="n">
+        <v>884.1333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>895.35</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>879</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6117,27 @@
         <v>263.16</v>
       </c>
       <c r="G149" t="n">
+        <v>883.5333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>895</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>879</v>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6161,27 @@
         <v>1.78</v>
       </c>
       <c r="G150" t="n">
+        <v>884.7333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>895.0833333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>881</v>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6205,25 @@
         <v>16.1115</v>
       </c>
       <c r="G151" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="H151" t="n">
         <v>894.8666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6247,25 @@
         <v>140.8435</v>
       </c>
       <c r="G152" t="n">
+        <v>884.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>894.6333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6289,25 @@
         <v>1136.4</v>
       </c>
       <c r="G153" t="n">
+        <v>883.9333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>894.35</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6331,25 @@
         <v>888.2324</v>
       </c>
       <c r="G154" t="n">
+        <v>884.1333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>894.1833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6373,25 @@
         <v>275.9509</v>
       </c>
       <c r="G155" t="n">
+        <v>883.5333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>893.9833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6415,27 @@
         <v>15</v>
       </c>
       <c r="G156" t="n">
+        <v>883.2</v>
+      </c>
+      <c r="H156" t="n">
         <v>893.8</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>886</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6459,25 @@
         <v>7.9</v>
       </c>
       <c r="G157" t="n">
+        <v>882.9333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>893.6333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6501,25 @@
         <v>2156.0396</v>
       </c>
       <c r="G158" t="n">
+        <v>882.6</v>
+      </c>
+      <c r="H158" t="n">
         <v>893.25</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6543,27 @@
         <v>84</v>
       </c>
       <c r="G159" t="n">
+        <v>883.1333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>892.8666666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>882</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6587,25 @@
         <v>49.67</v>
       </c>
       <c r="G160" t="n">
+        <v>883.4666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>892.4</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6629,25 @@
         <v>167.3403</v>
       </c>
       <c r="G161" t="n">
+        <v>883.5333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>891.8666666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6671,25 @@
         <v>258.15</v>
       </c>
       <c r="G162" t="n">
+        <v>883.6666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>891.3166666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6713,27 @@
         <v>470.4932</v>
       </c>
       <c r="G163" t="n">
+        <v>883.9333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>890.8333333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>881</v>
+      </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6757,27 @@
         <v>66.1542</v>
       </c>
       <c r="G164" t="n">
+        <v>884.0666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>890.3333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>883</v>
+      </c>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6801,27 @@
         <v>36.3072</v>
       </c>
       <c r="G165" t="n">
+        <v>882.5333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>890.0166666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>883</v>
+      </c>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6845,27 @@
         <v>846.9654</v>
       </c>
       <c r="G166" t="n">
+        <v>882.6666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>889.6833333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>883</v>
+      </c>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +6889,27 @@
         <v>76.1803</v>
       </c>
       <c r="G167" t="n">
+        <v>882.8666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>889.2</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>883</v>
+      </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +6933,25 @@
         <v>286.2667</v>
       </c>
       <c r="G168" t="n">
+        <v>882.8</v>
+      </c>
+      <c r="H168" t="n">
         <v>888.6166666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +6975,25 @@
         <v>25</v>
       </c>
       <c r="G169" t="n">
+        <v>882.4</v>
+      </c>
+      <c r="H169" t="n">
         <v>888.15</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7017,25 @@
         <v>2685.0075</v>
       </c>
       <c r="G170" t="n">
+        <v>882.3333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>887.9166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7059,25 @@
         <v>14</v>
       </c>
       <c r="G171" t="n">
+        <v>882.4666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>887.7833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7101,25 @@
         <v>109.12</v>
       </c>
       <c r="G172" t="n">
+        <v>882.5333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>887.5</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7143,25 @@
         <v>1.7755</v>
       </c>
       <c r="G173" t="n">
+        <v>883.1333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>887.3833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7185,25 @@
         <v>68.38</v>
       </c>
       <c r="G174" t="n">
+        <v>883.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>887.25</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7227,25 @@
         <v>109.7454</v>
       </c>
       <c r="G175" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>887.1</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7269,25 @@
         <v>1.55</v>
       </c>
       <c r="G176" t="n">
+        <v>885.6</v>
+      </c>
+      <c r="H176" t="n">
         <v>887.15</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7311,25 @@
         <v>372.2974</v>
       </c>
       <c r="G177" t="n">
+        <v>886.3333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>887.1</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7353,25 @@
         <v>36.2147</v>
       </c>
       <c r="G178" t="n">
+        <v>886.8666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>887</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7395,25 @@
         <v>1.911</v>
       </c>
       <c r="G179" t="n">
+        <v>887.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>886.9333333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7437,25 @@
         <v>820.3246</v>
       </c>
       <c r="G180" t="n">
+        <v>887.8666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>886.8</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7479,25 @@
         <v>156.878</v>
       </c>
       <c r="G181" t="n">
+        <v>888.3333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>886.6</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7521,25 @@
         <v>34.6536</v>
       </c>
       <c r="G182" t="n">
+        <v>889.0666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>886.5</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7563,25 @@
         <v>1.44</v>
       </c>
       <c r="G183" t="n">
+        <v>890.2666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>886.5</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7605,25 @@
         <v>310.664</v>
       </c>
       <c r="G184" t="n">
+        <v>891.1333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>886.4833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7647,25 @@
         <v>271.6307</v>
       </c>
       <c r="G185" t="n">
+        <v>891.6666666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>886.5166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7689,25 @@
         <v>30</v>
       </c>
       <c r="G186" t="n">
+        <v>891.6</v>
+      </c>
+      <c r="H186" t="n">
         <v>886.3666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7731,25 @@
         <v>64.52</v>
       </c>
       <c r="G187" t="n">
+        <v>891</v>
+      </c>
+      <c r="H187" t="n">
         <v>886.0833333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7773,25 @@
         <v>198.9065</v>
       </c>
       <c r="G188" t="n">
+        <v>890.1333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>885.8333333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7815,25 @@
         <v>708.5995</v>
       </c>
       <c r="G189" t="n">
+        <v>889.6666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>885.7</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7857,451 @@
         <v>626.5199</v>
       </c>
       <c r="G190" t="n">
+        <v>888.8</v>
+      </c>
+      <c r="H190" t="n">
         <v>885.6</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>880</v>
+      </c>
+      <c r="C191" t="n">
+        <v>880</v>
+      </c>
+      <c r="D191" t="n">
+        <v>880</v>
+      </c>
+      <c r="E191" t="n">
+        <v>880</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1238.3028</v>
+      </c>
+      <c r="G191" t="n">
+        <v>887.6</v>
+      </c>
+      <c r="H191" t="n">
+        <v>885.4666666666667</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>880</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>886</v>
+      </c>
+      <c r="C192" t="n">
+        <v>886</v>
+      </c>
+      <c r="D192" t="n">
+        <v>886</v>
+      </c>
+      <c r="E192" t="n">
+        <v>886</v>
+      </c>
+      <c r="F192" t="n">
+        <v>234.9512</v>
+      </c>
+      <c r="G192" t="n">
+        <v>887.2</v>
+      </c>
+      <c r="H192" t="n">
+        <v>885.4666666666667</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>880</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>889</v>
+      </c>
+      <c r="C193" t="n">
+        <v>889</v>
+      </c>
+      <c r="D193" t="n">
+        <v>889</v>
+      </c>
+      <c r="E193" t="n">
+        <v>889</v>
+      </c>
+      <c r="F193" t="n">
+        <v>216.154</v>
+      </c>
+      <c r="G193" t="n">
+        <v>887.0666666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>885.5</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>886</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>892</v>
+      </c>
+      <c r="C194" t="n">
+        <v>891</v>
+      </c>
+      <c r="D194" t="n">
+        <v>892</v>
+      </c>
+      <c r="E194" t="n">
+        <v>891</v>
+      </c>
+      <c r="F194" t="n">
+        <v>499.9999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>886.8666666666667</v>
+      </c>
+      <c r="H194" t="n">
+        <v>885.5166666666667</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>886</v>
+      </c>
+      <c r="C195" t="n">
+        <v>886</v>
+      </c>
+      <c r="D195" t="n">
+        <v>886</v>
+      </c>
+      <c r="E195" t="n">
+        <v>886</v>
+      </c>
+      <c r="F195" t="n">
+        <v>347.8036</v>
+      </c>
+      <c r="G195" t="n">
+        <v>886.8</v>
+      </c>
+      <c r="H195" t="n">
+        <v>885.4833333333333</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>883</v>
+      </c>
+      <c r="C196" t="n">
+        <v>883</v>
+      </c>
+      <c r="D196" t="n">
+        <v>883</v>
+      </c>
+      <c r="E196" t="n">
+        <v>883</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G196" t="n">
+        <v>886.3333333333334</v>
+      </c>
+      <c r="H196" t="n">
+        <v>885.4333333333333</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>888</v>
+      </c>
+      <c r="C197" t="n">
+        <v>888</v>
+      </c>
+      <c r="D197" t="n">
+        <v>888</v>
+      </c>
+      <c r="E197" t="n">
+        <v>888</v>
+      </c>
+      <c r="F197" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="G197" t="n">
+        <v>886.1333333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>885.5333333333333</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>885</v>
+      </c>
+      <c r="C198" t="n">
+        <v>893</v>
+      </c>
+      <c r="D198" t="n">
+        <v>893</v>
+      </c>
+      <c r="E198" t="n">
+        <v>885</v>
+      </c>
+      <c r="F198" t="n">
+        <v>956.4447</v>
+      </c>
+      <c r="G198" t="n">
+        <v>885.8666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>885.7166666666667</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>893</v>
+      </c>
+      <c r="C199" t="n">
+        <v>893</v>
+      </c>
+      <c r="D199" t="n">
+        <v>893</v>
+      </c>
+      <c r="E199" t="n">
+        <v>893</v>
+      </c>
+      <c r="F199" t="n">
+        <v>12</v>
+      </c>
+      <c r="G199" t="n">
+        <v>885.8666666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>885.8833333333333</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>895</v>
+      </c>
+      <c r="C200" t="n">
+        <v>895</v>
+      </c>
+      <c r="D200" t="n">
+        <v>895</v>
+      </c>
+      <c r="E200" t="n">
+        <v>895</v>
+      </c>
+      <c r="F200" t="n">
+        <v>34.0288</v>
+      </c>
+      <c r="G200" t="n">
+        <v>886</v>
+      </c>
+      <c r="H200" t="n">
+        <v>885.8833333333333</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="C2" t="n">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="D2" t="n">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="E2" t="n">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="F2" t="n">
-        <v>44.1099</v>
+        <v>353.148</v>
       </c>
       <c r="G2" t="n">
-        <v>-21452.6484</v>
+        <v>899.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="C3" t="n">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="D3" t="n">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="E3" t="n">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="F3" t="n">
-        <v>1661.8158</v>
+        <v>35.696</v>
       </c>
       <c r="G3" t="n">
-        <v>-23114.4642</v>
+        <v>900.4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="C4" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D4" t="n">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="E4" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F4" t="n">
-        <v>1297.8262</v>
+        <v>94.2099</v>
       </c>
       <c r="G4" t="n">
-        <v>-21816.638</v>
+        <v>900.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="E5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="F5" t="n">
-        <v>5.9362</v>
+        <v>105.8755</v>
       </c>
       <c r="G5" t="n">
-        <v>-21816.638</v>
+        <v>901.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="C6" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="D6" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="E6" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F6" t="n">
-        <v>278.774</v>
+        <v>71.1215</v>
       </c>
       <c r="G6" t="n">
-        <v>-21816.638</v>
+        <v>901.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="C7" t="n">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="D7" t="n">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="E7" t="n">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="F7" t="n">
-        <v>33.7</v>
+        <v>12.77</v>
       </c>
       <c r="G7" t="n">
-        <v>-21782.938</v>
+        <v>902.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="C8" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="D8" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E8" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="F8" t="n">
-        <v>1392.8815</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-23175.8195</v>
+        <v>902.95</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C9" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="D9" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="E9" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="F9" t="n">
-        <v>943</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-24118.8195</v>
+        <v>903.55</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="C10" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="E10" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F10" t="n">
-        <v>2013.0955</v>
+        <v>270</v>
       </c>
       <c r="G10" t="n">
-        <v>-22105.724</v>
+        <v>903.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C11" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E11" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="G11" t="n">
-        <v>-22105.724</v>
+        <v>904.05</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="C12" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="D12" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="E12" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="F12" t="n">
-        <v>1700.2853</v>
+        <v>53.99</v>
       </c>
       <c r="G12" t="n">
-        <v>-23806.0093</v>
+        <v>904.55</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="C13" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="D13" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="E13" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="F13" t="n">
-        <v>18.2121</v>
+        <v>119.4903</v>
       </c>
       <c r="G13" t="n">
-        <v>-23824.2214</v>
+        <v>904.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="C14" t="n">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="D14" t="n">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="E14" t="n">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="F14" t="n">
-        <v>1025.6737</v>
+        <v>2097.5418</v>
       </c>
       <c r="G14" t="n">
-        <v>-24849.8951</v>
+        <v>904.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="C15" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="D15" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E15" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="F15" t="n">
-        <v>1150.0438</v>
+        <v>933.9272</v>
       </c>
       <c r="G15" t="n">
-        <v>-23699.8513</v>
+        <v>904.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="C16" t="n">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="D16" t="n">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E16" t="n">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="F16" t="n">
-        <v>1051.68</v>
+        <v>35.0158</v>
       </c>
       <c r="G16" t="n">
-        <v>-24751.5313</v>
+        <v>904.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="C17" t="n">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="D17" t="n">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="E17" t="n">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="F17" t="n">
-        <v>68.42489999999999</v>
+        <v>806.974</v>
       </c>
       <c r="G17" t="n">
-        <v>-24683.1064</v>
+        <v>904.65</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="C18" t="n">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="D18" t="n">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="E18" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F18" t="n">
-        <v>2773.4888</v>
+        <v>3790.265</v>
       </c>
       <c r="G18" t="n">
-        <v>-21909.6176</v>
+        <v>904.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="C19" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="D19" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="E19" t="n">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="F19" t="n">
-        <v>1636.5542</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>-20273.0634</v>
+        <v>905</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="C20" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D20" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E20" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="F20" t="n">
-        <v>2107.2934</v>
+        <v>977.6987</v>
       </c>
       <c r="G20" t="n">
-        <v>-20273.0634</v>
+        <v>905</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C21" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D21" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E21" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F21" t="n">
-        <v>113.3</v>
+        <v>2.55</v>
       </c>
       <c r="G21" t="n">
-        <v>-20159.7634</v>
+        <v>904.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C22" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D22" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E22" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F22" t="n">
-        <v>1872.9749</v>
+        <v>12.45</v>
       </c>
       <c r="G22" t="n">
-        <v>-22032.7383</v>
+        <v>904.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C23" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D23" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F23" t="n">
-        <v>1108.3874</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-23141.1257</v>
+        <v>903.65</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C24" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="D24" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="E24" t="n">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="F24" t="n">
-        <v>1348.4032</v>
+        <v>37.66</v>
       </c>
       <c r="G24" t="n">
-        <v>-24489.5289</v>
+        <v>903.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C25" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D25" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E25" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F25" t="n">
-        <v>36.5774</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>-24526.1063</v>
+        <v>903.05</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C26" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="D26" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E26" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="F26" t="n">
-        <v>725.9598999999999</v>
+        <v>1130.8352</v>
       </c>
       <c r="G26" t="n">
-        <v>-23800.1464</v>
+        <v>903.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="C27" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D27" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="E27" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F27" t="n">
-        <v>598.4782</v>
+        <v>3003.589</v>
       </c>
       <c r="G27" t="n">
-        <v>-23800.1464</v>
+        <v>903.05</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="C28" t="n">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="D28" t="n">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="E28" t="n">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="F28" t="n">
-        <v>371.7699</v>
+        <v>2.87</v>
       </c>
       <c r="G28" t="n">
-        <v>-23800.1464</v>
+        <v>903.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="C29" t="n">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="D29" t="n">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="E29" t="n">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="F29" t="n">
-        <v>17.6231</v>
+        <v>277.49</v>
       </c>
       <c r="G29" t="n">
-        <v>-23800.1464</v>
+        <v>904</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="C30" t="n">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="D30" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E30" t="n">
-        <v>889</v>
+        <v>922</v>
       </c>
       <c r="F30" t="n">
-        <v>193.2849</v>
+        <v>16.7468</v>
       </c>
       <c r="G30" t="n">
-        <v>-23993.4313</v>
+        <v>904.95</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="C31" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="D31" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="E31" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>-23993.4313</v>
+        <v>906.15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="C32" t="n">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="E32" t="n">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>1091.2714</v>
       </c>
       <c r="G32" t="n">
-        <v>-23988.6313</v>
+        <v>906.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="C33" t="n">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="D33" t="n">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="E33" t="n">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="F33" t="n">
-        <v>190.1861</v>
+        <v>18.7415</v>
       </c>
       <c r="G33" t="n">
-        <v>-23988.6313</v>
+        <v>907.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="C34" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="E34" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="F34" t="n">
-        <v>44.69</v>
+        <v>1117.2764</v>
       </c>
       <c r="G34" t="n">
-        <v>-23988.6313</v>
+        <v>908</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="C35" t="n">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="D35" t="n">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="E35" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="F35" t="n">
-        <v>734.607</v>
+        <v>999.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>-23254.0243</v>
+        <v>909.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="C36" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="D36" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E36" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="F36" t="n">
-        <v>2668.6065</v>
+        <v>517.4206</v>
       </c>
       <c r="G36" t="n">
-        <v>-23254.0243</v>
+        <v>910.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="C37" t="n">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="D37" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="E37" t="n">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="F37" t="n">
-        <v>17.6662</v>
+        <v>177.3675</v>
       </c>
       <c r="G37" t="n">
-        <v>-23236.3581</v>
+        <v>910.95</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="C38" t="n">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="D38" t="n">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="E38" t="n">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="F38" t="n">
-        <v>560.1284000000001</v>
+        <v>3104.9227</v>
       </c>
       <c r="G38" t="n">
-        <v>-23236.3581</v>
+        <v>911.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="C39" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D39" t="n">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E39" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="F39" t="n">
-        <v>413.41</v>
+        <v>6092.2</v>
       </c>
       <c r="G39" t="n">
-        <v>-23236.3581</v>
+        <v>911.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="C40" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D40" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="E40" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="F40" t="n">
-        <v>33.7461</v>
+        <v>22130.6359</v>
       </c>
       <c r="G40" t="n">
-        <v>-23270.1042</v>
+        <v>912.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="C41" t="n">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="D41" t="n">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="E41" t="n">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="F41" t="n">
-        <v>363.94</v>
+        <v>2084.6009</v>
       </c>
       <c r="G41" t="n">
-        <v>-22906.1642</v>
+        <v>913.35</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="C42" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="D42" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="E42" t="n">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="F42" t="n">
-        <v>3004.3248</v>
+        <v>3710.608</v>
       </c>
       <c r="G42" t="n">
-        <v>-22906.1642</v>
+        <v>914.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C43" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="D43" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="E43" t="n">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="F43" t="n">
-        <v>86.73999999999999</v>
+        <v>2769.3548</v>
       </c>
       <c r="G43" t="n">
-        <v>-22819.4242</v>
+        <v>915.25</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="C44" t="n">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="D44" t="n">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="E44" t="n">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="F44" t="n">
-        <v>353.148</v>
+        <v>4213</v>
       </c>
       <c r="G44" t="n">
-        <v>-22819.4242</v>
+        <v>916.65</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C45" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="D45" t="n">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="E45" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="F45" t="n">
-        <v>35.696</v>
+        <v>2734.2866</v>
       </c>
       <c r="G45" t="n">
-        <v>-22783.7282</v>
+        <v>918.35</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="C46" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D46" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="E46" t="n">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="F46" t="n">
-        <v>94.2099</v>
+        <v>593</v>
       </c>
       <c r="G46" t="n">
-        <v>-22877.9381</v>
+        <v>919.25</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="C47" t="n">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="D47" t="n">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="E47" t="n">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="F47" t="n">
-        <v>105.8755</v>
+        <v>2345.633403767492</v>
       </c>
       <c r="G47" t="n">
-        <v>-22983.8136</v>
+        <v>920.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="C48" t="n">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="D48" t="n">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E48" t="n">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="F48" t="n">
-        <v>71.1215</v>
+        <v>1055</v>
       </c>
       <c r="G48" t="n">
-        <v>-22912.6921</v>
+        <v>920.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="C49" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D49" t="n">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="E49" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F49" t="n">
-        <v>12.77</v>
+        <v>19000</v>
       </c>
       <c r="G49" t="n">
-        <v>-22899.9221</v>
+        <v>920.85</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="C50" t="n">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="D50" t="n">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="E50" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>1400</v>
       </c>
       <c r="G50" t="n">
-        <v>-22900.9221</v>
+        <v>920.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="C51" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="D51" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E51" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G51" t="n">
-        <v>-22901.9221</v>
+        <v>920.45</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="C52" t="n">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="D52" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E52" t="n">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="F52" t="n">
-        <v>270</v>
+        <v>177.8651</v>
       </c>
       <c r="G52" t="n">
-        <v>-23171.9221</v>
+        <v>920.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="C53" t="n">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="D53" t="n">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="E53" t="n">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="F53" t="n">
-        <v>1.45</v>
+        <v>561.9537</v>
       </c>
       <c r="G53" t="n">
-        <v>-23173.3721</v>
+        <v>920.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C54" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D54" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E54" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F54" t="n">
-        <v>53.99</v>
+        <v>2040.4812</v>
       </c>
       <c r="G54" t="n">
-        <v>-23119.3821</v>
+        <v>919.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C55" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="D55" t="n">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="E55" t="n">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F55" t="n">
-        <v>119.4903</v>
+        <v>17229.3411</v>
       </c>
       <c r="G55" t="n">
-        <v>-22999.89179999999</v>
+        <v>919.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C56" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="D56" t="n">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="E56" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F56" t="n">
-        <v>2097.5418</v>
+        <v>23215.7714</v>
       </c>
       <c r="G56" t="n">
-        <v>-25097.43359999999</v>
+        <v>918.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="C57" t="n">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="D57" t="n">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="E57" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F57" t="n">
-        <v>933.9272</v>
+        <v>894</v>
       </c>
       <c r="G57" t="n">
-        <v>-25097.43359999999</v>
+        <v>918</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C58" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D58" t="n">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E58" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F58" t="n">
-        <v>35.0158</v>
+        <v>2497.5396</v>
       </c>
       <c r="G58" t="n">
-        <v>-25062.41779999999</v>
+        <v>917.55</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C59" t="n">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="D59" t="n">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="E59" t="n">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="F59" t="n">
-        <v>806.974</v>
+        <v>4126.4792</v>
       </c>
       <c r="G59" t="n">
-        <v>-24255.44379999999</v>
+        <v>917.35</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="C60" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D60" t="n">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="E60" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="F60" t="n">
-        <v>3790.265</v>
+        <v>15848.8388</v>
       </c>
       <c r="G60" t="n">
-        <v>-20465.17879999999</v>
+        <v>917.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C61" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D61" t="n">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="E61" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F61" t="n">
-        <v>60</v>
+        <v>1530</v>
       </c>
       <c r="G61" t="n">
-        <v>-20465.17879999999</v>
+        <v>916.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="C62" t="n">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="D62" t="n">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="E62" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="F62" t="n">
-        <v>977.6987</v>
+        <v>484</v>
       </c>
       <c r="G62" t="n">
-        <v>-21442.8775</v>
+        <v>916.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="C63" t="n">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D63" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E63" t="n">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="F63" t="n">
-        <v>2.55</v>
+        <v>804.3817</v>
       </c>
       <c r="G63" t="n">
-        <v>-21445.42749999999</v>
+        <v>916.45</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C64" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D64" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="E64" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F64" t="n">
-        <v>12.45</v>
+        <v>81.81</v>
       </c>
       <c r="G64" t="n">
-        <v>-21445.42749999999</v>
+        <v>915.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C65" t="n">
         <v>896</v>
       </c>
       <c r="D65" t="n">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E65" t="n">
         <v>896</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>1285.8596</v>
       </c>
       <c r="G65" t="n">
-        <v>-21446.42749999999</v>
+        <v>914.75</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="C66" t="n">
         <v>899</v>
       </c>
       <c r="D66" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="E66" t="n">
         <v>899</v>
       </c>
       <c r="F66" t="n">
-        <v>37.66</v>
+        <v>147</v>
       </c>
       <c r="G66" t="n">
-        <v>-21408.76749999999</v>
+        <v>913.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="C67" t="n">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="D67" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="E67" t="n">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="F67" t="n">
-        <v>2.34</v>
+        <v>811.802</v>
       </c>
       <c r="G67" t="n">
-        <v>-21411.10749999999</v>
+        <v>912.75</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C68" t="n">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="D68" t="n">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="E68" t="n">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F68" t="n">
-        <v>1130.8352</v>
+        <v>103</v>
       </c>
       <c r="G68" t="n">
-        <v>-20280.27229999999</v>
+        <v>911.65</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2781,19 +2853,19 @@
         <v>907</v>
       </c>
       <c r="C69" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D69" t="n">
         <v>907</v>
       </c>
       <c r="E69" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F69" t="n">
-        <v>3003.589</v>
+        <v>172.0508</v>
       </c>
       <c r="G69" t="n">
-        <v>-23283.86129999999</v>
+        <v>911.15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C70" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D70" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E70" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F70" t="n">
-        <v>2.87</v>
+        <v>714.2608</v>
       </c>
       <c r="G70" t="n">
-        <v>-23280.99129999999</v>
+        <v>910.35</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="C71" t="n">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="D71" t="n">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="E71" t="n">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="F71" t="n">
-        <v>277.49</v>
+        <v>511.6508</v>
       </c>
       <c r="G71" t="n">
-        <v>-23003.50129999999</v>
+        <v>910</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="C72" t="n">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="D72" t="n">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="E72" t="n">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="F72" t="n">
-        <v>16.7468</v>
+        <v>529.9559</v>
       </c>
       <c r="G72" t="n">
-        <v>-22986.75449999999</v>
+        <v>909.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="C73" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="D73" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="E73" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="F73" t="n">
-        <v>2.56</v>
+        <v>34.4088</v>
       </c>
       <c r="G73" t="n">
-        <v>-22984.19449999999</v>
+        <v>908.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="C74" t="n">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="D74" t="n">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="E74" t="n">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="F74" t="n">
-        <v>1091.2714</v>
+        <v>105</v>
       </c>
       <c r="G74" t="n">
-        <v>-24075.46589999999</v>
+        <v>908.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="C75" t="n">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="D75" t="n">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="E75" t="n">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="F75" t="n">
-        <v>18.7415</v>
+        <v>2218.728</v>
       </c>
       <c r="G75" t="n">
-        <v>-24056.72439999999</v>
+        <v>907.45</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C76" t="n">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="D76" t="n">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="E76" t="n">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="F76" t="n">
-        <v>1117.2764</v>
+        <v>42.9124</v>
       </c>
       <c r="G76" t="n">
-        <v>-25174.00079999999</v>
+        <v>907.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="C77" t="n">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="D77" t="n">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="E77" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="F77" t="n">
-        <v>999.9999</v>
+        <v>1689</v>
       </c>
       <c r="G77" t="n">
-        <v>-24174.00089999999</v>
+        <v>906.85</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="C78" t="n">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="D78" t="n">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E78" t="n">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="F78" t="n">
-        <v>517.4206</v>
+        <v>505</v>
       </c>
       <c r="G78" t="n">
-        <v>-23656.58029999999</v>
+        <v>906.35</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="C79" t="n">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="D79" t="n">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="E79" t="n">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="F79" t="n">
-        <v>177.3675</v>
+        <v>2339.7693</v>
       </c>
       <c r="G79" t="n">
-        <v>-23833.94779999999</v>
+        <v>905</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="C80" t="n">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="D80" t="n">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="E80" t="n">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="F80" t="n">
-        <v>3104.9227</v>
+        <v>36.45</v>
       </c>
       <c r="G80" t="n">
-        <v>-20729.02509999999</v>
+        <v>904.05</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="C81" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="D81" t="n">
-        <v>925</v>
+        <v>897</v>
       </c>
       <c r="E81" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F81" t="n">
-        <v>6092.2</v>
+        <v>2732.29</v>
       </c>
       <c r="G81" t="n">
-        <v>-26821.22509999999</v>
+        <v>903.25</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="C82" t="n">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="D82" t="n">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="E82" t="n">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="F82" t="n">
-        <v>22130.6359</v>
+        <v>2254.85</v>
       </c>
       <c r="G82" t="n">
-        <v>-4690.589199999991</v>
+        <v>902.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="C83" t="n">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="D83" t="n">
-        <v>922</v>
+        <v>898</v>
       </c>
       <c r="E83" t="n">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="F83" t="n">
-        <v>2084.6009</v>
+        <v>3044.18</v>
       </c>
       <c r="G83" t="n">
-        <v>-6775.190099999991</v>
+        <v>901.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="C84" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="D84" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="E84" t="n">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F84" t="n">
-        <v>3710.608</v>
+        <v>318.468</v>
       </c>
       <c r="G84" t="n">
-        <v>-3064.582099999991</v>
+        <v>900.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C85" t="n">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="D85" t="n">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="E85" t="n">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="F85" t="n">
-        <v>2769.3548</v>
+        <v>2156.05</v>
       </c>
       <c r="G85" t="n">
-        <v>-295.2272999999905</v>
+        <v>900.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="C86" t="n">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="D86" t="n">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="E86" t="n">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="F86" t="n">
-        <v>4213</v>
+        <v>1668.95</v>
       </c>
       <c r="G86" t="n">
-        <v>3917.77270000001</v>
+        <v>900.35</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="C87" t="n">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="D87" t="n">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="E87" t="n">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="F87" t="n">
-        <v>2734.2866</v>
+        <v>287.5142</v>
       </c>
       <c r="G87" t="n">
-        <v>1183.48610000001</v>
+        <v>900.45</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="C88" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D88" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="E88" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F88" t="n">
-        <v>593</v>
+        <v>916</v>
       </c>
       <c r="G88" t="n">
-        <v>590.4861000000096</v>
+        <v>900.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3563,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="C89" t="n">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="D89" t="n">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E89" t="n">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="F89" t="n">
-        <v>2345.633403767492</v>
+        <v>43.37</v>
       </c>
       <c r="G89" t="n">
-        <v>2936.119503767502</v>
+        <v>901.25</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="C90" t="n">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="D90" t="n">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="E90" t="n">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="F90" t="n">
-        <v>1055</v>
+        <v>196.3642</v>
       </c>
       <c r="G90" t="n">
-        <v>1881.119503767502</v>
+        <v>901.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C91" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D91" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E91" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F91" t="n">
-        <v>19000</v>
+        <v>60</v>
       </c>
       <c r="G91" t="n">
-        <v>-17118.8804962325</v>
+        <v>901.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +3671,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C92" t="n">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="D92" t="n">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="E92" t="n">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="F92" t="n">
-        <v>1400</v>
+        <v>77.9081</v>
       </c>
       <c r="G92" t="n">
-        <v>-15718.8804962325</v>
+        <v>901.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="C93" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D93" t="n">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="E93" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F93" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="G93" t="n">
-        <v>-35718.88049623249</v>
+        <v>901.85</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C94" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D94" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E94" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F94" t="n">
-        <v>177.8651</v>
+        <v>60</v>
       </c>
       <c r="G94" t="n">
-        <v>-35541.01539623249</v>
+        <v>902.35</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>909</v>
+      </c>
+      <c r="C95" t="n">
         <v>914</v>
       </c>
-      <c r="C95" t="n">
-        <v>913</v>
-      </c>
       <c r="D95" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E95" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F95" t="n">
-        <v>561.9537</v>
+        <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>-36102.96909623249</v>
+        <v>902.95</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C96" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D96" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E96" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F96" t="n">
-        <v>2040.4812</v>
+        <v>810</v>
       </c>
       <c r="G96" t="n">
-        <v>-38143.45029623249</v>
+        <v>903.25</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="C97" t="n">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="D97" t="n">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="E97" t="n">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="F97" t="n">
-        <v>17229.3411</v>
+        <v>980</v>
       </c>
       <c r="G97" t="n">
-        <v>-55372.7913962325</v>
+        <v>903.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="C98" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="D98" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="E98" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F98" t="n">
-        <v>23215.7714</v>
+        <v>535.2696999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-78588.56279623249</v>
+        <v>903.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C99" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D99" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E99" t="n">
         <v>904</v>
       </c>
       <c r="F99" t="n">
-        <v>894</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-79482.56279623249</v>
+        <v>903.75</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C100" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D100" t="n">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E100" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F100" t="n">
-        <v>2497.5396</v>
+        <v>281.82</v>
       </c>
       <c r="G100" t="n">
-        <v>-81980.1023962325</v>
+        <v>903.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="C101" t="n">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="D101" t="n">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="E101" t="n">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="F101" t="n">
-        <v>4126.4792</v>
+        <v>99.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>-77853.6231962325</v>
+        <v>903.85</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="C102" t="n">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D102" t="n">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="E102" t="n">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F102" t="n">
-        <v>15848.8388</v>
+        <v>1.56</v>
       </c>
       <c r="G102" t="n">
-        <v>-93702.46199623249</v>
+        <v>904.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="C103" t="n">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="D103" t="n">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="E103" t="n">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="F103" t="n">
-        <v>1530</v>
+        <v>173.4333</v>
       </c>
       <c r="G103" t="n">
-        <v>-95232.46199623249</v>
+        <v>903.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="C104" t="n">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="D104" t="n">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="E104" t="n">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="F104" t="n">
-        <v>484</v>
+        <v>2022</v>
       </c>
       <c r="G104" t="n">
-        <v>-94748.46199623249</v>
+        <v>904</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="C105" t="n">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="D105" t="n">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="E105" t="n">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="F105" t="n">
-        <v>804.3817</v>
+        <v>1662.2791</v>
       </c>
       <c r="G105" t="n">
-        <v>-95552.84369623249</v>
+        <v>903.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C106" t="n">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="D106" t="n">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E106" t="n">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="F106" t="n">
-        <v>81.81</v>
+        <v>175.981</v>
       </c>
       <c r="G106" t="n">
-        <v>-95634.65369623249</v>
+        <v>903.45</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="C107" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D107" t="n">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="E107" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F107" t="n">
-        <v>1285.8596</v>
+        <v>175.981</v>
       </c>
       <c r="G107" t="n">
-        <v>-96920.51329623249</v>
+        <v>902.85</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C108" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D108" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E108" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="F108" t="n">
-        <v>147</v>
+        <v>2.2295</v>
       </c>
       <c r="G108" t="n">
-        <v>-96773.51329623249</v>
+        <v>902.35</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C109" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D109" t="n">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E109" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F109" t="n">
-        <v>811.802</v>
+        <v>116.3296</v>
       </c>
       <c r="G109" t="n">
-        <v>-95961.71129623249</v>
+        <v>901.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C110" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D110" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E110" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F110" t="n">
-        <v>103</v>
+        <v>397.1238</v>
       </c>
       <c r="G110" t="n">
-        <v>-95961.71129623249</v>
+        <v>900.75</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="C111" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="D111" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E111" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="F111" t="n">
-        <v>172.0508</v>
+        <v>268.558</v>
       </c>
       <c r="G111" t="n">
-        <v>-95789.66049623249</v>
+        <v>899.65</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="C112" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="D112" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="E112" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="F112" t="n">
-        <v>714.2608</v>
+        <v>2.2239</v>
       </c>
       <c r="G112" t="n">
-        <v>-95789.66049623249</v>
+        <v>899.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="C113" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="D113" t="n">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E113" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F113" t="n">
-        <v>511.6508</v>
+        <v>1359.14</v>
       </c>
       <c r="G113" t="n">
-        <v>-95789.66049623249</v>
+        <v>898.75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C114" t="n">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D114" t="n">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E114" t="n">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="F114" t="n">
-        <v>529.9559</v>
+        <v>308.0461</v>
       </c>
       <c r="G114" t="n">
-        <v>-96319.61639623249</v>
+        <v>898.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="C115" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="D115" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E115" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F115" t="n">
-        <v>34.4088</v>
+        <v>330.1282</v>
       </c>
       <c r="G115" t="n">
-        <v>-96354.0251962325</v>
+        <v>897.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="C116" t="n">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="D116" t="n">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E116" t="n">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F116" t="n">
-        <v>105</v>
+        <v>1107.5824</v>
       </c>
       <c r="G116" t="n">
-        <v>-96459.0251962325</v>
+        <v>896.45</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C117" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="D117" t="n">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E117" t="n">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F117" t="n">
-        <v>2218.728</v>
+        <v>21.9994</v>
       </c>
       <c r="G117" t="n">
-        <v>-94240.2971962325</v>
+        <v>896</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C118" t="n">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="D118" t="n">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="E118" t="n">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="F118" t="n">
-        <v>42.9124</v>
+        <v>37.94</v>
       </c>
       <c r="G118" t="n">
-        <v>-94240.2971962325</v>
+        <v>895.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="C119" t="n">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="D119" t="n">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="E119" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F119" t="n">
-        <v>1689</v>
+        <v>955.1306</v>
       </c>
       <c r="G119" t="n">
-        <v>-95929.2971962325</v>
+        <v>894.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C120" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D120" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E120" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="F120" t="n">
-        <v>505</v>
+        <v>235.803</v>
       </c>
       <c r="G120" t="n">
-        <v>-96434.2971962325</v>
+        <v>894.35</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C121" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D121" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E121" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F121" t="n">
-        <v>2339.7693</v>
+        <v>302.6227</v>
       </c>
       <c r="G121" t="n">
-        <v>-98774.0664962325</v>
+        <v>893.95</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C122" t="n">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D122" t="n">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="E122" t="n">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F122" t="n">
-        <v>36.45</v>
+        <v>225.2252</v>
       </c>
       <c r="G122" t="n">
-        <v>-98737.6164962325</v>
+        <v>893.25</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C123" t="n">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="D123" t="n">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="E123" t="n">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="F123" t="n">
-        <v>2732.29</v>
+        <v>797.2012</v>
       </c>
       <c r="G123" t="n">
-        <v>-101469.9064962325</v>
+        <v>892.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="C124" t="n">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="D124" t="n">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E124" t="n">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="F124" t="n">
-        <v>2254.85</v>
+        <v>755.4893</v>
       </c>
       <c r="G124" t="n">
-        <v>-99215.05649623249</v>
+        <v>892.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="C125" t="n">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="D125" t="n">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="E125" t="n">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F125" t="n">
-        <v>3044.18</v>
+        <v>70.5538</v>
       </c>
       <c r="G125" t="n">
-        <v>-102259.2364962325</v>
+        <v>891.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C126" t="n">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D126" t="n">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="E126" t="n">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F126" t="n">
-        <v>318.468</v>
+        <v>304.6999</v>
       </c>
       <c r="G126" t="n">
-        <v>-102577.7044962325</v>
+        <v>890.65</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C127" t="n">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D127" t="n">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="F127" t="n">
-        <v>2156.05</v>
+        <v>37.5702</v>
       </c>
       <c r="G127" t="n">
-        <v>-100421.6544962325</v>
+        <v>890.25</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="C128" t="n">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="D128" t="n">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="E128" t="n">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="F128" t="n">
-        <v>1668.95</v>
+        <v>7.2312</v>
       </c>
       <c r="G128" t="n">
-        <v>-98752.70449623247</v>
+        <v>889.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="C129" t="n">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="D129" t="n">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="E129" t="n">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F129" t="n">
-        <v>287.5142</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>-98465.19029623247</v>
+        <v>889.35</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="C130" t="n">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="D130" t="n">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="E130" t="n">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="F130" t="n">
-        <v>916</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>-97549.19029623247</v>
+        <v>888.85</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>914</v>
+        <v>882</v>
       </c>
       <c r="C131" t="n">
-        <v>914</v>
+        <v>875</v>
       </c>
       <c r="D131" t="n">
-        <v>914</v>
+        <v>882</v>
       </c>
       <c r="E131" t="n">
-        <v>914</v>
+        <v>875</v>
       </c>
       <c r="F131" t="n">
-        <v>43.37</v>
+        <v>328.4717</v>
       </c>
       <c r="G131" t="n">
-        <v>-97505.82029623247</v>
+        <v>888.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>912</v>
+        <v>873</v>
       </c>
       <c r="C132" t="n">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="D132" t="n">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="E132" t="n">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="F132" t="n">
-        <v>196.3642</v>
+        <v>1111.9863</v>
       </c>
       <c r="G132" t="n">
-        <v>-97702.18449623247</v>
+        <v>887.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="C133" t="n">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="D133" t="n">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="E133" t="n">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="F133" t="n">
-        <v>60</v>
+        <v>186.57</v>
       </c>
       <c r="G133" t="n">
-        <v>-97642.18449623247</v>
+        <v>886.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C134" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="D134" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="E134" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="F134" t="n">
-        <v>77.9081</v>
+        <v>108.8299</v>
       </c>
       <c r="G134" t="n">
-        <v>-97720.09259623247</v>
+        <v>885.75</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="C135" t="n">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="D135" t="n">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="E135" t="n">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>52.1146</v>
       </c>
       <c r="G135" t="n">
-        <v>-97220.09259623247</v>
+        <v>885.05</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="C136" t="n">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="D136" t="n">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="E136" t="n">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="F136" t="n">
-        <v>60</v>
+        <v>263.16</v>
       </c>
       <c r="G136" t="n">
-        <v>-97160.09259623247</v>
+        <v>884.55</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C137" t="n">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D137" t="n">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E137" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F137" t="n">
-        <v>120</v>
+        <v>1.78</v>
       </c>
       <c r="G137" t="n">
-        <v>-97040.09259623247</v>
+        <v>885.35</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="C138" t="n">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="D138" t="n">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="E138" t="n">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="F138" t="n">
-        <v>810</v>
+        <v>16.1115</v>
       </c>
       <c r="G138" t="n">
-        <v>-97850.09259623247</v>
+        <v>885</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C139" t="n">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="D139" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="E139" t="n">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="F139" t="n">
-        <v>980</v>
+        <v>140.8435</v>
       </c>
       <c r="G139" t="n">
-        <v>-98830.09259623247</v>
+        <v>884.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="C140" t="n">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="D140" t="n">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="E140" t="n">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="F140" t="n">
-        <v>535.2696999999999</v>
+        <v>1136.4</v>
       </c>
       <c r="G140" t="n">
-        <v>-99365.36229623247</v>
+        <v>884.15</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="C141" t="n">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="D141" t="n">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="E141" t="n">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>888.2324</v>
       </c>
       <c r="G141" t="n">
-        <v>-99364.36229623247</v>
+        <v>883.65</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C142" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="D142" t="n">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E142" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="F142" t="n">
-        <v>281.82</v>
+        <v>275.9509</v>
       </c>
       <c r="G142" t="n">
-        <v>-99646.18229623248</v>
+        <v>884.25</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="C143" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="D143" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="E143" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="F143" t="n">
-        <v>99.9999</v>
+        <v>15</v>
       </c>
       <c r="G143" t="n">
-        <v>-99646.18229623248</v>
+        <v>884.25</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="C144" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="D144" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="E144" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="F144" t="n">
-        <v>1.56</v>
+        <v>7.9</v>
       </c>
       <c r="G144" t="n">
-        <v>-99644.62229623248</v>
+        <v>884.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C145" t="n">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="D145" t="n">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E145" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F145" t="n">
-        <v>173.4333</v>
+        <v>2156.0396</v>
       </c>
       <c r="G145" t="n">
-        <v>-99818.05559623249</v>
+        <v>884.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="C146" t="n">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="D146" t="n">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E146" t="n">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F146" t="n">
-        <v>2022</v>
+        <v>84</v>
       </c>
       <c r="G146" t="n">
-        <v>-99818.05559623249</v>
+        <v>884.55</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="C147" t="n">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="D147" t="n">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="E147" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F147" t="n">
-        <v>1662.2791</v>
+        <v>49.67</v>
       </c>
       <c r="G147" t="n">
-        <v>-98155.77649623249</v>
+        <v>884.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="C148" t="n">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="D148" t="n">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="E148" t="n">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="F148" t="n">
-        <v>175.981</v>
+        <v>167.3403</v>
       </c>
       <c r="G148" t="n">
-        <v>-97979.79549623249</v>
+        <v>883.75</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C149" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="D149" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="E149" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F149" t="n">
-        <v>175.981</v>
+        <v>258.15</v>
       </c>
       <c r="G149" t="n">
-        <v>-98155.77649623249</v>
+        <v>883.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="C150" t="n">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="D150" t="n">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="E150" t="n">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="F150" t="n">
-        <v>2.2295</v>
+        <v>470.4932</v>
       </c>
       <c r="G150" t="n">
-        <v>-98153.54699623249</v>
+        <v>883.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="C151" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D151" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="E151" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F151" t="n">
-        <v>116.3296</v>
+        <v>66.1542</v>
       </c>
       <c r="G151" t="n">
-        <v>-98269.87659623248</v>
+        <v>883.15</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="C152" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D152" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="E152" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F152" t="n">
-        <v>397.1238</v>
+        <v>36.3072</v>
       </c>
       <c r="G152" t="n">
-        <v>-98269.87659623248</v>
+        <v>883.65</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="C153" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="D153" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="E153" t="n">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F153" t="n">
-        <v>268.558</v>
+        <v>846.9654</v>
       </c>
       <c r="G153" t="n">
-        <v>-98538.43459623249</v>
+        <v>883.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C154" t="n">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="D154" t="n">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="E154" t="n">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F154" t="n">
-        <v>2.2239</v>
+        <v>76.1803</v>
       </c>
       <c r="G154" t="n">
-        <v>-98540.65849623249</v>
+        <v>883.95</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="C155" t="n">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="D155" t="n">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="E155" t="n">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="F155" t="n">
-        <v>1359.14</v>
+        <v>286.2667</v>
       </c>
       <c r="G155" t="n">
-        <v>-97181.51849623249</v>
+        <v>883.95</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="C156" t="n">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="D156" t="n">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="E156" t="n">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="F156" t="n">
-        <v>308.0461</v>
+        <v>25</v>
       </c>
       <c r="G156" t="n">
-        <v>-97489.56459623249</v>
+        <v>883.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,133 +6011,157 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C157" t="n">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D157" t="n">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="E157" t="n">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F157" t="n">
-        <v>330.1282</v>
+        <v>2685.0075</v>
       </c>
       <c r="G157" t="n">
-        <v>-97819.6927962325</v>
+        <v>882.7</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>880</v>
+      </c>
+      <c r="K157" t="n">
+        <v>880</v>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C158" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D158" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E158" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F158" t="n">
-        <v>1107.5824</v>
+        <v>14</v>
       </c>
       <c r="G158" t="n">
-        <v>-98927.2751962325</v>
+        <v>883.05</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>885</v>
+      </c>
+      <c r="K158" t="n">
+        <v>880</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C159" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D159" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E159" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F159" t="n">
-        <v>21.9994</v>
+        <v>109.12</v>
       </c>
       <c r="G159" t="n">
-        <v>-98949.2745962325</v>
+        <v>883.5</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>888</v>
+      </c>
+      <c r="K159" t="n">
+        <v>880</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C160" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D160" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E160" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="F160" t="n">
-        <v>37.94</v>
+        <v>1.7755</v>
       </c>
       <c r="G160" t="n">
-        <v>-98911.3345962325</v>
+        <v>884.15</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -5987,37 +6170,38 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K160" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C161" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D161" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E161" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="F161" t="n">
-        <v>955.1306</v>
+        <v>68.38</v>
       </c>
       <c r="G161" t="n">
-        <v>-99866.4651962325</v>
+        <v>884.65</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6026,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="K161" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6039,40 +6223,39 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>893</v>
+      </c>
+      <c r="C162" t="n">
+        <v>893</v>
+      </c>
+      <c r="D162" t="n">
+        <v>893</v>
+      </c>
+      <c r="E162" t="n">
+        <v>893</v>
+      </c>
+      <c r="F162" t="n">
+        <v>109.7454</v>
+      </c>
+      <c r="G162" t="n">
+        <v>884.3</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
         <v>887</v>
-      </c>
-      <c r="C162" t="n">
-        <v>887</v>
-      </c>
-      <c r="D162" t="n">
-        <v>887</v>
-      </c>
-      <c r="E162" t="n">
-        <v>887</v>
-      </c>
-      <c r="F162" t="n">
-        <v>235.803</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-99630.6621962325</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>886</v>
-      </c>
-      <c r="K162" t="n">
-        <v>886</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6082,67 +6265,65 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C163" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="D163" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="E163" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="F163" t="n">
-        <v>302.6227</v>
+        <v>1.55</v>
       </c>
       <c r="G163" t="n">
-        <v>-99328.03949623249</v>
+        <v>884.9</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>887</v>
-      </c>
-      <c r="K163" t="n">
-        <v>887</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C164" t="n">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D164" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="E164" t="n">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="F164" t="n">
-        <v>225.2252</v>
+        <v>372.2974</v>
       </c>
       <c r="G164" t="n">
-        <v>-99553.26469623249</v>
+        <v>885.25</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6151,39 +6332,34 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>887</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C165" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="D165" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="E165" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F165" t="n">
-        <v>797.2012</v>
+        <v>36.2147</v>
       </c>
       <c r="G165" t="n">
-        <v>-100350.4658962325</v>
+        <v>885.55</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6192,132 +6368,123 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>894</v>
+      </c>
+      <c r="C166" t="n">
+        <v>894</v>
+      </c>
+      <c r="D166" t="n">
+        <v>894</v>
+      </c>
+      <c r="E166" t="n">
+        <v>894</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G166" t="n">
+        <v>886.05</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>889</v>
+      </c>
+      <c r="C167" t="n">
         <v>887</v>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="D167" t="n">
+        <v>889</v>
+      </c>
+      <c r="E167" t="n">
+        <v>887</v>
+      </c>
+      <c r="F167" t="n">
+        <v>820.3246</v>
+      </c>
+      <c r="G167" t="n">
+        <v>886.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>894</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>884</v>
-      </c>
-      <c r="C166" t="n">
-        <v>882</v>
-      </c>
-      <c r="D166" t="n">
-        <v>884</v>
-      </c>
-      <c r="E166" t="n">
-        <v>882</v>
-      </c>
-      <c r="F166" t="n">
-        <v>755.4893</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-101105.9551962325</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>887</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>882</v>
-      </c>
-      <c r="C167" t="n">
-        <v>882</v>
-      </c>
-      <c r="D167" t="n">
-        <v>882</v>
-      </c>
-      <c r="E167" t="n">
-        <v>882</v>
-      </c>
-      <c r="F167" t="n">
-        <v>70.5538</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-101105.9551962325</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>887</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="C168" t="n">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="D168" t="n">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E168" t="n">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="F168" t="n">
-        <v>304.6999</v>
+        <v>156.878</v>
       </c>
       <c r="G168" t="n">
-        <v>-100801.2552962325</v>
+        <v>886.9</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
+      <c r="J168" t="n">
         <v>887</v>
       </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,28 +6493,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C169" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D169" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E169" t="n">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F169" t="n">
-        <v>37.5702</v>
+        <v>34.6536</v>
       </c>
       <c r="G169" t="n">
-        <v>-100763.6850962325</v>
+        <v>887.4</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -6356,11 +6524,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>883</v>
-      </c>
-      <c r="K169" t="n">
-        <v>887</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,41 +6535,40 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>897</v>
+      </c>
+      <c r="C170" t="n">
+        <v>897</v>
+      </c>
+      <c r="D170" t="n">
+        <v>897</v>
+      </c>
+      <c r="E170" t="n">
+        <v>897</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G170" t="n">
+        <v>888.1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
         <v>891</v>
       </c>
-      <c r="C170" t="n">
-        <v>891</v>
-      </c>
-      <c r="D170" t="n">
-        <v>891</v>
-      </c>
-      <c r="E170" t="n">
-        <v>891</v>
-      </c>
-      <c r="F170" t="n">
-        <v>7.2312</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-100770.9162962325</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>895</v>
-      </c>
-      <c r="K170" t="n">
-        <v>887</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,28 +6577,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C171" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D171" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E171" t="n">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>310.664</v>
       </c>
       <c r="G171" t="n">
-        <v>-100771.9162962325</v>
+        <v>888.55</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6442,9 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>887</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,28 +6617,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="C172" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D172" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E172" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>271.6307</v>
       </c>
       <c r="G172" t="n">
-        <v>-100772.9162962325</v>
+        <v>889.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6483,9 +6648,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>887</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,41 +6657,38 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="C173" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="D173" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E173" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="F173" t="n">
-        <v>328.4717</v>
+        <v>30</v>
       </c>
       <c r="G173" t="n">
-        <v>-101101.3879962325</v>
+        <v>889.3</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>887</v>
-      </c>
-      <c r="K173" t="n">
-        <v>887</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6537,28 +6697,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="C174" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D174" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E174" t="n">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F174" t="n">
-        <v>1111.9863</v>
+        <v>64.52</v>
       </c>
       <c r="G174" t="n">
-        <v>-99989.40169623247</v>
+        <v>889.3</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
@@ -6567,11 +6728,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>875</v>
-      </c>
-      <c r="K174" t="n">
         <v>887</v>
       </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,41 +6739,40 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>877</v>
+      </c>
+      <c r="C175" t="n">
         <v>878</v>
       </c>
-      <c r="C175" t="n">
-        <v>879</v>
-      </c>
       <c r="D175" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E175" t="n">
+        <v>877</v>
+      </c>
+      <c r="F175" t="n">
+        <v>198.9065</v>
+      </c>
+      <c r="G175" t="n">
+        <v>889.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
         <v>878</v>
       </c>
-      <c r="F175" t="n">
-        <v>186.57</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-99802.83169623246</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>876</v>
-      </c>
-      <c r="K175" t="n">
-        <v>887</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,28 +6781,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C176" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D176" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E176" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F176" t="n">
-        <v>108.8299</v>
+        <v>708.5995</v>
       </c>
       <c r="G176" t="n">
-        <v>-99802.83169623246</v>
+        <v>889.35</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -6653,11 +6812,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>879</v>
-      </c>
-      <c r="K176" t="n">
-        <v>887</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6666,6 +6823,7 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6675,19 +6833,19 @@
         <v>879</v>
       </c>
       <c r="C177" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D177" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E177" t="n">
         <v>879</v>
       </c>
       <c r="F177" t="n">
-        <v>52.1146</v>
+        <v>626.5199</v>
       </c>
       <c r="G177" t="n">
-        <v>-99802.83169623246</v>
+        <v>889.2</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -6696,11 +6854,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>879</v>
-      </c>
-      <c r="K177" t="n">
-        <v>887</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,28 +6865,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C178" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D178" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E178" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F178" t="n">
-        <v>263.16</v>
+        <v>1238.3028</v>
       </c>
       <c r="G178" t="n">
-        <v>-99539.67169623246</v>
+        <v>888.8</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -6739,11 +6896,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>879</v>
-      </c>
-      <c r="K178" t="n">
-        <v>887</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,28 +6907,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="C179" t="n">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="D179" t="n">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="E179" t="n">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="F179" t="n">
-        <v>1.78</v>
+        <v>234.9512</v>
       </c>
       <c r="G179" t="n">
-        <v>-99537.89169623246</v>
+        <v>888.75</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -6782,11 +6938,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>881</v>
-      </c>
-      <c r="K179" t="n">
-        <v>887</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,28 +6949,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C180" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="D180" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="E180" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="F180" t="n">
-        <v>16.1115</v>
+        <v>216.154</v>
       </c>
       <c r="G180" t="n">
-        <v>-99554.00319623246</v>
+        <v>888.65</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -6825,11 +6980,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>906</v>
-      </c>
-      <c r="K180" t="n">
-        <v>887</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,28 +6991,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="C181" t="n">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="D181" t="n">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="E181" t="n">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="F181" t="n">
-        <v>140.8435</v>
+        <v>499.9999</v>
       </c>
       <c r="G181" t="n">
-        <v>-99694.84669623246</v>
+        <v>888.75</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6868,9 +7022,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>887</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6879,28 +7031,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C182" t="n">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D182" t="n">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="E182" t="n">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="F182" t="n">
-        <v>1136.4</v>
+        <v>347.8036</v>
       </c>
       <c r="G182" t="n">
-        <v>-98558.44669623247</v>
+        <v>888.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6909,9 +7062,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>887</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,28 +7071,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C183" t="n">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D183" t="n">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E183" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F183" t="n">
-        <v>888.2324</v>
+        <v>1.55</v>
       </c>
       <c r="G183" t="n">
-        <v>-97670.21429623247</v>
+        <v>887.65</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6950,9 +7102,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>887</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6961,39 +7111,40 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="C184" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D184" t="n">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="E184" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F184" t="n">
-        <v>275.9509</v>
+        <v>122.07</v>
       </c>
       <c r="G184" t="n">
-        <v>-97670.21429623247</v>
+        <v>887.4</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>887</v>
-      </c>
+      <c r="J184" t="n">
+        <v>883</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,39 +7153,40 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C185" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D185" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="E185" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F185" t="n">
-        <v>15</v>
+        <v>956.4447</v>
       </c>
       <c r="G185" t="n">
-        <v>-97670.21429623247</v>
+        <v>887.1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>887</v>
-      </c>
+      <c r="J185" t="n">
+        <v>888</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7043,28 +7195,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="C186" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D186" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="E186" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="F186" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="G186" t="n">
-        <v>-97670.21429623247</v>
+        <v>887.05</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7073,9 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>887</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,28 +7235,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C187" t="n">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="D187" t="n">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="E187" t="n">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="F187" t="n">
-        <v>2156.0396</v>
+        <v>34.0288</v>
       </c>
       <c r="G187" t="n">
-        <v>-99826.25389623248</v>
+        <v>887.35</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7114,9 +7266,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>887</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7125,1738 +7275,7 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>884</v>
-      </c>
-      <c r="C188" t="n">
-        <v>883</v>
-      </c>
-      <c r="D188" t="n">
-        <v>884</v>
-      </c>
-      <c r="E188" t="n">
-        <v>883</v>
-      </c>
-      <c r="F188" t="n">
-        <v>84</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-99742.25389623248</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>887</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>882</v>
-      </c>
-      <c r="C189" t="n">
-        <v>881</v>
-      </c>
-      <c r="D189" t="n">
-        <v>882</v>
-      </c>
-      <c r="E189" t="n">
-        <v>881</v>
-      </c>
-      <c r="F189" t="n">
-        <v>49.67</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-99791.92389623247</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>887</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>880</v>
-      </c>
-      <c r="C190" t="n">
-        <v>880</v>
-      </c>
-      <c r="D190" t="n">
-        <v>880</v>
-      </c>
-      <c r="E190" t="n">
-        <v>880</v>
-      </c>
-      <c r="F190" t="n">
-        <v>167.3403</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-99959.26419623247</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>887</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>881</v>
-      </c>
-      <c r="C191" t="n">
-        <v>881</v>
-      </c>
-      <c r="D191" t="n">
-        <v>881</v>
-      </c>
-      <c r="E191" t="n">
-        <v>881</v>
-      </c>
-      <c r="F191" t="n">
-        <v>258.15</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-99701.11419623248</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>887</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>883</v>
-      </c>
-      <c r="C192" t="n">
-        <v>883</v>
-      </c>
-      <c r="D192" t="n">
-        <v>883</v>
-      </c>
-      <c r="E192" t="n">
-        <v>883</v>
-      </c>
-      <c r="F192" t="n">
-        <v>470.4932</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>887</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>883</v>
-      </c>
-      <c r="C193" t="n">
-        <v>883</v>
-      </c>
-      <c r="D193" t="n">
-        <v>883</v>
-      </c>
-      <c r="E193" t="n">
-        <v>883</v>
-      </c>
-      <c r="F193" t="n">
-        <v>66.1542</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>887</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>883</v>
-      </c>
-      <c r="C194" t="n">
-        <v>883</v>
-      </c>
-      <c r="D194" t="n">
-        <v>883</v>
-      </c>
-      <c r="E194" t="n">
-        <v>883</v>
-      </c>
-      <c r="F194" t="n">
-        <v>36.3072</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>883</v>
-      </c>
-      <c r="K194" t="n">
-        <v>887</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>883</v>
-      </c>
-      <c r="C195" t="n">
-        <v>883</v>
-      </c>
-      <c r="D195" t="n">
-        <v>883</v>
-      </c>
-      <c r="E195" t="n">
-        <v>883</v>
-      </c>
-      <c r="F195" t="n">
-        <v>846.9654</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>887</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>880</v>
-      </c>
-      <c r="C196" t="n">
-        <v>880</v>
-      </c>
-      <c r="D196" t="n">
-        <v>880</v>
-      </c>
-      <c r="E196" t="n">
-        <v>880</v>
-      </c>
-      <c r="F196" t="n">
-        <v>76.1803</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-99306.80129623249</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>883</v>
-      </c>
-      <c r="K196" t="n">
-        <v>887</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>879</v>
-      </c>
-      <c r="C197" t="n">
-        <v>879</v>
-      </c>
-      <c r="D197" t="n">
-        <v>879</v>
-      </c>
-      <c r="E197" t="n">
-        <v>879</v>
-      </c>
-      <c r="F197" t="n">
-        <v>286.2667</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-99593.06799623248</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>887</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>880</v>
-      </c>
-      <c r="C198" t="n">
-        <v>880</v>
-      </c>
-      <c r="D198" t="n">
-        <v>880</v>
-      </c>
-      <c r="E198" t="n">
-        <v>880</v>
-      </c>
-      <c r="F198" t="n">
-        <v>25</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-99568.06799623248</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>879</v>
-      </c>
-      <c r="K198" t="n">
-        <v>887</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>882</v>
-      </c>
-      <c r="C199" t="n">
-        <v>885</v>
-      </c>
-      <c r="D199" t="n">
-        <v>885</v>
-      </c>
-      <c r="E199" t="n">
-        <v>882</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2685.0075</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-96883.06049623247</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>880</v>
-      </c>
-      <c r="K199" t="n">
-        <v>887</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>888</v>
-      </c>
-      <c r="C200" t="n">
-        <v>888</v>
-      </c>
-      <c r="D200" t="n">
-        <v>888</v>
-      </c>
-      <c r="E200" t="n">
-        <v>888</v>
-      </c>
-      <c r="F200" t="n">
-        <v>14</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-96869.06049623247</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>885</v>
-      </c>
-      <c r="K200" t="n">
-        <v>887</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>887</v>
-      </c>
-      <c r="C201" t="n">
-        <v>887</v>
-      </c>
-      <c r="D201" t="n">
-        <v>887</v>
-      </c>
-      <c r="E201" t="n">
-        <v>887</v>
-      </c>
-      <c r="F201" t="n">
-        <v>109.12</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-96978.18049623247</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>887</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>891</v>
-      </c>
-      <c r="C202" t="n">
-        <v>891</v>
-      </c>
-      <c r="D202" t="n">
-        <v>891</v>
-      </c>
-      <c r="E202" t="n">
-        <v>891</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1.7755</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-96976.40499623246</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>887</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>890</v>
-      </c>
-      <c r="C203" t="n">
-        <v>890</v>
-      </c>
-      <c r="D203" t="n">
-        <v>890</v>
-      </c>
-      <c r="E203" t="n">
-        <v>890</v>
-      </c>
-      <c r="F203" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-97044.78499623247</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>887</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>893</v>
-      </c>
-      <c r="C204" t="n">
-        <v>893</v>
-      </c>
-      <c r="D204" t="n">
-        <v>893</v>
-      </c>
-      <c r="E204" t="n">
-        <v>893</v>
-      </c>
-      <c r="F204" t="n">
-        <v>109.7454</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-96935.03959623247</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>887</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>898</v>
-      </c>
-      <c r="C205" t="n">
-        <v>898</v>
-      </c>
-      <c r="D205" t="n">
-        <v>898</v>
-      </c>
-      <c r="E205" t="n">
-        <v>898</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-96933.48959623247</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>887</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>893</v>
-      </c>
-      <c r="C206" t="n">
-        <v>892</v>
-      </c>
-      <c r="D206" t="n">
-        <v>893</v>
-      </c>
-      <c r="E206" t="n">
-        <v>892</v>
-      </c>
-      <c r="F206" t="n">
-        <v>372.2974</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-97305.78699623246</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>887</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>891</v>
-      </c>
-      <c r="C207" t="n">
-        <v>891</v>
-      </c>
-      <c r="D207" t="n">
-        <v>891</v>
-      </c>
-      <c r="E207" t="n">
-        <v>891</v>
-      </c>
-      <c r="F207" t="n">
-        <v>36.2147</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-97342.00169623246</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>887</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>894</v>
-      </c>
-      <c r="C208" t="n">
-        <v>894</v>
-      </c>
-      <c r="D208" t="n">
-        <v>894</v>
-      </c>
-      <c r="E208" t="n">
-        <v>894</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-97340.09069623247</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>887</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>889</v>
-      </c>
-      <c r="C209" t="n">
-        <v>887</v>
-      </c>
-      <c r="D209" t="n">
-        <v>889</v>
-      </c>
-      <c r="E209" t="n">
-        <v>887</v>
-      </c>
-      <c r="F209" t="n">
-        <v>820.3246</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-98160.41529623247</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>887</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>890</v>
-      </c>
-      <c r="C210" t="n">
-        <v>890</v>
-      </c>
-      <c r="D210" t="n">
-        <v>890</v>
-      </c>
-      <c r="E210" t="n">
-        <v>890</v>
-      </c>
-      <c r="F210" t="n">
-        <v>156.878</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-98003.53729623248</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>887</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>891</v>
-      </c>
-      <c r="C211" t="n">
-        <v>891</v>
-      </c>
-      <c r="D211" t="n">
-        <v>891</v>
-      </c>
-      <c r="E211" t="n">
-        <v>891</v>
-      </c>
-      <c r="F211" t="n">
-        <v>34.6536</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-97968.88369623247</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>887</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>897</v>
-      </c>
-      <c r="C212" t="n">
-        <v>897</v>
-      </c>
-      <c r="D212" t="n">
-        <v>897</v>
-      </c>
-      <c r="E212" t="n">
-        <v>897</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-97967.44369623247</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>887</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>892</v>
-      </c>
-      <c r="C213" t="n">
-        <v>893</v>
-      </c>
-      <c r="D213" t="n">
-        <v>893</v>
-      </c>
-      <c r="E213" t="n">
-        <v>892</v>
-      </c>
-      <c r="F213" t="n">
-        <v>310.664</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>887</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>894</v>
-      </c>
-      <c r="C214" t="n">
-        <v>893</v>
-      </c>
-      <c r="D214" t="n">
-        <v>894</v>
-      </c>
-      <c r="E214" t="n">
-        <v>893</v>
-      </c>
-      <c r="F214" t="n">
-        <v>271.6307</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>887</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>887</v>
-      </c>
-      <c r="C215" t="n">
-        <v>887</v>
-      </c>
-      <c r="D215" t="n">
-        <v>887</v>
-      </c>
-      <c r="E215" t="n">
-        <v>887</v>
-      </c>
-      <c r="F215" t="n">
-        <v>30</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-98308.10769623247</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>887</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>880</v>
-      </c>
-      <c r="C216" t="n">
-        <v>878</v>
-      </c>
-      <c r="D216" t="n">
-        <v>880</v>
-      </c>
-      <c r="E216" t="n">
-        <v>878</v>
-      </c>
-      <c r="F216" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>887</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>877</v>
-      </c>
-      <c r="C217" t="n">
-        <v>878</v>
-      </c>
-      <c r="D217" t="n">
-        <v>878</v>
-      </c>
-      <c r="E217" t="n">
-        <v>877</v>
-      </c>
-      <c r="F217" t="n">
-        <v>198.9065</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>887</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>883</v>
-      </c>
-      <c r="C218" t="n">
-        <v>883</v>
-      </c>
-      <c r="D218" t="n">
-        <v>883</v>
-      </c>
-      <c r="E218" t="n">
-        <v>883</v>
-      </c>
-      <c r="F218" t="n">
-        <v>708.5995</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-97664.02819623248</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>887</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>879</v>
-      </c>
-      <c r="C219" t="n">
-        <v>880</v>
-      </c>
-      <c r="D219" t="n">
-        <v>880</v>
-      </c>
-      <c r="E219" t="n">
-        <v>879</v>
-      </c>
-      <c r="F219" t="n">
-        <v>626.5199</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>887</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>880</v>
-      </c>
-      <c r="C220" t="n">
-        <v>880</v>
-      </c>
-      <c r="D220" t="n">
-        <v>880</v>
-      </c>
-      <c r="E220" t="n">
-        <v>880</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1238.3028</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>887</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>886</v>
-      </c>
-      <c r="C221" t="n">
-        <v>886</v>
-      </c>
-      <c r="D221" t="n">
-        <v>886</v>
-      </c>
-      <c r="E221" t="n">
-        <v>886</v>
-      </c>
-      <c r="F221" t="n">
-        <v>234.9512</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-98055.59689623248</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>887</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>889</v>
-      </c>
-      <c r="C222" t="n">
-        <v>889</v>
-      </c>
-      <c r="D222" t="n">
-        <v>889</v>
-      </c>
-      <c r="E222" t="n">
-        <v>889</v>
-      </c>
-      <c r="F222" t="n">
-        <v>216.154</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-97839.44289623249</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>887</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>892</v>
-      </c>
-      <c r="C223" t="n">
-        <v>891</v>
-      </c>
-      <c r="D223" t="n">
-        <v>892</v>
-      </c>
-      <c r="E223" t="n">
-        <v>891</v>
-      </c>
-      <c r="F223" t="n">
-        <v>499.9999</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-97339.44299623249</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>887</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>886</v>
-      </c>
-      <c r="C224" t="n">
-        <v>886</v>
-      </c>
-      <c r="D224" t="n">
-        <v>886</v>
-      </c>
-      <c r="E224" t="n">
-        <v>886</v>
-      </c>
-      <c r="F224" t="n">
-        <v>347.8036</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-97687.24659623249</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>887</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>883</v>
-      </c>
-      <c r="C225" t="n">
-        <v>883</v>
-      </c>
-      <c r="D225" t="n">
-        <v>883</v>
-      </c>
-      <c r="E225" t="n">
-        <v>883</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-97688.7965962325</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>887</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>888</v>
-      </c>
-      <c r="C226" t="n">
-        <v>888</v>
-      </c>
-      <c r="D226" t="n">
-        <v>888</v>
-      </c>
-      <c r="E226" t="n">
-        <v>888</v>
-      </c>
-      <c r="F226" t="n">
-        <v>122.07</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-97566.72659623249</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>887</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>885</v>
-      </c>
-      <c r="C227" t="n">
-        <v>893</v>
-      </c>
-      <c r="D227" t="n">
-        <v>893</v>
-      </c>
-      <c r="E227" t="n">
-        <v>885</v>
-      </c>
-      <c r="F227" t="n">
-        <v>956.4447</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>887</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>893</v>
-      </c>
-      <c r="C228" t="n">
-        <v>893</v>
-      </c>
-      <c r="D228" t="n">
-        <v>893</v>
-      </c>
-      <c r="E228" t="n">
-        <v>893</v>
-      </c>
-      <c r="F228" t="n">
-        <v>12</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>887</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>895</v>
-      </c>
-      <c r="C229" t="n">
-        <v>895</v>
-      </c>
-      <c r="D229" t="n">
-        <v>895</v>
-      </c>
-      <c r="E229" t="n">
-        <v>895</v>
-      </c>
-      <c r="F229" t="n">
-        <v>34.0288</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-96576.25309623248</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>887</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="C2" t="n">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="D2" t="n">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="E2" t="n">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="F2" t="n">
-        <v>353.148</v>
+        <v>13.1262</v>
       </c>
       <c r="G2" t="n">
-        <v>899.5</v>
+        <v>-17755.75130000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="C3" t="n">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="D3" t="n">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="E3" t="n">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="F3" t="n">
-        <v>35.696</v>
+        <v>38.0926</v>
       </c>
       <c r="G3" t="n">
-        <v>900.4</v>
+        <v>-17793.84390000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="C4" t="n">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="D4" t="n">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="E4" t="n">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="F4" t="n">
-        <v>94.2099</v>
+        <v>150.69</v>
       </c>
       <c r="G4" t="n">
-        <v>900.9</v>
+        <v>-17793.84390000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="C5" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="D5" t="n">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="E5" t="n">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="F5" t="n">
-        <v>105.8755</v>
+        <v>81.74930000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>901.1</v>
+        <v>-17712.09460000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="C6" t="n">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="D6" t="n">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="E6" t="n">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="F6" t="n">
-        <v>71.1215</v>
+        <v>3.8346</v>
       </c>
       <c r="G6" t="n">
-        <v>901.6</v>
+        <v>-17715.92920000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="C7" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="D7" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="E7" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="F7" t="n">
-        <v>12.77</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>902.3</v>
+        <v>-17715.92920000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="C8" t="n">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="D8" t="n">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="E8" t="n">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>10048.6117</v>
       </c>
       <c r="G8" t="n">
-        <v>902.95</v>
+        <v>-27764.54090000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="C9" t="n">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="D9" t="n">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="E9" t="n">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>1102.4896</v>
       </c>
       <c r="G9" t="n">
-        <v>903.55</v>
+        <v>-26662.05130000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="C10" t="n">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="D10" t="n">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="E10" t="n">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="F10" t="n">
-        <v>270</v>
+        <v>214.5498</v>
       </c>
       <c r="G10" t="n">
-        <v>903.9</v>
+        <v>-26447.50150000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="C11" t="n">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="D11" t="n">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="E11" t="n">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>426.9014</v>
       </c>
       <c r="G11" t="n">
-        <v>904.05</v>
+        <v>-26874.4029</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="C12" t="n">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="D12" t="n">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="E12" t="n">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="F12" t="n">
-        <v>53.99</v>
+        <v>393.3875</v>
       </c>
       <c r="G12" t="n">
-        <v>904.55</v>
+        <v>-26874.4029</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="C13" t="n">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="D13" t="n">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="E13" t="n">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="F13" t="n">
-        <v>119.4903</v>
+        <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>904.9</v>
+        <v>-26074.4029</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902</v>
+        <v>875</v>
       </c>
       <c r="C14" t="n">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="D14" t="n">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="E14" t="n">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="F14" t="n">
-        <v>2097.5418</v>
+        <v>22.2862</v>
       </c>
       <c r="G14" t="n">
-        <v>904.95</v>
+        <v>-26096.6891</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="C15" t="n">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="D15" t="n">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="E15" t="n">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="F15" t="n">
-        <v>933.9272</v>
+        <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>904.6</v>
+        <v>-26090.8891</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="C16" t="n">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="D16" t="n">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="E16" t="n">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="F16" t="n">
-        <v>35.0158</v>
+        <v>50.3799</v>
       </c>
       <c r="G16" t="n">
-        <v>904.7</v>
+        <v>-26090.8891</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="C17" t="n">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="D17" t="n">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="E17" t="n">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="F17" t="n">
-        <v>806.974</v>
+        <v>633.1882000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>904.65</v>
+        <v>-25457.7009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="C18" t="n">
-        <v>909</v>
+        <v>880</v>
       </c>
       <c r="D18" t="n">
-        <v>909</v>
+        <v>880</v>
       </c>
       <c r="E18" t="n">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="F18" t="n">
-        <v>3790.265</v>
+        <v>525.4554000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>904.8</v>
+        <v>-25457.7009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="C19" t="n">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="D19" t="n">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="E19" t="n">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>1766.4279</v>
       </c>
       <c r="G19" t="n">
-        <v>905</v>
+        <v>-23691.273</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="C20" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="D20" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="E20" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="F20" t="n">
-        <v>977.6987</v>
+        <v>744.5993999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>905</v>
+        <v>-22946.67360000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="C21" t="n">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="D21" t="n">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="E21" t="n">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="F21" t="n">
-        <v>2.55</v>
+        <v>1137.672</v>
       </c>
       <c r="G21" t="n">
-        <v>904.7</v>
+        <v>-24084.3456</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="C22" t="n">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="D22" t="n">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="E22" t="n">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="F22" t="n">
-        <v>12.45</v>
+        <v>1744.2992</v>
       </c>
       <c r="G22" t="n">
-        <v>904.4</v>
+        <v>-22340.0464</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="C23" t="n">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="E23" t="n">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>581.2102</v>
       </c>
       <c r="G23" t="n">
-        <v>903.65</v>
+        <v>-21758.8362</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="C24" t="n">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="D24" t="n">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="E24" t="n">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="F24" t="n">
-        <v>37.66</v>
+        <v>427.6169</v>
       </c>
       <c r="G24" t="n">
-        <v>903.4</v>
+        <v>-21331.2193</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C25" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D25" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E25" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>36.3012</v>
       </c>
       <c r="G25" t="n">
-        <v>903.05</v>
+        <v>-21294.9181</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="C26" t="n">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="D26" t="n">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="E26" t="n">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="F26" t="n">
-        <v>1130.8352</v>
+        <v>1740.122</v>
       </c>
       <c r="G26" t="n">
-        <v>903.1</v>
+        <v>-23035.0401</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="C27" t="n">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="D27" t="n">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="E27" t="n">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="F27" t="n">
-        <v>3003.589</v>
+        <v>10.0876</v>
       </c>
       <c r="G27" t="n">
-        <v>903.05</v>
+        <v>-23045.1277</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="C28" t="n">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="D28" t="n">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="E28" t="n">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="F28" t="n">
-        <v>2.87</v>
+        <v>33.7599</v>
       </c>
       <c r="G28" t="n">
-        <v>903.25</v>
+        <v>-23011.3678</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="C29" t="n">
-        <v>921</v>
+        <v>880</v>
       </c>
       <c r="D29" t="n">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="E29" t="n">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="F29" t="n">
-        <v>277.49</v>
+        <v>440.3905</v>
       </c>
       <c r="G29" t="n">
-        <v>904</v>
+        <v>-23451.7583</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="C30" t="n">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="D30" t="n">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="E30" t="n">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="F30" t="n">
-        <v>16.7468</v>
+        <v>1955</v>
       </c>
       <c r="G30" t="n">
-        <v>904.95</v>
+        <v>-21496.7583</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="C31" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="D31" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="E31" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="F31" t="n">
-        <v>2.56</v>
+        <v>44.1099</v>
       </c>
       <c r="G31" t="n">
-        <v>906.15</v>
+        <v>-21452.6484</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="C32" t="n">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="D32" t="n">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="E32" t="n">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="F32" t="n">
-        <v>1091.2714</v>
+        <v>1661.8158</v>
       </c>
       <c r="G32" t="n">
-        <v>906.8</v>
+        <v>-23114.4642</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="C33" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="D33" t="n">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="E33" t="n">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="F33" t="n">
-        <v>18.7415</v>
+        <v>1297.8262</v>
       </c>
       <c r="G33" t="n">
-        <v>907.15</v>
+        <v>-21816.638</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="C34" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="D34" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="E34" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="F34" t="n">
-        <v>1117.2764</v>
+        <v>5.9362</v>
       </c>
       <c r="G34" t="n">
-        <v>908</v>
+        <v>-21816.638</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="C35" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="D35" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="E35" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="F35" t="n">
-        <v>999.9999</v>
+        <v>278.774</v>
       </c>
       <c r="G35" t="n">
-        <v>909.1</v>
+        <v>-21816.638</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="C36" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="D36" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="E36" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="F36" t="n">
-        <v>517.4206</v>
+        <v>33.7</v>
       </c>
       <c r="G36" t="n">
-        <v>910.1</v>
+        <v>-21782.938</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="C37" t="n">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="D37" t="n">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="E37" t="n">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="F37" t="n">
-        <v>177.3675</v>
+        <v>1392.8815</v>
       </c>
       <c r="G37" t="n">
-        <v>910.95</v>
+        <v>-23175.8195</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="C38" t="n">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="D38" t="n">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="E38" t="n">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="F38" t="n">
-        <v>3104.9227</v>
+        <v>943</v>
       </c>
       <c r="G38" t="n">
-        <v>911.25</v>
+        <v>-24118.8195</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="C39" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="D39" t="n">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="E39" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F39" t="n">
-        <v>6092.2</v>
+        <v>2013.0955</v>
       </c>
       <c r="G39" t="n">
-        <v>911.9</v>
+        <v>-22105.724</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C40" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="D40" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E40" t="n">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="F40" t="n">
-        <v>22130.6359</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>912.5</v>
+        <v>-22105.724</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="C41" t="n">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="D41" t="n">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E41" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="F41" t="n">
-        <v>2084.6009</v>
+        <v>1700.2853</v>
       </c>
       <c r="G41" t="n">
-        <v>913.35</v>
+        <v>-23806.0093</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="C42" t="n">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="D42" t="n">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="E42" t="n">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="F42" t="n">
-        <v>3710.608</v>
+        <v>18.2121</v>
       </c>
       <c r="G42" t="n">
-        <v>914.1</v>
+        <v>-23824.2214</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="C43" t="n">
-        <v>925</v>
+        <v>888</v>
       </c>
       <c r="D43" t="n">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="E43" t="n">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="F43" t="n">
-        <v>2769.3548</v>
+        <v>1025.6737</v>
       </c>
       <c r="G43" t="n">
-        <v>915.25</v>
+        <v>-24849.8951</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="C44" t="n">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="D44" t="n">
-        <v>929</v>
+        <v>893</v>
       </c>
       <c r="E44" t="n">
-        <v>927</v>
+        <v>892</v>
       </c>
       <c r="F44" t="n">
-        <v>4213</v>
+        <v>1150.0438</v>
       </c>
       <c r="G44" t="n">
-        <v>916.65</v>
+        <v>-23699.8513</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="C45" t="n">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="D45" t="n">
-        <v>929</v>
+        <v>891</v>
       </c>
       <c r="E45" t="n">
-        <v>928</v>
+        <v>889</v>
       </c>
       <c r="F45" t="n">
-        <v>2734.2866</v>
+        <v>1051.68</v>
       </c>
       <c r="G45" t="n">
-        <v>918.35</v>
+        <v>-24751.5313</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="C46" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="D46" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="E46" t="n">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="F46" t="n">
-        <v>593</v>
+        <v>68.42489999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>919.25</v>
+        <v>-24683.1064</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="C47" t="n">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="D47" t="n">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="E47" t="n">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="F47" t="n">
-        <v>2345.633403767492</v>
+        <v>2773.4888</v>
       </c>
       <c r="G47" t="n">
-        <v>920.2</v>
+        <v>-21909.6176</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="C48" t="n">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="D48" t="n">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E48" t="n">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="F48" t="n">
-        <v>1055</v>
+        <v>1636.5542</v>
       </c>
       <c r="G48" t="n">
-        <v>920.9</v>
+        <v>-20273.0634</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="C49" t="n">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="D49" t="n">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="E49" t="n">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="F49" t="n">
-        <v>19000</v>
+        <v>2107.2934</v>
       </c>
       <c r="G49" t="n">
-        <v>920.85</v>
+        <v>-20273.0634</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="C50" t="n">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="D50" t="n">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="E50" t="n">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="F50" t="n">
-        <v>1400</v>
+        <v>113.3</v>
       </c>
       <c r="G50" t="n">
-        <v>920.9</v>
+        <v>-20159.7634</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="C51" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D51" t="n">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="E51" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F51" t="n">
-        <v>20000</v>
+        <v>1872.9749</v>
       </c>
       <c r="G51" t="n">
-        <v>920.45</v>
+        <v>-22032.7383</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="C52" t="n">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="D52" t="n">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="E52" t="n">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="F52" t="n">
-        <v>177.8651</v>
+        <v>1108.3874</v>
       </c>
       <c r="G52" t="n">
-        <v>920.2</v>
+        <v>-23141.1257</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="C53" t="n">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="D53" t="n">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="E53" t="n">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="F53" t="n">
-        <v>561.9537</v>
+        <v>1348.4032</v>
       </c>
       <c r="G53" t="n">
-        <v>920.2</v>
+        <v>-24489.5289</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="C54" t="n">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="D54" t="n">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="E54" t="n">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="F54" t="n">
-        <v>2040.4812</v>
+        <v>36.5774</v>
       </c>
       <c r="G54" t="n">
-        <v>919.8</v>
+        <v>-24526.1063</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="C55" t="n">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="D55" t="n">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="E55" t="n">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="F55" t="n">
-        <v>17229.3411</v>
+        <v>725.9598999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>919.4</v>
+        <v>-23800.1464</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C56" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="D56" t="n">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E56" t="n">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F56" t="n">
-        <v>23215.7714</v>
+        <v>598.4782</v>
       </c>
       <c r="G56" t="n">
-        <v>918.7</v>
+        <v>-23800.1464</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C57" t="n">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D57" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E57" t="n">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F57" t="n">
-        <v>894</v>
+        <v>371.7699</v>
       </c>
       <c r="G57" t="n">
-        <v>918</v>
+        <v>-23800.1464</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C58" t="n">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D58" t="n">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E58" t="n">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F58" t="n">
-        <v>2497.5396</v>
+        <v>17.6231</v>
       </c>
       <c r="G58" t="n">
-        <v>917.55</v>
+        <v>-23800.1464</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="C59" t="n">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="D59" t="n">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="E59" t="n">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="F59" t="n">
-        <v>4126.4792</v>
+        <v>193.2849</v>
       </c>
       <c r="G59" t="n">
-        <v>917.35</v>
+        <v>-23993.4313</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="C60" t="n">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="D60" t="n">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="E60" t="n">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="F60" t="n">
-        <v>15848.8388</v>
+        <v>0.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>917.3</v>
+        <v>-23993.4313</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="C61" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="D61" t="n">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="E61" t="n">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="F61" t="n">
-        <v>1530</v>
+        <v>4.8</v>
       </c>
       <c r="G61" t="n">
-        <v>916.9</v>
+        <v>-23988.6313</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="C62" t="n">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="D62" t="n">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="E62" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F62" t="n">
-        <v>484</v>
+        <v>190.1861</v>
       </c>
       <c r="G62" t="n">
-        <v>916.6</v>
+        <v>-23988.6313</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="C63" t="n">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="D63" t="n">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="E63" t="n">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="F63" t="n">
-        <v>804.3817</v>
+        <v>44.69</v>
       </c>
       <c r="G63" t="n">
-        <v>916.45</v>
+        <v>-23988.6313</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="C64" t="n">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D64" t="n">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="E64" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F64" t="n">
-        <v>81.81</v>
+        <v>734.607</v>
       </c>
       <c r="G64" t="n">
-        <v>915.7</v>
+        <v>-23254.0243</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C65" t="n">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D65" t="n">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E65" t="n">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="F65" t="n">
-        <v>1285.8596</v>
+        <v>2668.6065</v>
       </c>
       <c r="G65" t="n">
-        <v>914.75</v>
+        <v>-23254.0243</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C66" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D66" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E66" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="F66" t="n">
-        <v>147</v>
+        <v>17.6662</v>
       </c>
       <c r="G66" t="n">
-        <v>913.8</v>
+        <v>-23236.3581</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>899</v>
+      </c>
+      <c r="C67" t="n">
         <v>905</v>
-      </c>
-      <c r="C67" t="n">
-        <v>903</v>
       </c>
       <c r="D67" t="n">
         <v>905</v>
       </c>
       <c r="E67" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F67" t="n">
-        <v>811.802</v>
+        <v>560.1284000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>912.75</v>
+        <v>-23236.3581</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C68" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D68" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E68" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F68" t="n">
-        <v>103</v>
+        <v>413.41</v>
       </c>
       <c r="G68" t="n">
-        <v>911.65</v>
+        <v>-23236.3581</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C69" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D69" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E69" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F69" t="n">
-        <v>172.0508</v>
+        <v>33.7461</v>
       </c>
       <c r="G69" t="n">
-        <v>911.15</v>
+        <v>-23270.1042</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C70" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D70" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E70" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F70" t="n">
-        <v>714.2608</v>
+        <v>363.94</v>
       </c>
       <c r="G70" t="n">
-        <v>910.35</v>
+        <v>-22906.1642</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C71" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D71" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E71" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F71" t="n">
-        <v>511.6508</v>
+        <v>3004.3248</v>
       </c>
       <c r="G71" t="n">
-        <v>910</v>
+        <v>-22906.1642</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C72" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="D72" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E72" t="n">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="F72" t="n">
-        <v>529.9559</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>909.5</v>
+        <v>-22819.4242</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="C73" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D73" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="E73" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="F73" t="n">
-        <v>34.4088</v>
+        <v>353.148</v>
       </c>
       <c r="G73" t="n">
-        <v>908.8</v>
+        <v>-22819.4242</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C74" t="n">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="D74" t="n">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E74" t="n">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="F74" t="n">
-        <v>105</v>
+        <v>35.696</v>
       </c>
       <c r="G74" t="n">
-        <v>908.2</v>
+        <v>-22783.7282</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="C75" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D75" t="n">
         <v>904</v>
       </c>
       <c r="E75" t="n">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="F75" t="n">
-        <v>2218.728</v>
+        <v>94.2099</v>
       </c>
       <c r="G75" t="n">
-        <v>907.45</v>
+        <v>-22877.9381</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3114,10 +3114,10 @@
         <v>902</v>
       </c>
       <c r="F76" t="n">
-        <v>42.9124</v>
+        <v>105.8755</v>
       </c>
       <c r="G76" t="n">
-        <v>907.2</v>
+        <v>-22983.8136</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C77" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D77" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E77" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="F77" t="n">
-        <v>1689</v>
+        <v>71.1215</v>
       </c>
       <c r="G77" t="n">
-        <v>906.85</v>
+        <v>-22912.6921</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="C78" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="D78" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="E78" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="F78" t="n">
-        <v>505</v>
+        <v>12.77</v>
       </c>
       <c r="G78" t="n">
-        <v>906.35</v>
+        <v>-22899.9221</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="C79" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="D79" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="E79" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="F79" t="n">
-        <v>2339.7693</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>905</v>
+        <v>-22900.9221</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C80" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D80" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E80" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="F80" t="n">
-        <v>36.45</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>904.05</v>
+        <v>-22901.9221</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C81" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D81" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E81" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F81" t="n">
-        <v>2732.29</v>
+        <v>270</v>
       </c>
       <c r="G81" t="n">
-        <v>903.25</v>
+        <v>-23171.9221</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C82" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D82" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E82" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F82" t="n">
-        <v>2254.85</v>
+        <v>1.45</v>
       </c>
       <c r="G82" t="n">
-        <v>902.5</v>
+        <v>-23173.3721</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="C83" t="n">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D83" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="E83" t="n">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="F83" t="n">
-        <v>3044.18</v>
+        <v>53.99</v>
       </c>
       <c r="G83" t="n">
-        <v>901.6</v>
+        <v>-23119.3821</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="C84" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="D84" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E84" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="F84" t="n">
-        <v>318.468</v>
+        <v>119.4903</v>
       </c>
       <c r="G84" t="n">
-        <v>900.8</v>
+        <v>-22999.89179999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>902</v>
+      </c>
+      <c r="C85" t="n">
         <v>898</v>
       </c>
-      <c r="C85" t="n">
-        <v>905</v>
-      </c>
       <c r="D85" t="n">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E85" t="n">
         <v>898</v>
       </c>
       <c r="F85" t="n">
-        <v>2156.05</v>
+        <v>2097.5418</v>
       </c>
       <c r="G85" t="n">
-        <v>900.2</v>
+        <v>-25097.43359999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C86" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D86" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="E86" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F86" t="n">
-        <v>1668.95</v>
+        <v>933.9272</v>
       </c>
       <c r="G86" t="n">
-        <v>900.35</v>
+        <v>-25097.43359999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C87" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D87" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E87" t="n">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F87" t="n">
-        <v>287.5142</v>
+        <v>35.0158</v>
       </c>
       <c r="G87" t="n">
-        <v>900.45</v>
+        <v>-25062.41779999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C88" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D88" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E88" t="n">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="F88" t="n">
-        <v>916</v>
+        <v>806.974</v>
       </c>
       <c r="G88" t="n">
-        <v>900.9</v>
+        <v>-24255.44379999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C89" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D89" t="n">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E89" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F89" t="n">
-        <v>43.37</v>
+        <v>3790.265</v>
       </c>
       <c r="G89" t="n">
-        <v>901.25</v>
+        <v>-20465.17879999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C90" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D90" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E90" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F90" t="n">
-        <v>196.3642</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>901.5</v>
+        <v>-20465.17879999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C91" t="n">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D91" t="n">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E91" t="n">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F91" t="n">
-        <v>60</v>
+        <v>977.6987</v>
       </c>
       <c r="G91" t="n">
-        <v>901.8</v>
+        <v>-21442.8775</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C92" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D92" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E92" t="n">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F92" t="n">
-        <v>77.9081</v>
+        <v>2.55</v>
       </c>
       <c r="G92" t="n">
-        <v>901.7</v>
+        <v>-21445.42749999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C93" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D93" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E93" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>12.45</v>
       </c>
       <c r="G93" t="n">
-        <v>901.85</v>
+        <v>-21445.42749999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C94" t="n">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="D94" t="n">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="E94" t="n">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="F94" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>902.35</v>
+        <v>-21446.42749999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C95" t="n">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="D95" t="n">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="E95" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F95" t="n">
-        <v>120</v>
+        <v>37.66</v>
       </c>
       <c r="G95" t="n">
-        <v>902.95</v>
+        <v>-21408.76749999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C96" t="n">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="D96" t="n">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="E96" t="n">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="F96" t="n">
-        <v>810</v>
+        <v>2.34</v>
       </c>
       <c r="G96" t="n">
-        <v>903.25</v>
+        <v>-21411.10749999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C97" t="n">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="D97" t="n">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="E97" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="F97" t="n">
-        <v>980</v>
+        <v>1130.8352</v>
       </c>
       <c r="G97" t="n">
-        <v>903.2</v>
+        <v>-20280.27229999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="C98" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D98" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E98" t="n">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="F98" t="n">
-        <v>535.2696999999999</v>
+        <v>3003.589</v>
       </c>
       <c r="G98" t="n">
-        <v>903.1</v>
+        <v>-23283.86129999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C99" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D99" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="E99" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2.87</v>
       </c>
       <c r="G99" t="n">
-        <v>903.75</v>
+        <v>-23280.99129999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="C100" t="n">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="D100" t="n">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="E100" t="n">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="F100" t="n">
-        <v>281.82</v>
+        <v>277.49</v>
       </c>
       <c r="G100" t="n">
-        <v>903.8</v>
+        <v>-23003.50129999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="C101" t="n">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="D101" t="n">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="E101" t="n">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="F101" t="n">
-        <v>99.9999</v>
+        <v>16.7468</v>
       </c>
       <c r="G101" t="n">
-        <v>903.85</v>
+        <v>-22986.75449999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="C102" t="n">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="D102" t="n">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="E102" t="n">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="F102" t="n">
-        <v>1.56</v>
+        <v>2.56</v>
       </c>
       <c r="G102" t="n">
-        <v>904.05</v>
+        <v>-22984.19449999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="C103" t="n">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="D103" t="n">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="E103" t="n">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="F103" t="n">
-        <v>173.4333</v>
+        <v>1091.2714</v>
       </c>
       <c r="G103" t="n">
-        <v>903.9</v>
+        <v>-24075.46589999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="C104" t="n">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="D104" t="n">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="E104" t="n">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="F104" t="n">
-        <v>2022</v>
+        <v>18.7415</v>
       </c>
       <c r="G104" t="n">
-        <v>904</v>
+        <v>-24056.72439999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="C105" t="n">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="D105" t="n">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="E105" t="n">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="F105" t="n">
-        <v>1662.2791</v>
+        <v>1117.2764</v>
       </c>
       <c r="G105" t="n">
-        <v>903.9</v>
+        <v>-25174.00079999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="C106" t="n">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="D106" t="n">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="E106" t="n">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="F106" t="n">
-        <v>175.981</v>
+        <v>999.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>903.45</v>
+        <v>-24174.00089999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="C107" t="n">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="D107" t="n">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="E107" t="n">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="F107" t="n">
-        <v>175.981</v>
+        <v>517.4206</v>
       </c>
       <c r="G107" t="n">
-        <v>902.85</v>
+        <v>-23656.58029999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="C108" t="n">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="D108" t="n">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="E108" t="n">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="F108" t="n">
-        <v>2.2295</v>
+        <v>177.3675</v>
       </c>
       <c r="G108" t="n">
-        <v>902.35</v>
+        <v>-23833.94779999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="C109" t="n">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="D109" t="n">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="E109" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="F109" t="n">
-        <v>116.3296</v>
+        <v>3104.9227</v>
       </c>
       <c r="G109" t="n">
-        <v>901.5</v>
+        <v>-20729.02509999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,28 +4326,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="C110" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="D110" t="n">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="E110" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="F110" t="n">
-        <v>397.1238</v>
+        <v>6092.2</v>
       </c>
       <c r="G110" t="n">
-        <v>900.75</v>
+        <v>-26821.22509999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4362,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="C111" t="n">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="D111" t="n">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="E111" t="n">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="F111" t="n">
-        <v>268.558</v>
+        <v>22130.6359</v>
       </c>
       <c r="G111" t="n">
-        <v>899.65</v>
+        <v>-4690.589199999991</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,28 +4398,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="C112" t="n">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="D112" t="n">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="E112" t="n">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="F112" t="n">
-        <v>2.2239</v>
+        <v>2084.6009</v>
       </c>
       <c r="G112" t="n">
-        <v>899.1</v>
+        <v>-6775.190099999991</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4434,28 +4434,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="C113" t="n">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="D113" t="n">
-        <v>897</v>
+        <v>921</v>
       </c>
       <c r="E113" t="n">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="F113" t="n">
-        <v>1359.14</v>
+        <v>3710.608</v>
       </c>
       <c r="G113" t="n">
-        <v>898.75</v>
+        <v>-3064.582099999991</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="C114" t="n">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="D114" t="n">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="E114" t="n">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="F114" t="n">
-        <v>308.0461</v>
+        <v>2769.3548</v>
       </c>
       <c r="G114" t="n">
-        <v>898.1</v>
+        <v>-295.2272999999905</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4506,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>893</v>
+        <v>927</v>
       </c>
       <c r="C115" t="n">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="D115" t="n">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="E115" t="n">
-        <v>893</v>
+        <v>927</v>
       </c>
       <c r="F115" t="n">
-        <v>330.1282</v>
+        <v>4213</v>
       </c>
       <c r="G115" t="n">
-        <v>897.3</v>
+        <v>3917.77270000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>891</v>
+        <v>929</v>
       </c>
       <c r="C116" t="n">
-        <v>891</v>
+        <v>928</v>
       </c>
       <c r="D116" t="n">
-        <v>891</v>
+        <v>929</v>
       </c>
       <c r="E116" t="n">
-        <v>891</v>
+        <v>928</v>
       </c>
       <c r="F116" t="n">
-        <v>1107.5824</v>
+        <v>2734.2866</v>
       </c>
       <c r="G116" t="n">
-        <v>896.45</v>
+        <v>1183.48610000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="C117" t="n">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="D117" t="n">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E117" t="n">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="F117" t="n">
-        <v>21.9994</v>
+        <v>593</v>
       </c>
       <c r="G117" t="n">
-        <v>896</v>
+        <v>590.4861000000096</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>888</v>
+        <v>926</v>
       </c>
       <c r="C118" t="n">
-        <v>888</v>
+        <v>929</v>
       </c>
       <c r="D118" t="n">
-        <v>888</v>
+        <v>929</v>
       </c>
       <c r="E118" t="n">
-        <v>888</v>
+        <v>926</v>
       </c>
       <c r="F118" t="n">
-        <v>37.94</v>
+        <v>2345.633403767492</v>
       </c>
       <c r="G118" t="n">
-        <v>895.8</v>
+        <v>2936.119503767502</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="C119" t="n">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="D119" t="n">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="E119" t="n">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="F119" t="n">
-        <v>955.1306</v>
+        <v>1055</v>
       </c>
       <c r="G119" t="n">
-        <v>894.9</v>
+        <v>1881.119503767502</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4686,28 +4686,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="C120" t="n">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="D120" t="n">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="E120" t="n">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="F120" t="n">
-        <v>235.803</v>
+        <v>19000</v>
       </c>
       <c r="G120" t="n">
-        <v>894.35</v>
+        <v>-17118.8804962325</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4722,28 +4722,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="C121" t="n">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="D121" t="n">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="E121" t="n">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="F121" t="n">
-        <v>302.6227</v>
+        <v>1400</v>
       </c>
       <c r="G121" t="n">
-        <v>893.95</v>
+        <v>-15718.8804962325</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4758,28 +4758,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="C122" t="n">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="D122" t="n">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="E122" t="n">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="F122" t="n">
-        <v>225.2252</v>
+        <v>20000</v>
       </c>
       <c r="G122" t="n">
-        <v>893.25</v>
+        <v>-35718.88049623249</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4794,28 +4794,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="C123" t="n">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="D123" t="n">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="E123" t="n">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="F123" t="n">
-        <v>797.2012</v>
+        <v>177.8651</v>
       </c>
       <c r="G123" t="n">
-        <v>892.8</v>
+        <v>-35541.01539623249</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="C124" t="n">
-        <v>882</v>
+        <v>913</v>
       </c>
       <c r="D124" t="n">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="E124" t="n">
-        <v>882</v>
+        <v>913</v>
       </c>
       <c r="F124" t="n">
-        <v>755.4893</v>
+        <v>561.9537</v>
       </c>
       <c r="G124" t="n">
-        <v>892.1</v>
+        <v>-36102.96909623249</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="C125" t="n">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="D125" t="n">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="E125" t="n">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="F125" t="n">
-        <v>70.5538</v>
+        <v>2040.4812</v>
       </c>
       <c r="G125" t="n">
-        <v>891.4</v>
+        <v>-38143.45029623249</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="C126" t="n">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="D126" t="n">
-        <v>883</v>
+        <v>918</v>
       </c>
       <c r="E126" t="n">
-        <v>883</v>
+        <v>910</v>
       </c>
       <c r="F126" t="n">
-        <v>304.6999</v>
+        <v>17229.3411</v>
       </c>
       <c r="G126" t="n">
-        <v>890.65</v>
+        <v>-55372.7913962325</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="C127" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="D127" t="n">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="E127" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F127" t="n">
-        <v>37.5702</v>
+        <v>23215.7714</v>
       </c>
       <c r="G127" t="n">
-        <v>890.25</v>
+        <v>-78588.56279623249</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="C128" t="n">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="D128" t="n">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="E128" t="n">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="F128" t="n">
-        <v>7.2312</v>
+        <v>894</v>
       </c>
       <c r="G128" t="n">
-        <v>889.7</v>
+        <v>-79482.56279623249</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="C129" t="n">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D129" t="n">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="E129" t="n">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2497.5396</v>
       </c>
       <c r="G129" t="n">
-        <v>889.35</v>
+        <v>-81980.1023962325</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="C130" t="n">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="D130" t="n">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="E130" t="n">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>4126.4792</v>
       </c>
       <c r="G130" t="n">
-        <v>888.85</v>
+        <v>-77853.6231962325</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="C131" t="n">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="D131" t="n">
-        <v>882</v>
+        <v>923</v>
       </c>
       <c r="E131" t="n">
-        <v>875</v>
+        <v>913</v>
       </c>
       <c r="F131" t="n">
-        <v>328.4717</v>
+        <v>15848.8388</v>
       </c>
       <c r="G131" t="n">
-        <v>888.4</v>
+        <v>-93702.46199623249</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="C132" t="n">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="D132" t="n">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="E132" t="n">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F132" t="n">
-        <v>1111.9863</v>
+        <v>1530</v>
       </c>
       <c r="G132" t="n">
-        <v>887.5</v>
+        <v>-95232.46199623249</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="C133" t="n">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="D133" t="n">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="E133" t="n">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="F133" t="n">
-        <v>186.57</v>
+        <v>484</v>
       </c>
       <c r="G133" t="n">
-        <v>886.6</v>
+        <v>-94748.46199623249</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="C134" t="n">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="D134" t="n">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="E134" t="n">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F134" t="n">
-        <v>108.8299</v>
+        <v>804.3817</v>
       </c>
       <c r="G134" t="n">
-        <v>885.75</v>
+        <v>-95552.84369623249</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="C135" t="n">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="D135" t="n">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="E135" t="n">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="F135" t="n">
-        <v>52.1146</v>
+        <v>81.81</v>
       </c>
       <c r="G135" t="n">
-        <v>885.05</v>
+        <v>-95634.65369623249</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="C136" t="n">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="D136" t="n">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="E136" t="n">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="F136" t="n">
-        <v>263.16</v>
+        <v>1285.8596</v>
       </c>
       <c r="G136" t="n">
-        <v>884.55</v>
+        <v>-96920.51329623249</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C137" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="D137" t="n">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E137" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F137" t="n">
-        <v>1.78</v>
+        <v>147</v>
       </c>
       <c r="G137" t="n">
-        <v>885.35</v>
+        <v>-96773.51329623249</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="C138" t="n">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="D138" t="n">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="E138" t="n">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="F138" t="n">
-        <v>16.1115</v>
+        <v>811.802</v>
       </c>
       <c r="G138" t="n">
-        <v>885</v>
+        <v>-95961.71129623249</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="C139" t="n">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="D139" t="n">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="E139" t="n">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="F139" t="n">
-        <v>140.8435</v>
+        <v>103</v>
       </c>
       <c r="G139" t="n">
-        <v>884.6</v>
+        <v>-95961.71129623249</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="C140" t="n">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="D140" t="n">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="E140" t="n">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="F140" t="n">
-        <v>1136.4</v>
+        <v>172.0508</v>
       </c>
       <c r="G140" t="n">
-        <v>884.15</v>
+        <v>-95789.66049623249</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="C141" t="n">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="D141" t="n">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="E141" t="n">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="F141" t="n">
-        <v>888.2324</v>
+        <v>714.2608</v>
       </c>
       <c r="G141" t="n">
-        <v>883.65</v>
+        <v>-95789.66049623249</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="C142" t="n">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="D142" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="E142" t="n">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="F142" t="n">
-        <v>275.9509</v>
+        <v>511.6508</v>
       </c>
       <c r="G142" t="n">
-        <v>884.25</v>
+        <v>-95789.66049623249</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="C143" t="n">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="D143" t="n">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="E143" t="n">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="F143" t="n">
-        <v>15</v>
+        <v>529.9559</v>
       </c>
       <c r="G143" t="n">
-        <v>884.25</v>
+        <v>-96319.61639623249</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="C144" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="D144" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="E144" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="F144" t="n">
-        <v>7.9</v>
+        <v>34.4088</v>
       </c>
       <c r="G144" t="n">
-        <v>884.35</v>
+        <v>-96354.0251962325</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="C145" t="n">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="D145" t="n">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="E145" t="n">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="F145" t="n">
-        <v>2156.0396</v>
+        <v>105</v>
       </c>
       <c r="G145" t="n">
-        <v>884.5</v>
+        <v>-96459.0251962325</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="C146" t="n">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="D146" t="n">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E146" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="F146" t="n">
-        <v>84</v>
+        <v>2218.728</v>
       </c>
       <c r="G146" t="n">
-        <v>884.55</v>
+        <v>-94240.2971962325</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="C147" t="n">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="D147" t="n">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E147" t="n">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="F147" t="n">
-        <v>49.67</v>
+        <v>42.9124</v>
       </c>
       <c r="G147" t="n">
-        <v>884.3</v>
+        <v>-94240.2971962325</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="C148" t="n">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="D148" t="n">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="E148" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="F148" t="n">
-        <v>167.3403</v>
+        <v>1689</v>
       </c>
       <c r="G148" t="n">
-        <v>883.75</v>
+        <v>-95929.2971962325</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="C149" t="n">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="D149" t="n">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="E149" t="n">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="F149" t="n">
-        <v>258.15</v>
+        <v>505</v>
       </c>
       <c r="G149" t="n">
-        <v>883.3</v>
+        <v>-96434.2971962325</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C150" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="D150" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="E150" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="F150" t="n">
-        <v>470.4932</v>
+        <v>2339.7693</v>
       </c>
       <c r="G150" t="n">
-        <v>883.1</v>
+        <v>-98774.0664962325</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="C151" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="D151" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="E151" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="F151" t="n">
-        <v>66.1542</v>
+        <v>36.45</v>
       </c>
       <c r="G151" t="n">
-        <v>883.15</v>
+        <v>-98737.6164962325</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +5838,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="C152" t="n">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="D152" t="n">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="E152" t="n">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="F152" t="n">
-        <v>36.3072</v>
+        <v>2732.29</v>
       </c>
       <c r="G152" t="n">
-        <v>883.65</v>
+        <v>-101469.9064962325</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +5874,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C153" t="n">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="D153" t="n">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="E153" t="n">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="F153" t="n">
-        <v>846.9654</v>
+        <v>2254.85</v>
       </c>
       <c r="G153" t="n">
-        <v>883.9</v>
+        <v>-99215.05649623249</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +5910,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="C154" t="n">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="D154" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E154" t="n">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="F154" t="n">
-        <v>76.1803</v>
+        <v>3044.18</v>
       </c>
       <c r="G154" t="n">
-        <v>883.95</v>
+        <v>-102259.2364962325</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +5946,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="C155" t="n">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="D155" t="n">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="E155" t="n">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="F155" t="n">
-        <v>286.2667</v>
+        <v>318.468</v>
       </c>
       <c r="G155" t="n">
-        <v>883.95</v>
+        <v>-102577.7044962325</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +5982,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="C156" t="n">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="D156" t="n">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="E156" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="F156" t="n">
-        <v>25</v>
+        <v>2156.05</v>
       </c>
       <c r="G156" t="n">
-        <v>883.9</v>
+        <v>-100421.6544962325</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,35 +6018,31 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="C157" t="n">
-        <v>885</v>
+        <v>906</v>
       </c>
       <c r="D157" t="n">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="E157" t="n">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="F157" t="n">
-        <v>2685.0075</v>
+        <v>1668.95</v>
       </c>
       <c r="G157" t="n">
-        <v>882.7</v>
+        <v>-98752.70449623247</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>880</v>
-      </c>
-      <c r="K157" t="n">
-        <v>880</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
@@ -6058,40 +6054,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="C158" t="n">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="D158" t="n">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="E158" t="n">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>287.5142</v>
       </c>
       <c r="G158" t="n">
-        <v>883.05</v>
+        <v>-98465.19029623247</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>885</v>
-      </c>
-      <c r="K158" t="n">
-        <v>880</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6102,40 +6090,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="C159" t="n">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="D159" t="n">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="E159" t="n">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="F159" t="n">
-        <v>109.12</v>
+        <v>916</v>
       </c>
       <c r="G159" t="n">
-        <v>883.5</v>
+        <v>-97549.19029623247</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>888</v>
-      </c>
-      <c r="K159" t="n">
-        <v>880</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6146,35 +6126,31 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="C160" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="D160" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="E160" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="F160" t="n">
-        <v>1.7755</v>
+        <v>43.37</v>
       </c>
       <c r="G160" t="n">
-        <v>884.15</v>
+        <v>-97505.82029623247</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>887</v>
-      </c>
-      <c r="K160" t="n">
-        <v>887</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
@@ -6186,40 +6162,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="C161" t="n">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="D161" t="n">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="E161" t="n">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="F161" t="n">
-        <v>68.38</v>
+        <v>196.3642</v>
       </c>
       <c r="G161" t="n">
-        <v>884.65</v>
+        <v>-97702.18449623247</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>891</v>
-      </c>
-      <c r="K161" t="n">
-        <v>887</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6230,22 +6198,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="C162" t="n">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="D162" t="n">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E162" t="n">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="F162" t="n">
-        <v>109.7454</v>
+        <v>60</v>
       </c>
       <c r="G162" t="n">
-        <v>884.3</v>
+        <v>-97642.18449623247</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6254,14 +6222,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>887</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6272,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C163" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D163" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E163" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="F163" t="n">
-        <v>1.55</v>
+        <v>77.9081</v>
       </c>
       <c r="G163" t="n">
-        <v>884.9</v>
+        <v>-97720.09259623247</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6308,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C164" t="n">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="D164" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="E164" t="n">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="F164" t="n">
-        <v>372.2974</v>
+        <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>885.25</v>
+        <v>-97220.09259623247</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6344,22 +6306,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C165" t="n">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="D165" t="n">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="E165" t="n">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="F165" t="n">
-        <v>36.2147</v>
+        <v>60</v>
       </c>
       <c r="G165" t="n">
-        <v>885.55</v>
+        <v>-97160.09259623247</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6380,22 +6342,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="C166" t="n">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="D166" t="n">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E166" t="n">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="F166" t="n">
-        <v>1.911</v>
+        <v>120</v>
       </c>
       <c r="G166" t="n">
-        <v>886.05</v>
+        <v>-97040.09259623247</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6416,866 +6378,3548 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="C167" t="n">
+        <v>908</v>
+      </c>
+      <c r="D167" t="n">
+        <v>908</v>
+      </c>
+      <c r="E167" t="n">
+        <v>908</v>
+      </c>
+      <c r="F167" t="n">
+        <v>810</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-97850.09259623247</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>899</v>
+      </c>
+      <c r="C168" t="n">
+        <v>899</v>
+      </c>
+      <c r="D168" t="n">
+        <v>899</v>
+      </c>
+      <c r="E168" t="n">
+        <v>899</v>
+      </c>
+      <c r="F168" t="n">
+        <v>980</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-98830.09259623247</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>892</v>
+      </c>
+      <c r="C169" t="n">
+        <v>896</v>
+      </c>
+      <c r="D169" t="n">
+        <v>896</v>
+      </c>
+      <c r="E169" t="n">
+        <v>892</v>
+      </c>
+      <c r="F169" t="n">
+        <v>535.2696999999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-99365.36229623247</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>904</v>
+      </c>
+      <c r="C170" t="n">
+        <v>904</v>
+      </c>
+      <c r="D170" t="n">
+        <v>904</v>
+      </c>
+      <c r="E170" t="n">
+        <v>904</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-99364.36229623247</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>898</v>
+      </c>
+      <c r="C171" t="n">
+        <v>898</v>
+      </c>
+      <c r="D171" t="n">
+        <v>898</v>
+      </c>
+      <c r="E171" t="n">
+        <v>898</v>
+      </c>
+      <c r="F171" t="n">
+        <v>281.82</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-99646.18229623248</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>898</v>
+      </c>
+      <c r="C172" t="n">
+        <v>898</v>
+      </c>
+      <c r="D172" t="n">
+        <v>898</v>
+      </c>
+      <c r="E172" t="n">
+        <v>898</v>
+      </c>
+      <c r="F172" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-99646.18229623248</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>902</v>
+      </c>
+      <c r="C173" t="n">
+        <v>902</v>
+      </c>
+      <c r="D173" t="n">
+        <v>902</v>
+      </c>
+      <c r="E173" t="n">
+        <v>902</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-99644.62229623248</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>895</v>
+      </c>
+      <c r="C174" t="n">
+        <v>895</v>
+      </c>
+      <c r="D174" t="n">
+        <v>895</v>
+      </c>
+      <c r="E174" t="n">
+        <v>895</v>
+      </c>
+      <c r="F174" t="n">
+        <v>173.4333</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-99818.05559623249</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>898</v>
+      </c>
+      <c r="C175" t="n">
+        <v>895</v>
+      </c>
+      <c r="D175" t="n">
+        <v>898</v>
+      </c>
+      <c r="E175" t="n">
+        <v>895</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-99818.05559623249</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>896</v>
+      </c>
+      <c r="C176" t="n">
+        <v>897</v>
+      </c>
+      <c r="D176" t="n">
+        <v>897</v>
+      </c>
+      <c r="E176" t="n">
+        <v>895</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1662.2791</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-98155.77649623249</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>898</v>
+      </c>
+      <c r="C177" t="n">
+        <v>898</v>
+      </c>
+      <c r="D177" t="n">
+        <v>898</v>
+      </c>
+      <c r="E177" t="n">
+        <v>898</v>
+      </c>
+      <c r="F177" t="n">
+        <v>175.981</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-97979.79549623249</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>895</v>
+      </c>
+      <c r="C178" t="n">
+        <v>895</v>
+      </c>
+      <c r="D178" t="n">
+        <v>895</v>
+      </c>
+      <c r="E178" t="n">
+        <v>895</v>
+      </c>
+      <c r="F178" t="n">
+        <v>175.981</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-98155.77649623249</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>902</v>
+      </c>
+      <c r="C179" t="n">
+        <v>902</v>
+      </c>
+      <c r="D179" t="n">
+        <v>902</v>
+      </c>
+      <c r="E179" t="n">
+        <v>902</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.2295</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-98153.54699623249</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>897</v>
+      </c>
+      <c r="C180" t="n">
+        <v>897</v>
+      </c>
+      <c r="D180" t="n">
+        <v>897</v>
+      </c>
+      <c r="E180" t="n">
+        <v>897</v>
+      </c>
+      <c r="F180" t="n">
+        <v>116.3296</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-98269.87659623248</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>897</v>
+      </c>
+      <c r="C181" t="n">
+        <v>897</v>
+      </c>
+      <c r="D181" t="n">
+        <v>897</v>
+      </c>
+      <c r="E181" t="n">
+        <v>897</v>
+      </c>
+      <c r="F181" t="n">
+        <v>397.1238</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-98269.87659623248</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>891</v>
+      </c>
+      <c r="C182" t="n">
+        <v>894</v>
+      </c>
+      <c r="D182" t="n">
+        <v>894</v>
+      </c>
+      <c r="E182" t="n">
+        <v>891</v>
+      </c>
+      <c r="F182" t="n">
+        <v>268.558</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-98538.43459623249</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>891</v>
+      </c>
+      <c r="C183" t="n">
+        <v>891</v>
+      </c>
+      <c r="D183" t="n">
+        <v>891</v>
+      </c>
+      <c r="E183" t="n">
+        <v>891</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.2239</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-98540.65849623249</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>896</v>
+      </c>
+      <c r="C184" t="n">
+        <v>896</v>
+      </c>
+      <c r="D184" t="n">
+        <v>897</v>
+      </c>
+      <c r="E184" t="n">
+        <v>896</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1359.14</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-97181.51849623249</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>896</v>
+      </c>
+      <c r="C185" t="n">
+        <v>895</v>
+      </c>
+      <c r="D185" t="n">
+        <v>896</v>
+      </c>
+      <c r="E185" t="n">
+        <v>895</v>
+      </c>
+      <c r="F185" t="n">
+        <v>308.0461</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-97489.56459623249</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>893</v>
+      </c>
+      <c r="C186" t="n">
+        <v>893</v>
+      </c>
+      <c r="D186" t="n">
+        <v>893</v>
+      </c>
+      <c r="E186" t="n">
+        <v>893</v>
+      </c>
+      <c r="F186" t="n">
+        <v>330.1282</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-97819.6927962325</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>891</v>
+      </c>
+      <c r="C187" t="n">
+        <v>891</v>
+      </c>
+      <c r="D187" t="n">
+        <v>891</v>
+      </c>
+      <c r="E187" t="n">
+        <v>891</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1107.5824</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-98927.2751962325</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>890</v>
+      </c>
+      <c r="C188" t="n">
+        <v>886</v>
+      </c>
+      <c r="D188" t="n">
+        <v>890</v>
+      </c>
+      <c r="E188" t="n">
+        <v>886</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21.9994</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-98949.2745962325</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>888</v>
+      </c>
+      <c r="C189" t="n">
+        <v>888</v>
+      </c>
+      <c r="D189" t="n">
+        <v>888</v>
+      </c>
+      <c r="E189" t="n">
+        <v>888</v>
+      </c>
+      <c r="F189" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-98911.3345962325</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>886</v>
+      </c>
+      <c r="C190" t="n">
+        <v>886</v>
+      </c>
+      <c r="D190" t="n">
+        <v>886</v>
+      </c>
+      <c r="E190" t="n">
+        <v>886</v>
+      </c>
+      <c r="F190" t="n">
+        <v>955.1306</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-99866.4651962325</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>887</v>
       </c>
-      <c r="D167" t="n">
-        <v>889</v>
-      </c>
-      <c r="E167" t="n">
+      <c r="C191" t="n">
         <v>887</v>
       </c>
-      <c r="F167" t="n">
-        <v>820.3246</v>
-      </c>
-      <c r="G167" t="n">
-        <v>886.4</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>894</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="D191" t="n">
+        <v>887</v>
+      </c>
+      <c r="E191" t="n">
+        <v>887</v>
+      </c>
+      <c r="F191" t="n">
+        <v>235.803</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-99630.6621962325</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>890</v>
+      </c>
+      <c r="C192" t="n">
+        <v>890</v>
+      </c>
+      <c r="D192" t="n">
+        <v>890</v>
+      </c>
+      <c r="E192" t="n">
+        <v>890</v>
+      </c>
+      <c r="F192" t="n">
+        <v>302.6227</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-99328.03949623249</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>888</v>
+      </c>
+      <c r="C193" t="n">
+        <v>888</v>
+      </c>
+      <c r="D193" t="n">
+        <v>888</v>
+      </c>
+      <c r="E193" t="n">
+        <v>888</v>
+      </c>
+      <c r="F193" t="n">
+        <v>225.2252</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-99553.26469623249</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>886</v>
+      </c>
+      <c r="C194" t="n">
+        <v>886</v>
+      </c>
+      <c r="D194" t="n">
+        <v>886</v>
+      </c>
+      <c r="E194" t="n">
+        <v>885</v>
+      </c>
+      <c r="F194" t="n">
+        <v>797.2012</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-100350.4658962325</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>884</v>
+      </c>
+      <c r="C195" t="n">
+        <v>882</v>
+      </c>
+      <c r="D195" t="n">
+        <v>884</v>
+      </c>
+      <c r="E195" t="n">
+        <v>882</v>
+      </c>
+      <c r="F195" t="n">
+        <v>755.4893</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-101105.9551962325</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>882</v>
+      </c>
+      <c r="C196" t="n">
+        <v>882</v>
+      </c>
+      <c r="D196" t="n">
+        <v>882</v>
+      </c>
+      <c r="E196" t="n">
+        <v>882</v>
+      </c>
+      <c r="F196" t="n">
+        <v>70.5538</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-101105.9551962325</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>883</v>
+      </c>
+      <c r="C197" t="n">
+        <v>883</v>
+      </c>
+      <c r="D197" t="n">
+        <v>883</v>
+      </c>
+      <c r="E197" t="n">
+        <v>883</v>
+      </c>
+      <c r="F197" t="n">
+        <v>304.6999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-100801.2552962325</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>887</v>
+      </c>
+      <c r="C198" t="n">
+        <v>895</v>
+      </c>
+      <c r="D198" t="n">
+        <v>895</v>
+      </c>
+      <c r="E198" t="n">
+        <v>887</v>
+      </c>
+      <c r="F198" t="n">
+        <v>37.5702</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-100763.6850962325</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>891</v>
+      </c>
+      <c r="C199" t="n">
+        <v>891</v>
+      </c>
+      <c r="D199" t="n">
+        <v>891</v>
+      </c>
+      <c r="E199" t="n">
+        <v>891</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7.2312</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-100770.9162962325</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>890</v>
+      </c>
+      <c r="C200" t="n">
+        <v>890</v>
+      </c>
+      <c r="D200" t="n">
+        <v>890</v>
+      </c>
+      <c r="E200" t="n">
+        <v>890</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-100771.9162962325</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>887</v>
+      </c>
+      <c r="C201" t="n">
+        <v>887</v>
+      </c>
+      <c r="D201" t="n">
+        <v>887</v>
+      </c>
+      <c r="E201" t="n">
+        <v>887</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-100772.9162962325</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>882</v>
+      </c>
+      <c r="C202" t="n">
+        <v>875</v>
+      </c>
+      <c r="D202" t="n">
+        <v>882</v>
+      </c>
+      <c r="E202" t="n">
+        <v>875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>328.4717</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-101101.3879962325</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>873</v>
+      </c>
+      <c r="C203" t="n">
+        <v>876</v>
+      </c>
+      <c r="D203" t="n">
+        <v>876</v>
+      </c>
+      <c r="E203" t="n">
+        <v>872</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1111.9863</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-99989.40169623247</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>875</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>890</v>
-      </c>
-      <c r="C168" t="n">
-        <v>890</v>
-      </c>
-      <c r="D168" t="n">
-        <v>890</v>
-      </c>
-      <c r="E168" t="n">
-        <v>890</v>
-      </c>
-      <c r="F168" t="n">
-        <v>156.878</v>
-      </c>
-      <c r="G168" t="n">
-        <v>886.9</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>887</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>878</v>
+      </c>
+      <c r="C204" t="n">
+        <v>879</v>
+      </c>
+      <c r="D204" t="n">
+        <v>879</v>
+      </c>
+      <c r="E204" t="n">
+        <v>878</v>
+      </c>
+      <c r="F204" t="n">
+        <v>186.57</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>876</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>891</v>
-      </c>
-      <c r="C169" t="n">
-        <v>891</v>
-      </c>
-      <c r="D169" t="n">
-        <v>891</v>
-      </c>
-      <c r="E169" t="n">
-        <v>891</v>
-      </c>
-      <c r="F169" t="n">
-        <v>34.6536</v>
-      </c>
-      <c r="G169" t="n">
-        <v>887.4</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>890</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>879</v>
+      </c>
+      <c r="C205" t="n">
+        <v>879</v>
+      </c>
+      <c r="D205" t="n">
+        <v>879</v>
+      </c>
+      <c r="E205" t="n">
+        <v>879</v>
+      </c>
+      <c r="F205" t="n">
+        <v>108.8299</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>879</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>897</v>
-      </c>
-      <c r="C170" t="n">
-        <v>897</v>
-      </c>
-      <c r="D170" t="n">
-        <v>897</v>
-      </c>
-      <c r="E170" t="n">
-        <v>897</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G170" t="n">
-        <v>888.1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>891</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>879</v>
+      </c>
+      <c r="C206" t="n">
+        <v>879</v>
+      </c>
+      <c r="D206" t="n">
+        <v>879</v>
+      </c>
+      <c r="E206" t="n">
+        <v>879</v>
+      </c>
+      <c r="F206" t="n">
+        <v>52.1146</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>879</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>892</v>
-      </c>
-      <c r="C171" t="n">
-        <v>893</v>
-      </c>
-      <c r="D171" t="n">
-        <v>893</v>
-      </c>
-      <c r="E171" t="n">
-        <v>892</v>
-      </c>
-      <c r="F171" t="n">
-        <v>310.664</v>
-      </c>
-      <c r="G171" t="n">
-        <v>888.55</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>881</v>
+      </c>
+      <c r="C207" t="n">
+        <v>881</v>
+      </c>
+      <c r="D207" t="n">
+        <v>881</v>
+      </c>
+      <c r="E207" t="n">
+        <v>881</v>
+      </c>
+      <c r="F207" t="n">
+        <v>263.16</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-99539.67169623246</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>879</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>894</v>
-      </c>
-      <c r="C172" t="n">
-        <v>893</v>
-      </c>
-      <c r="D172" t="n">
-        <v>894</v>
-      </c>
-      <c r="E172" t="n">
-        <v>893</v>
-      </c>
-      <c r="F172" t="n">
-        <v>271.6307</v>
-      </c>
-      <c r="G172" t="n">
-        <v>889.1</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>906</v>
+      </c>
+      <c r="C208" t="n">
+        <v>906</v>
+      </c>
+      <c r="D208" t="n">
+        <v>906</v>
+      </c>
+      <c r="E208" t="n">
+        <v>906</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-99537.89169623246</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>881</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>887</v>
-      </c>
-      <c r="C173" t="n">
-        <v>887</v>
-      </c>
-      <c r="D173" t="n">
-        <v>887</v>
-      </c>
-      <c r="E173" t="n">
-        <v>887</v>
-      </c>
-      <c r="F173" t="n">
-        <v>30</v>
-      </c>
-      <c r="G173" t="n">
-        <v>889.3</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>881</v>
+      </c>
+      <c r="C209" t="n">
+        <v>881</v>
+      </c>
+      <c r="D209" t="n">
+        <v>881</v>
+      </c>
+      <c r="E209" t="n">
+        <v>881</v>
+      </c>
+      <c r="F209" t="n">
+        <v>16.1115</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-99554.00319623246</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>880</v>
-      </c>
-      <c r="C174" t="n">
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>878</v>
       </c>
-      <c r="D174" t="n">
-        <v>880</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="C210" t="n">
+        <v>877</v>
+      </c>
+      <c r="D210" t="n">
         <v>878</v>
       </c>
-      <c r="F174" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="G174" t="n">
-        <v>889.3</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>887</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="E210" t="n">
+        <v>877</v>
+      </c>
+      <c r="F210" t="n">
+        <v>140.8435</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-99694.84669623246</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>877</v>
-      </c>
-      <c r="C175" t="n">
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>878</v>
       </c>
-      <c r="D175" t="n">
+      <c r="C211" t="n">
+        <v>880</v>
+      </c>
+      <c r="D211" t="n">
+        <v>880</v>
+      </c>
+      <c r="E211" t="n">
         <v>878</v>
       </c>
-      <c r="E175" t="n">
-        <v>877</v>
-      </c>
-      <c r="F175" t="n">
-        <v>198.9065</v>
-      </c>
-      <c r="G175" t="n">
-        <v>889.2</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>878</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="F211" t="n">
+        <v>1136.4</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-98558.44669623247</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>883</v>
-      </c>
-      <c r="C176" t="n">
-        <v>883</v>
-      </c>
-      <c r="D176" t="n">
-        <v>883</v>
-      </c>
-      <c r="E176" t="n">
-        <v>883</v>
-      </c>
-      <c r="F176" t="n">
-        <v>708.5995</v>
-      </c>
-      <c r="G176" t="n">
-        <v>889.35</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>878</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>880</v>
+      </c>
+      <c r="C212" t="n">
+        <v>886</v>
+      </c>
+      <c r="D212" t="n">
+        <v>886</v>
+      </c>
+      <c r="E212" t="n">
+        <v>880</v>
+      </c>
+      <c r="F212" t="n">
+        <v>888.2324</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>879</v>
-      </c>
-      <c r="C177" t="n">
-        <v>880</v>
-      </c>
-      <c r="D177" t="n">
-        <v>880</v>
-      </c>
-      <c r="E177" t="n">
-        <v>879</v>
-      </c>
-      <c r="F177" t="n">
-        <v>626.5199</v>
-      </c>
-      <c r="G177" t="n">
-        <v>889.2</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>883</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>900</v>
+      </c>
+      <c r="C213" t="n">
+        <v>886</v>
+      </c>
+      <c r="D213" t="n">
+        <v>900</v>
+      </c>
+      <c r="E213" t="n">
+        <v>886</v>
+      </c>
+      <c r="F213" t="n">
+        <v>275.9509</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>880</v>
-      </c>
-      <c r="C178" t="n">
-        <v>880</v>
-      </c>
-      <c r="D178" t="n">
-        <v>880</v>
-      </c>
-      <c r="E178" t="n">
-        <v>880</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1238.3028</v>
-      </c>
-      <c r="G178" t="n">
-        <v>888.8</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>880</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>886</v>
+      </c>
+      <c r="C214" t="n">
+        <v>886</v>
+      </c>
+      <c r="D214" t="n">
+        <v>886</v>
+      </c>
+      <c r="E214" t="n">
+        <v>886</v>
+      </c>
+      <c r="F214" t="n">
+        <v>15</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
         <v>886</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C215" t="n">
         <v>886</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D215" t="n">
         <v>886</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E215" t="n">
         <v>886</v>
       </c>
-      <c r="F179" t="n">
-        <v>234.9512</v>
-      </c>
-      <c r="G179" t="n">
-        <v>888.75</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>880</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="F215" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>889</v>
-      </c>
-      <c r="C180" t="n">
-        <v>889</v>
-      </c>
-      <c r="D180" t="n">
-        <v>889</v>
-      </c>
-      <c r="E180" t="n">
-        <v>889</v>
-      </c>
-      <c r="F180" t="n">
-        <v>216.154</v>
-      </c>
-      <c r="G180" t="n">
-        <v>888.65</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>886</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>885</v>
+      </c>
+      <c r="C216" t="n">
+        <v>882</v>
+      </c>
+      <c r="D216" t="n">
+        <v>885</v>
+      </c>
+      <c r="E216" t="n">
+        <v>881</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2156.0396</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-99826.25389623248</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>892</v>
-      </c>
-      <c r="C181" t="n">
-        <v>891</v>
-      </c>
-      <c r="D181" t="n">
-        <v>892</v>
-      </c>
-      <c r="E181" t="n">
-        <v>891</v>
-      </c>
-      <c r="F181" t="n">
-        <v>499.9999</v>
-      </c>
-      <c r="G181" t="n">
-        <v>888.75</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>884</v>
+      </c>
+      <c r="C217" t="n">
+        <v>883</v>
+      </c>
+      <c r="D217" t="n">
+        <v>884</v>
+      </c>
+      <c r="E217" t="n">
+        <v>883</v>
+      </c>
+      <c r="F217" t="n">
+        <v>84</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-99742.25389623248</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>886</v>
-      </c>
-      <c r="C182" t="n">
-        <v>886</v>
-      </c>
-      <c r="D182" t="n">
-        <v>886</v>
-      </c>
-      <c r="E182" t="n">
-        <v>886</v>
-      </c>
-      <c r="F182" t="n">
-        <v>347.8036</v>
-      </c>
-      <c r="G182" t="n">
-        <v>888.4</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>882</v>
+      </c>
+      <c r="C218" t="n">
+        <v>881</v>
+      </c>
+      <c r="D218" t="n">
+        <v>882</v>
+      </c>
+      <c r="E218" t="n">
+        <v>881</v>
+      </c>
+      <c r="F218" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-99791.92389623247</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>883</v>
-      </c>
-      <c r="C183" t="n">
-        <v>883</v>
-      </c>
-      <c r="D183" t="n">
-        <v>883</v>
-      </c>
-      <c r="E183" t="n">
-        <v>883</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G183" t="n">
-        <v>887.65</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>880</v>
+      </c>
+      <c r="C219" t="n">
+        <v>880</v>
+      </c>
+      <c r="D219" t="n">
+        <v>880</v>
+      </c>
+      <c r="E219" t="n">
+        <v>880</v>
+      </c>
+      <c r="F219" t="n">
+        <v>167.3403</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-99959.26419623247</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>888</v>
-      </c>
-      <c r="C184" t="n">
-        <v>888</v>
-      </c>
-      <c r="D184" t="n">
-        <v>888</v>
-      </c>
-      <c r="E184" t="n">
-        <v>888</v>
-      </c>
-      <c r="F184" t="n">
-        <v>122.07</v>
-      </c>
-      <c r="G184" t="n">
-        <v>887.4</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>883</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>881</v>
+      </c>
+      <c r="C220" t="n">
+        <v>881</v>
+      </c>
+      <c r="D220" t="n">
+        <v>881</v>
+      </c>
+      <c r="E220" t="n">
+        <v>881</v>
+      </c>
+      <c r="F220" t="n">
+        <v>258.15</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-99701.11419623248</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>885</v>
-      </c>
-      <c r="C185" t="n">
-        <v>893</v>
-      </c>
-      <c r="D185" t="n">
-        <v>893</v>
-      </c>
-      <c r="E185" t="n">
-        <v>885</v>
-      </c>
-      <c r="F185" t="n">
-        <v>956.4447</v>
-      </c>
-      <c r="G185" t="n">
-        <v>887.1</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>888</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>883</v>
+      </c>
+      <c r="C221" t="n">
+        <v>883</v>
+      </c>
+      <c r="D221" t="n">
+        <v>883</v>
+      </c>
+      <c r="E221" t="n">
+        <v>883</v>
+      </c>
+      <c r="F221" t="n">
+        <v>470.4932</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>893</v>
-      </c>
-      <c r="C186" t="n">
-        <v>893</v>
-      </c>
-      <c r="D186" t="n">
-        <v>893</v>
-      </c>
-      <c r="E186" t="n">
-        <v>893</v>
-      </c>
-      <c r="F186" t="n">
-        <v>12</v>
-      </c>
-      <c r="G186" t="n">
-        <v>887.05</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>883</v>
+      </c>
+      <c r="C222" t="n">
+        <v>883</v>
+      </c>
+      <c r="D222" t="n">
+        <v>883</v>
+      </c>
+      <c r="E222" t="n">
+        <v>883</v>
+      </c>
+      <c r="F222" t="n">
+        <v>66.1542</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>895</v>
-      </c>
-      <c r="C187" t="n">
-        <v>895</v>
-      </c>
-      <c r="D187" t="n">
-        <v>895</v>
-      </c>
-      <c r="E187" t="n">
-        <v>895</v>
-      </c>
-      <c r="F187" t="n">
-        <v>34.0288</v>
-      </c>
-      <c r="G187" t="n">
-        <v>887.35</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>883</v>
+      </c>
+      <c r="C223" t="n">
+        <v>883</v>
+      </c>
+      <c r="D223" t="n">
+        <v>883</v>
+      </c>
+      <c r="E223" t="n">
+        <v>883</v>
+      </c>
+      <c r="F223" t="n">
+        <v>36.3072</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>883</v>
+      </c>
+      <c r="C224" t="n">
+        <v>883</v>
+      </c>
+      <c r="D224" t="n">
+        <v>883</v>
+      </c>
+      <c r="E224" t="n">
+        <v>883</v>
+      </c>
+      <c r="F224" t="n">
+        <v>846.9654</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>880</v>
+      </c>
+      <c r="C225" t="n">
+        <v>880</v>
+      </c>
+      <c r="D225" t="n">
+        <v>880</v>
+      </c>
+      <c r="E225" t="n">
+        <v>880</v>
+      </c>
+      <c r="F225" t="n">
+        <v>76.1803</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-99306.80129623249</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>879</v>
+      </c>
+      <c r="C226" t="n">
+        <v>879</v>
+      </c>
+      <c r="D226" t="n">
+        <v>879</v>
+      </c>
+      <c r="E226" t="n">
+        <v>879</v>
+      </c>
+      <c r="F226" t="n">
+        <v>286.2667</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-99593.06799623248</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>880</v>
+      </c>
+      <c r="C227" t="n">
+        <v>880</v>
+      </c>
+      <c r="D227" t="n">
+        <v>880</v>
+      </c>
+      <c r="E227" t="n">
+        <v>880</v>
+      </c>
+      <c r="F227" t="n">
+        <v>25</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-99568.06799623248</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>882</v>
+      </c>
+      <c r="C228" t="n">
+        <v>885</v>
+      </c>
+      <c r="D228" t="n">
+        <v>885</v>
+      </c>
+      <c r="E228" t="n">
+        <v>882</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2685.0075</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-96883.06049623247</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>888</v>
+      </c>
+      <c r="C229" t="n">
+        <v>888</v>
+      </c>
+      <c r="D229" t="n">
+        <v>888</v>
+      </c>
+      <c r="E229" t="n">
+        <v>888</v>
+      </c>
+      <c r="F229" t="n">
+        <v>14</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-96869.06049623247</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>887</v>
+      </c>
+      <c r="C230" t="n">
+        <v>887</v>
+      </c>
+      <c r="D230" t="n">
+        <v>887</v>
+      </c>
+      <c r="E230" t="n">
+        <v>887</v>
+      </c>
+      <c r="F230" t="n">
+        <v>109.12</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-96978.18049623247</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>891</v>
+      </c>
+      <c r="C231" t="n">
+        <v>891</v>
+      </c>
+      <c r="D231" t="n">
+        <v>891</v>
+      </c>
+      <c r="E231" t="n">
+        <v>891</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.7755</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-96976.40499623246</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>890</v>
+      </c>
+      <c r="C232" t="n">
+        <v>890</v>
+      </c>
+      <c r="D232" t="n">
+        <v>890</v>
+      </c>
+      <c r="E232" t="n">
+        <v>890</v>
+      </c>
+      <c r="F232" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-97044.78499623247</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>893</v>
+      </c>
+      <c r="C233" t="n">
+        <v>893</v>
+      </c>
+      <c r="D233" t="n">
+        <v>893</v>
+      </c>
+      <c r="E233" t="n">
+        <v>893</v>
+      </c>
+      <c r="F233" t="n">
+        <v>109.7454</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-96935.03959623247</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>898</v>
+      </c>
+      <c r="C234" t="n">
+        <v>898</v>
+      </c>
+      <c r="D234" t="n">
+        <v>898</v>
+      </c>
+      <c r="E234" t="n">
+        <v>898</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-96933.48959623247</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>893</v>
+      </c>
+      <c r="C235" t="n">
+        <v>892</v>
+      </c>
+      <c r="D235" t="n">
+        <v>893</v>
+      </c>
+      <c r="E235" t="n">
+        <v>892</v>
+      </c>
+      <c r="F235" t="n">
+        <v>372.2974</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-97305.78699623246</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>891</v>
+      </c>
+      <c r="C236" t="n">
+        <v>891</v>
+      </c>
+      <c r="D236" t="n">
+        <v>891</v>
+      </c>
+      <c r="E236" t="n">
+        <v>891</v>
+      </c>
+      <c r="F236" t="n">
+        <v>36.2147</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-97342.00169623246</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>894</v>
+      </c>
+      <c r="C237" t="n">
+        <v>894</v>
+      </c>
+      <c r="D237" t="n">
+        <v>894</v>
+      </c>
+      <c r="E237" t="n">
+        <v>894</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-97340.09069623247</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>889</v>
+      </c>
+      <c r="C238" t="n">
+        <v>887</v>
+      </c>
+      <c r="D238" t="n">
+        <v>889</v>
+      </c>
+      <c r="E238" t="n">
+        <v>887</v>
+      </c>
+      <c r="F238" t="n">
+        <v>820.3246</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-98160.41529623247</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>890</v>
+      </c>
+      <c r="C239" t="n">
+        <v>890</v>
+      </c>
+      <c r="D239" t="n">
+        <v>890</v>
+      </c>
+      <c r="E239" t="n">
+        <v>890</v>
+      </c>
+      <c r="F239" t="n">
+        <v>156.878</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-98003.53729623248</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>891</v>
+      </c>
+      <c r="C240" t="n">
+        <v>891</v>
+      </c>
+      <c r="D240" t="n">
+        <v>891</v>
+      </c>
+      <c r="E240" t="n">
+        <v>891</v>
+      </c>
+      <c r="F240" t="n">
+        <v>34.6536</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-97968.88369623247</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>897</v>
+      </c>
+      <c r="C241" t="n">
+        <v>897</v>
+      </c>
+      <c r="D241" t="n">
+        <v>897</v>
+      </c>
+      <c r="E241" t="n">
+        <v>897</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-97967.44369623247</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>892</v>
+      </c>
+      <c r="C242" t="n">
+        <v>893</v>
+      </c>
+      <c r="D242" t="n">
+        <v>893</v>
+      </c>
+      <c r="E242" t="n">
+        <v>892</v>
+      </c>
+      <c r="F242" t="n">
+        <v>310.664</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-98278.10769623247</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>894</v>
+      </c>
+      <c r="C243" t="n">
+        <v>893</v>
+      </c>
+      <c r="D243" t="n">
+        <v>894</v>
+      </c>
+      <c r="E243" t="n">
+        <v>893</v>
+      </c>
+      <c r="F243" t="n">
+        <v>271.6307</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-98278.10769623247</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>887</v>
+      </c>
+      <c r="C244" t="n">
+        <v>887</v>
+      </c>
+      <c r="D244" t="n">
+        <v>887</v>
+      </c>
+      <c r="E244" t="n">
+        <v>887</v>
+      </c>
+      <c r="F244" t="n">
+        <v>30</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-98308.10769623247</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>880</v>
+      </c>
+      <c r="C245" t="n">
+        <v>878</v>
+      </c>
+      <c r="D245" t="n">
+        <v>880</v>
+      </c>
+      <c r="E245" t="n">
+        <v>878</v>
+      </c>
+      <c r="F245" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-98372.62769623248</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>877</v>
+      </c>
+      <c r="C246" t="n">
+        <v>878</v>
+      </c>
+      <c r="D246" t="n">
+        <v>878</v>
+      </c>
+      <c r="E246" t="n">
+        <v>877</v>
+      </c>
+      <c r="F246" t="n">
+        <v>198.9065</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-98372.62769623248</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>883</v>
+      </c>
+      <c r="C247" t="n">
+        <v>883</v>
+      </c>
+      <c r="D247" t="n">
+        <v>883</v>
+      </c>
+      <c r="E247" t="n">
+        <v>883</v>
+      </c>
+      <c r="F247" t="n">
+        <v>708.5995</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-97664.02819623248</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>879</v>
+      </c>
+      <c r="C248" t="n">
+        <v>880</v>
+      </c>
+      <c r="D248" t="n">
+        <v>880</v>
+      </c>
+      <c r="E248" t="n">
+        <v>879</v>
+      </c>
+      <c r="F248" t="n">
+        <v>626.5199</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-98290.54809623248</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>880</v>
+      </c>
+      <c r="C249" t="n">
+        <v>880</v>
+      </c>
+      <c r="D249" t="n">
+        <v>880</v>
+      </c>
+      <c r="E249" t="n">
+        <v>880</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1238.3028</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-98290.54809623248</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>886</v>
+      </c>
+      <c r="C250" t="n">
+        <v>886</v>
+      </c>
+      <c r="D250" t="n">
+        <v>886</v>
+      </c>
+      <c r="E250" t="n">
+        <v>886</v>
+      </c>
+      <c r="F250" t="n">
+        <v>234.9512</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-98055.59689623248</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>889</v>
+      </c>
+      <c r="C251" t="n">
+        <v>889</v>
+      </c>
+      <c r="D251" t="n">
+        <v>889</v>
+      </c>
+      <c r="E251" t="n">
+        <v>889</v>
+      </c>
+      <c r="F251" t="n">
+        <v>216.154</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-97839.44289623249</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>892</v>
+      </c>
+      <c r="C252" t="n">
+        <v>891</v>
+      </c>
+      <c r="D252" t="n">
+        <v>892</v>
+      </c>
+      <c r="E252" t="n">
+        <v>891</v>
+      </c>
+      <c r="F252" t="n">
+        <v>499.9999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-97339.44299623249</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>886</v>
+      </c>
+      <c r="C253" t="n">
+        <v>886</v>
+      </c>
+      <c r="D253" t="n">
+        <v>886</v>
+      </c>
+      <c r="E253" t="n">
+        <v>886</v>
+      </c>
+      <c r="F253" t="n">
+        <v>347.8036</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-97687.24659623249</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>883</v>
+      </c>
+      <c r="C254" t="n">
+        <v>883</v>
+      </c>
+      <c r="D254" t="n">
+        <v>883</v>
+      </c>
+      <c r="E254" t="n">
+        <v>883</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-97688.7965962325</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>888</v>
+      </c>
+      <c r="C255" t="n">
+        <v>888</v>
+      </c>
+      <c r="D255" t="n">
+        <v>888</v>
+      </c>
+      <c r="E255" t="n">
+        <v>888</v>
+      </c>
+      <c r="F255" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-97566.72659623249</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>885</v>
+      </c>
+      <c r="C256" t="n">
+        <v>893</v>
+      </c>
+      <c r="D256" t="n">
+        <v>893</v>
+      </c>
+      <c r="E256" t="n">
+        <v>885</v>
+      </c>
+      <c r="F256" t="n">
+        <v>956.4447</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-96610.28189623248</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>893</v>
+      </c>
+      <c r="C257" t="n">
+        <v>893</v>
+      </c>
+      <c r="D257" t="n">
+        <v>893</v>
+      </c>
+      <c r="E257" t="n">
+        <v>893</v>
+      </c>
+      <c r="F257" t="n">
+        <v>12</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-96610.28189623248</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>895</v>
+      </c>
+      <c r="C258" t="n">
+        <v>895</v>
+      </c>
+      <c r="D258" t="n">
+        <v>895</v>
+      </c>
+      <c r="E258" t="n">
+        <v>895</v>
+      </c>
+      <c r="F258" t="n">
+        <v>34.0288</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-96576.25309623248</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N258"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,19 @@
         <v>-17715.92920000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>879</v>
+      </c>
+      <c r="J6" t="n">
+        <v>879</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +622,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>879</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +661,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>879</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +698,23 @@
         <v>-26662.05130000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>866</v>
+      </c>
+      <c r="J9" t="n">
+        <v>879</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +741,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>879</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +780,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>879</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +819,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>879</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +858,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>879</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +897,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>879</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +934,23 @@
         <v>-26090.8891</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="J15" t="n">
+        <v>879</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +975,23 @@
         <v>-26090.8891</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>878</v>
+      </c>
+      <c r="J16" t="n">
+        <v>879</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1018,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>879</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1055,23 @@
         <v>-25457.7009</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="J18" t="n">
+        <v>879</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1096,23 @@
         <v>-23691.273</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="J19" t="n">
+        <v>879</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1139,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>879</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1178,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>879</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1217,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>879</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1254,23 @@
         <v>-21758.8362</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>879</v>
+      </c>
+      <c r="J23" t="n">
+        <v>879</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1295,23 @@
         <v>-21331.2193</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>882</v>
+      </c>
+      <c r="J24" t="n">
+        <v>879</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1336,23 @@
         <v>-21294.9181</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>884</v>
+      </c>
+      <c r="J25" t="n">
+        <v>879</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1379,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>879</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1418,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>879</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1457,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>879</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1496,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>879</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1535,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>879</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1574,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>879</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1613,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>879</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1652,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>879</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1691,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>879</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1730,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>879</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1769,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>879</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1808,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>879</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1847,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>879</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1886,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>879</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1925,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>879</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1964,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>879</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +2003,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>879</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +2042,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>879</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2081,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>879</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2120,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>879</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2159,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>879</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2196,23 @@
         <v>-21909.6176</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>893</v>
+      </c>
+      <c r="J47" t="n">
+        <v>879</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2239,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>879</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2278,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>879</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2317,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>879</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2356,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>879</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2395,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>879</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2434,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>879</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2473,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>879</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2512,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>879</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2551,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>879</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2588,23 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>894</v>
+      </c>
+      <c r="J57" t="n">
+        <v>879</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2631,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>879</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2670,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>879</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2709,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>879</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2746,23 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>891</v>
+      </c>
+      <c r="J61" t="n">
+        <v>879</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2787,23 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>896</v>
+      </c>
+      <c r="J62" t="n">
+        <v>879</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2828,23 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>896</v>
+      </c>
+      <c r="J63" t="n">
+        <v>879</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2869,23 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>896</v>
+      </c>
+      <c r="J64" t="n">
+        <v>879</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2912,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>879</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2951,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>879</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2990,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>879</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +3027,21 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>879</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.024579067121729</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +3066,15 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +3099,15 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +3132,15 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +3165,15 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +3198,15 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +3231,15 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +3264,15 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +3297,15 @@
         <v>-22983.8136</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3330,15 @@
         <v>-22912.6921</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3365,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3398,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3431,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3464,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3495,15 @@
         <v>-23173.3721</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3530,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3563,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3594,15 @@
         <v>-25097.43359999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3627,15 @@
         <v>-25097.43359999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3662,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3695,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3728,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3761,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3794,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3827,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3860,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3893,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3926,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3959,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3990,15 @@
         <v>-20280.27229999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +4023,15 @@
         <v>-23283.86129999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +4058,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +4091,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +4124,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4157,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4190,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4223,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4256,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4289,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4322,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4355,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4388,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4421,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4454,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4485,15 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4518,15 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4553,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4584,15 @@
         <v>3917.77270000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4617,15 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4650,15 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4683,15 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4716,15 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4749,15 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4784,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4817,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4850,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4883,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4916,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4949,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4982,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +5015,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5048,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5081,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5114,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5147,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5180,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5213,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5246,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5279,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5312,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5345,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5378,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5411,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5444,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5477,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5510,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5543,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5576,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5609,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5642,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5675,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5708,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5741,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5774,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5807,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5840,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5873,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5906,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5939,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5972,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +6005,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +6038,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +6071,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +6104,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +6137,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +6170,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6203,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6236,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6269,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6302,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6335,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6368,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6401,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6434,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6467,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6500,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6533,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6566,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6599,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6632,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6665,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6698,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6731,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6764,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6797,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6830,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6863,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6896,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6929,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6962,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6995,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +7028,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +7061,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +7094,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +7127,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +7160,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +7193,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +7226,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +7259,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +7292,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +7325,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +7358,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7391,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7424,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7457,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7692,2236 +7488,1888 @@
         <v>-99989.40169623247</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>878</v>
+      </c>
+      <c r="C204" t="n">
+        <v>879</v>
+      </c>
+      <c r="D204" t="n">
+        <v>879</v>
+      </c>
+      <c r="E204" t="n">
+        <v>878</v>
+      </c>
+      <c r="F204" t="n">
+        <v>186.57</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>879</v>
+      </c>
+      <c r="C205" t="n">
+        <v>879</v>
+      </c>
+      <c r="D205" t="n">
+        <v>879</v>
+      </c>
+      <c r="E205" t="n">
+        <v>879</v>
+      </c>
+      <c r="F205" t="n">
+        <v>108.8299</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>879</v>
+      </c>
+      <c r="C206" t="n">
+        <v>879</v>
+      </c>
+      <c r="D206" t="n">
+        <v>879</v>
+      </c>
+      <c r="E206" t="n">
+        <v>879</v>
+      </c>
+      <c r="F206" t="n">
+        <v>52.1146</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-99802.83169623246</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>881</v>
+      </c>
+      <c r="C207" t="n">
+        <v>881</v>
+      </c>
+      <c r="D207" t="n">
+        <v>881</v>
+      </c>
+      <c r="E207" t="n">
+        <v>881</v>
+      </c>
+      <c r="F207" t="n">
+        <v>263.16</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-99539.67169623246</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>906</v>
+      </c>
+      <c r="C208" t="n">
+        <v>906</v>
+      </c>
+      <c r="D208" t="n">
+        <v>906</v>
+      </c>
+      <c r="E208" t="n">
+        <v>906</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-99537.89169623246</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>881</v>
+      </c>
+      <c r="C209" t="n">
+        <v>881</v>
+      </c>
+      <c r="D209" t="n">
+        <v>881</v>
+      </c>
+      <c r="E209" t="n">
+        <v>881</v>
+      </c>
+      <c r="F209" t="n">
+        <v>16.1115</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-99554.00319623246</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>878</v>
+      </c>
+      <c r="C210" t="n">
+        <v>877</v>
+      </c>
+      <c r="D210" t="n">
+        <v>878</v>
+      </c>
+      <c r="E210" t="n">
+        <v>877</v>
+      </c>
+      <c r="F210" t="n">
+        <v>140.8435</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-99694.84669623246</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>878</v>
+      </c>
+      <c r="C211" t="n">
+        <v>880</v>
+      </c>
+      <c r="D211" t="n">
+        <v>880</v>
+      </c>
+      <c r="E211" t="n">
+        <v>878</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1136.4</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-98558.44669623247</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>880</v>
+      </c>
+      <c r="C212" t="n">
+        <v>886</v>
+      </c>
+      <c r="D212" t="n">
+        <v>886</v>
+      </c>
+      <c r="E212" t="n">
+        <v>880</v>
+      </c>
+      <c r="F212" t="n">
+        <v>888.2324</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>900</v>
+      </c>
+      <c r="C213" t="n">
+        <v>886</v>
+      </c>
+      <c r="D213" t="n">
+        <v>900</v>
+      </c>
+      <c r="E213" t="n">
+        <v>886</v>
+      </c>
+      <c r="F213" t="n">
+        <v>275.9509</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>886</v>
+      </c>
+      <c r="C214" t="n">
+        <v>886</v>
+      </c>
+      <c r="D214" t="n">
+        <v>886</v>
+      </c>
+      <c r="E214" t="n">
+        <v>886</v>
+      </c>
+      <c r="F214" t="n">
+        <v>15</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>886</v>
+      </c>
+      <c r="C215" t="n">
+        <v>886</v>
+      </c>
+      <c r="D215" t="n">
+        <v>886</v>
+      </c>
+      <c r="E215" t="n">
+        <v>886</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-97670.21429623247</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>885</v>
+      </c>
+      <c r="C216" t="n">
+        <v>882</v>
+      </c>
+      <c r="D216" t="n">
+        <v>885</v>
+      </c>
+      <c r="E216" t="n">
+        <v>881</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2156.0396</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-99826.25389623248</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>884</v>
+      </c>
+      <c r="C217" t="n">
+        <v>883</v>
+      </c>
+      <c r="D217" t="n">
+        <v>884</v>
+      </c>
+      <c r="E217" t="n">
+        <v>883</v>
+      </c>
+      <c r="F217" t="n">
+        <v>84</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-99742.25389623248</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>882</v>
+      </c>
+      <c r="C218" t="n">
+        <v>881</v>
+      </c>
+      <c r="D218" t="n">
+        <v>882</v>
+      </c>
+      <c r="E218" t="n">
+        <v>881</v>
+      </c>
+      <c r="F218" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-99791.92389623247</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>880</v>
+      </c>
+      <c r="C219" t="n">
+        <v>880</v>
+      </c>
+      <c r="D219" t="n">
+        <v>880</v>
+      </c>
+      <c r="E219" t="n">
+        <v>880</v>
+      </c>
+      <c r="F219" t="n">
+        <v>167.3403</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-99959.26419623247</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>881</v>
+      </c>
+      <c r="C220" t="n">
+        <v>881</v>
+      </c>
+      <c r="D220" t="n">
+        <v>881</v>
+      </c>
+      <c r="E220" t="n">
+        <v>881</v>
+      </c>
+      <c r="F220" t="n">
+        <v>258.15</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-99701.11419623248</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>883</v>
+      </c>
+      <c r="C221" t="n">
+        <v>883</v>
+      </c>
+      <c r="D221" t="n">
+        <v>883</v>
+      </c>
+      <c r="E221" t="n">
+        <v>883</v>
+      </c>
+      <c r="F221" t="n">
+        <v>470.4932</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>883</v>
+      </c>
+      <c r="C222" t="n">
+        <v>883</v>
+      </c>
+      <c r="D222" t="n">
+        <v>883</v>
+      </c>
+      <c r="E222" t="n">
+        <v>883</v>
+      </c>
+      <c r="F222" t="n">
+        <v>66.1542</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>883</v>
+      </c>
+      <c r="C223" t="n">
+        <v>883</v>
+      </c>
+      <c r="D223" t="n">
+        <v>883</v>
+      </c>
+      <c r="E223" t="n">
+        <v>883</v>
+      </c>
+      <c r="F223" t="n">
+        <v>36.3072</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>883</v>
+      </c>
+      <c r="C224" t="n">
+        <v>883</v>
+      </c>
+      <c r="D224" t="n">
+        <v>883</v>
+      </c>
+      <c r="E224" t="n">
+        <v>883</v>
+      </c>
+      <c r="F224" t="n">
+        <v>846.9654</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-99230.62099623248</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>880</v>
+      </c>
+      <c r="C225" t="n">
+        <v>880</v>
+      </c>
+      <c r="D225" t="n">
+        <v>880</v>
+      </c>
+      <c r="E225" t="n">
+        <v>880</v>
+      </c>
+      <c r="F225" t="n">
+        <v>76.1803</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-99306.80129623249</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>879</v>
+      </c>
+      <c r="C226" t="n">
+        <v>879</v>
+      </c>
+      <c r="D226" t="n">
+        <v>879</v>
+      </c>
+      <c r="E226" t="n">
+        <v>879</v>
+      </c>
+      <c r="F226" t="n">
+        <v>286.2667</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-99593.06799623248</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>880</v>
+      </c>
+      <c r="C227" t="n">
+        <v>880</v>
+      </c>
+      <c r="D227" t="n">
+        <v>880</v>
+      </c>
+      <c r="E227" t="n">
+        <v>880</v>
+      </c>
+      <c r="F227" t="n">
+        <v>25</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-99568.06799623248</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>882</v>
+      </c>
+      <c r="C228" t="n">
+        <v>885</v>
+      </c>
+      <c r="D228" t="n">
+        <v>885</v>
+      </c>
+      <c r="E228" t="n">
+        <v>882</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2685.0075</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-96883.06049623247</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>888</v>
+      </c>
+      <c r="C229" t="n">
+        <v>888</v>
+      </c>
+      <c r="D229" t="n">
+        <v>888</v>
+      </c>
+      <c r="E229" t="n">
+        <v>888</v>
+      </c>
+      <c r="F229" t="n">
+        <v>14</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-96869.06049623247</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>887</v>
+      </c>
+      <c r="C230" t="n">
+        <v>887</v>
+      </c>
+      <c r="D230" t="n">
+        <v>887</v>
+      </c>
+      <c r="E230" t="n">
+        <v>887</v>
+      </c>
+      <c r="F230" t="n">
+        <v>109.12</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-96978.18049623247</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>891</v>
+      </c>
+      <c r="C231" t="n">
+        <v>891</v>
+      </c>
+      <c r="D231" t="n">
+        <v>891</v>
+      </c>
+      <c r="E231" t="n">
+        <v>891</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.7755</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-96976.40499623246</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>890</v>
+      </c>
+      <c r="C232" t="n">
+        <v>890</v>
+      </c>
+      <c r="D232" t="n">
+        <v>890</v>
+      </c>
+      <c r="E232" t="n">
+        <v>890</v>
+      </c>
+      <c r="F232" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-97044.78499623247</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>893</v>
+      </c>
+      <c r="C233" t="n">
+        <v>893</v>
+      </c>
+      <c r="D233" t="n">
+        <v>893</v>
+      </c>
+      <c r="E233" t="n">
+        <v>893</v>
+      </c>
+      <c r="F233" t="n">
+        <v>109.7454</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-96935.03959623247</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>898</v>
+      </c>
+      <c r="C234" t="n">
+        <v>898</v>
+      </c>
+      <c r="D234" t="n">
+        <v>898</v>
+      </c>
+      <c r="E234" t="n">
+        <v>898</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-96933.48959623247</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>893</v>
+      </c>
+      <c r="C235" t="n">
+        <v>892</v>
+      </c>
+      <c r="D235" t="n">
+        <v>893</v>
+      </c>
+      <c r="E235" t="n">
+        <v>892</v>
+      </c>
+      <c r="F235" t="n">
+        <v>372.2974</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-97305.78699623246</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>891</v>
+      </c>
+      <c r="C236" t="n">
+        <v>891</v>
+      </c>
+      <c r="D236" t="n">
+        <v>891</v>
+      </c>
+      <c r="E236" t="n">
+        <v>891</v>
+      </c>
+      <c r="F236" t="n">
+        <v>36.2147</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-97342.00169623246</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>894</v>
+      </c>
+      <c r="C237" t="n">
+        <v>894</v>
+      </c>
+      <c r="D237" t="n">
+        <v>894</v>
+      </c>
+      <c r="E237" t="n">
+        <v>894</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-97340.09069623247</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>889</v>
+      </c>
+      <c r="C238" t="n">
+        <v>887</v>
+      </c>
+      <c r="D238" t="n">
+        <v>889</v>
+      </c>
+      <c r="E238" t="n">
+        <v>887</v>
+      </c>
+      <c r="F238" t="n">
+        <v>820.3246</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-98160.41529623247</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>890</v>
+      </c>
+      <c r="C239" t="n">
+        <v>890</v>
+      </c>
+      <c r="D239" t="n">
+        <v>890</v>
+      </c>
+      <c r="E239" t="n">
+        <v>890</v>
+      </c>
+      <c r="F239" t="n">
+        <v>156.878</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-98003.53729623248</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>891</v>
+      </c>
+      <c r="C240" t="n">
+        <v>891</v>
+      </c>
+      <c r="D240" t="n">
+        <v>891</v>
+      </c>
+      <c r="E240" t="n">
+        <v>891</v>
+      </c>
+      <c r="F240" t="n">
+        <v>34.6536</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-97968.88369623247</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>897</v>
+      </c>
+      <c r="C241" t="n">
+        <v>897</v>
+      </c>
+      <c r="D241" t="n">
+        <v>897</v>
+      </c>
+      <c r="E241" t="n">
+        <v>897</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-97967.44369623247</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>892</v>
+      </c>
+      <c r="C242" t="n">
+        <v>893</v>
+      </c>
+      <c r="D242" t="n">
+        <v>893</v>
+      </c>
+      <c r="E242" t="n">
+        <v>892</v>
+      </c>
+      <c r="F242" t="n">
+        <v>310.664</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-98278.10769623247</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>894</v>
+      </c>
+      <c r="C243" t="n">
+        <v>893</v>
+      </c>
+      <c r="D243" t="n">
+        <v>894</v>
+      </c>
+      <c r="E243" t="n">
+        <v>893</v>
+      </c>
+      <c r="F243" t="n">
+        <v>271.6307</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-98278.10769623247</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>887</v>
+      </c>
+      <c r="C244" t="n">
+        <v>887</v>
+      </c>
+      <c r="D244" t="n">
+        <v>887</v>
+      </c>
+      <c r="E244" t="n">
+        <v>887</v>
+      </c>
+      <c r="F244" t="n">
+        <v>30</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-98308.10769623247</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>880</v>
+      </c>
+      <c r="C245" t="n">
+        <v>878</v>
+      </c>
+      <c r="D245" t="n">
+        <v>880</v>
+      </c>
+      <c r="E245" t="n">
+        <v>878</v>
+      </c>
+      <c r="F245" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-98372.62769623248</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>877</v>
+      </c>
+      <c r="C246" t="n">
+        <v>878</v>
+      </c>
+      <c r="D246" t="n">
+        <v>878</v>
+      </c>
+      <c r="E246" t="n">
+        <v>877</v>
+      </c>
+      <c r="F246" t="n">
+        <v>198.9065</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-98372.62769623248</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>883</v>
+      </c>
+      <c r="C247" t="n">
+        <v>883</v>
+      </c>
+      <c r="D247" t="n">
+        <v>883</v>
+      </c>
+      <c r="E247" t="n">
+        <v>883</v>
+      </c>
+      <c r="F247" t="n">
+        <v>708.5995</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-97664.02819623248</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>879</v>
+      </c>
+      <c r="C248" t="n">
+        <v>880</v>
+      </c>
+      <c r="D248" t="n">
+        <v>880</v>
+      </c>
+      <c r="E248" t="n">
+        <v>879</v>
+      </c>
+      <c r="F248" t="n">
+        <v>626.5199</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-98290.54809623248</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" t="n">
+        <v>883</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>878</v>
-      </c>
-      <c r="C204" t="n">
-        <v>879</v>
-      </c>
-      <c r="D204" t="n">
-        <v>879</v>
-      </c>
-      <c r="E204" t="n">
-        <v>878</v>
-      </c>
-      <c r="F204" t="n">
-        <v>186.57</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-99802.83169623246</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>876</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>880</v>
+      </c>
+      <c r="C249" t="n">
+        <v>880</v>
+      </c>
+      <c r="D249" t="n">
+        <v>880</v>
+      </c>
+      <c r="E249" t="n">
+        <v>880</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1238.3028</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-98290.54809623248</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>879</v>
-      </c>
-      <c r="C205" t="n">
-        <v>879</v>
-      </c>
-      <c r="D205" t="n">
-        <v>879</v>
-      </c>
-      <c r="E205" t="n">
-        <v>879</v>
-      </c>
-      <c r="F205" t="n">
-        <v>108.8299</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-99802.83169623246</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>879</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>886</v>
+      </c>
+      <c r="C250" t="n">
+        <v>886</v>
+      </c>
+      <c r="D250" t="n">
+        <v>886</v>
+      </c>
+      <c r="E250" t="n">
+        <v>886</v>
+      </c>
+      <c r="F250" t="n">
+        <v>234.9512</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-98055.59689623248</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>879</v>
-      </c>
-      <c r="C206" t="n">
-        <v>879</v>
-      </c>
-      <c r="D206" t="n">
-        <v>879</v>
-      </c>
-      <c r="E206" t="n">
-        <v>879</v>
-      </c>
-      <c r="F206" t="n">
-        <v>52.1146</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-99802.83169623246</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>879</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>889</v>
+      </c>
+      <c r="C251" t="n">
+        <v>889</v>
+      </c>
+      <c r="D251" t="n">
+        <v>889</v>
+      </c>
+      <c r="E251" t="n">
+        <v>889</v>
+      </c>
+      <c r="F251" t="n">
+        <v>216.154</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-97839.44289623249</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>881</v>
-      </c>
-      <c r="C207" t="n">
-        <v>881</v>
-      </c>
-      <c r="D207" t="n">
-        <v>881</v>
-      </c>
-      <c r="E207" t="n">
-        <v>881</v>
-      </c>
-      <c r="F207" t="n">
-        <v>263.16</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-99539.67169623246</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>879</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>892</v>
+      </c>
+      <c r="C252" t="n">
+        <v>891</v>
+      </c>
+      <c r="D252" t="n">
+        <v>892</v>
+      </c>
+      <c r="E252" t="n">
+        <v>891</v>
+      </c>
+      <c r="F252" t="n">
+        <v>499.9999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-97339.44299623249</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>889</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>906</v>
-      </c>
-      <c r="C208" t="n">
-        <v>906</v>
-      </c>
-      <c r="D208" t="n">
-        <v>906</v>
-      </c>
-      <c r="E208" t="n">
-        <v>906</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-99537.89169623246</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>881</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>886</v>
+      </c>
+      <c r="C253" t="n">
+        <v>886</v>
+      </c>
+      <c r="D253" t="n">
+        <v>886</v>
+      </c>
+      <c r="E253" t="n">
+        <v>886</v>
+      </c>
+      <c r="F253" t="n">
+        <v>347.8036</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-97687.24659623249</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>881</v>
-      </c>
-      <c r="C209" t="n">
-        <v>881</v>
-      </c>
-      <c r="D209" t="n">
-        <v>881</v>
-      </c>
-      <c r="E209" t="n">
-        <v>881</v>
-      </c>
-      <c r="F209" t="n">
-        <v>16.1115</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-99554.00319623246</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>883</v>
+      </c>
+      <c r="C254" t="n">
+        <v>883</v>
+      </c>
+      <c r="D254" t="n">
+        <v>883</v>
+      </c>
+      <c r="E254" t="n">
+        <v>883</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-97688.7965962325</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>878</v>
-      </c>
-      <c r="C210" t="n">
-        <v>877</v>
-      </c>
-      <c r="D210" t="n">
-        <v>878</v>
-      </c>
-      <c r="E210" t="n">
-        <v>877</v>
-      </c>
-      <c r="F210" t="n">
-        <v>140.8435</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-99694.84669623246</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>888</v>
+      </c>
+      <c r="C255" t="n">
+        <v>888</v>
+      </c>
+      <c r="D255" t="n">
+        <v>888</v>
+      </c>
+      <c r="E255" t="n">
+        <v>888</v>
+      </c>
+      <c r="F255" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-97566.72659623249</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" t="n">
+        <v>883</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>878</v>
-      </c>
-      <c r="C211" t="n">
-        <v>880</v>
-      </c>
-      <c r="D211" t="n">
-        <v>880</v>
-      </c>
-      <c r="E211" t="n">
-        <v>878</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1136.4</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-98558.44669623247</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>885</v>
+      </c>
+      <c r="C256" t="n">
+        <v>893</v>
+      </c>
+      <c r="D256" t="n">
+        <v>893</v>
+      </c>
+      <c r="E256" t="n">
+        <v>885</v>
+      </c>
+      <c r="F256" t="n">
+        <v>956.4447</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-96610.28189623248</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" t="n">
+        <v>888</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>880</v>
-      </c>
-      <c r="C212" t="n">
-        <v>886</v>
-      </c>
-      <c r="D212" t="n">
-        <v>886</v>
-      </c>
-      <c r="E212" t="n">
-        <v>880</v>
-      </c>
-      <c r="F212" t="n">
-        <v>888.2324</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>893</v>
+      </c>
+      <c r="C257" t="n">
+        <v>893</v>
+      </c>
+      <c r="D257" t="n">
+        <v>893</v>
+      </c>
+      <c r="E257" t="n">
+        <v>893</v>
+      </c>
+      <c r="F257" t="n">
+        <v>12</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-96610.28189623248</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" t="n">
+        <v>893</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>900</v>
-      </c>
-      <c r="C213" t="n">
-        <v>886</v>
-      </c>
-      <c r="D213" t="n">
-        <v>900</v>
-      </c>
-      <c r="E213" t="n">
-        <v>886</v>
-      </c>
-      <c r="F213" t="n">
-        <v>275.9509</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>895</v>
+      </c>
+      <c r="C258" t="n">
+        <v>895</v>
+      </c>
+      <c r="D258" t="n">
+        <v>895</v>
+      </c>
+      <c r="E258" t="n">
+        <v>895</v>
+      </c>
+      <c r="F258" t="n">
+        <v>34.0288</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-96576.25309623248</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" t="n">
+        <v>893</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>886</v>
-      </c>
-      <c r="C214" t="n">
-        <v>886</v>
-      </c>
-      <c r="D214" t="n">
-        <v>886</v>
-      </c>
-      <c r="E214" t="n">
-        <v>886</v>
-      </c>
-      <c r="F214" t="n">
-        <v>15</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>886</v>
-      </c>
-      <c r="C215" t="n">
-        <v>886</v>
-      </c>
-      <c r="D215" t="n">
-        <v>886</v>
-      </c>
-      <c r="E215" t="n">
-        <v>886</v>
-      </c>
-      <c r="F215" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>885</v>
-      </c>
-      <c r="C216" t="n">
-        <v>882</v>
-      </c>
-      <c r="D216" t="n">
-        <v>885</v>
-      </c>
-      <c r="E216" t="n">
-        <v>881</v>
-      </c>
-      <c r="F216" t="n">
-        <v>2156.0396</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-99826.25389623248</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>884</v>
-      </c>
-      <c r="C217" t="n">
-        <v>883</v>
-      </c>
-      <c r="D217" t="n">
-        <v>884</v>
-      </c>
-      <c r="E217" t="n">
-        <v>883</v>
-      </c>
-      <c r="F217" t="n">
-        <v>84</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-99742.25389623248</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>882</v>
-      </c>
-      <c r="C218" t="n">
-        <v>881</v>
-      </c>
-      <c r="D218" t="n">
-        <v>882</v>
-      </c>
-      <c r="E218" t="n">
-        <v>881</v>
-      </c>
-      <c r="F218" t="n">
-        <v>49.67</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-99791.92389623247</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>880</v>
-      </c>
-      <c r="C219" t="n">
-        <v>880</v>
-      </c>
-      <c r="D219" t="n">
-        <v>880</v>
-      </c>
-      <c r="E219" t="n">
-        <v>880</v>
-      </c>
-      <c r="F219" t="n">
-        <v>167.3403</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-99959.26419623247</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>881</v>
-      </c>
-      <c r="C220" t="n">
-        <v>881</v>
-      </c>
-      <c r="D220" t="n">
-        <v>881</v>
-      </c>
-      <c r="E220" t="n">
-        <v>881</v>
-      </c>
-      <c r="F220" t="n">
-        <v>258.15</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-99701.11419623248</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>883</v>
-      </c>
-      <c r="C221" t="n">
-        <v>883</v>
-      </c>
-      <c r="D221" t="n">
-        <v>883</v>
-      </c>
-      <c r="E221" t="n">
-        <v>883</v>
-      </c>
-      <c r="F221" t="n">
-        <v>470.4932</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>883</v>
-      </c>
-      <c r="C222" t="n">
-        <v>883</v>
-      </c>
-      <c r="D222" t="n">
-        <v>883</v>
-      </c>
-      <c r="E222" t="n">
-        <v>883</v>
-      </c>
-      <c r="F222" t="n">
-        <v>66.1542</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>883</v>
-      </c>
-      <c r="C223" t="n">
-        <v>883</v>
-      </c>
-      <c r="D223" t="n">
-        <v>883</v>
-      </c>
-      <c r="E223" t="n">
-        <v>883</v>
-      </c>
-      <c r="F223" t="n">
-        <v>36.3072</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>883</v>
-      </c>
-      <c r="C224" t="n">
-        <v>883</v>
-      </c>
-      <c r="D224" t="n">
-        <v>883</v>
-      </c>
-      <c r="E224" t="n">
-        <v>883</v>
-      </c>
-      <c r="F224" t="n">
-        <v>846.9654</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>880</v>
-      </c>
-      <c r="C225" t="n">
-        <v>880</v>
-      </c>
-      <c r="D225" t="n">
-        <v>880</v>
-      </c>
-      <c r="E225" t="n">
-        <v>880</v>
-      </c>
-      <c r="F225" t="n">
-        <v>76.1803</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-99306.80129623249</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>879</v>
-      </c>
-      <c r="C226" t="n">
-        <v>879</v>
-      </c>
-      <c r="D226" t="n">
-        <v>879</v>
-      </c>
-      <c r="E226" t="n">
-        <v>879</v>
-      </c>
-      <c r="F226" t="n">
-        <v>286.2667</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-99593.06799623248</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>880</v>
-      </c>
-      <c r="C227" t="n">
-        <v>880</v>
-      </c>
-      <c r="D227" t="n">
-        <v>880</v>
-      </c>
-      <c r="E227" t="n">
-        <v>880</v>
-      </c>
-      <c r="F227" t="n">
-        <v>25</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-99568.06799623248</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>882</v>
-      </c>
-      <c r="C228" t="n">
-        <v>885</v>
-      </c>
-      <c r="D228" t="n">
-        <v>885</v>
-      </c>
-      <c r="E228" t="n">
-        <v>882</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2685.0075</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-96883.06049623247</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>888</v>
-      </c>
-      <c r="C229" t="n">
-        <v>888</v>
-      </c>
-      <c r="D229" t="n">
-        <v>888</v>
-      </c>
-      <c r="E229" t="n">
-        <v>888</v>
-      </c>
-      <c r="F229" t="n">
-        <v>14</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-96869.06049623247</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>887</v>
-      </c>
-      <c r="C230" t="n">
-        <v>887</v>
-      </c>
-      <c r="D230" t="n">
-        <v>887</v>
-      </c>
-      <c r="E230" t="n">
-        <v>887</v>
-      </c>
-      <c r="F230" t="n">
-        <v>109.12</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-96978.18049623247</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>891</v>
-      </c>
-      <c r="C231" t="n">
-        <v>891</v>
-      </c>
-      <c r="D231" t="n">
-        <v>891</v>
-      </c>
-      <c r="E231" t="n">
-        <v>891</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1.7755</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-96976.40499623246</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>890</v>
-      </c>
-      <c r="C232" t="n">
-        <v>890</v>
-      </c>
-      <c r="D232" t="n">
-        <v>890</v>
-      </c>
-      <c r="E232" t="n">
-        <v>890</v>
-      </c>
-      <c r="F232" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-97044.78499623247</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>893</v>
-      </c>
-      <c r="C233" t="n">
-        <v>893</v>
-      </c>
-      <c r="D233" t="n">
-        <v>893</v>
-      </c>
-      <c r="E233" t="n">
-        <v>893</v>
-      </c>
-      <c r="F233" t="n">
-        <v>109.7454</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-96935.03959623247</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>898</v>
-      </c>
-      <c r="C234" t="n">
-        <v>898</v>
-      </c>
-      <c r="D234" t="n">
-        <v>898</v>
-      </c>
-      <c r="E234" t="n">
-        <v>898</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-96933.48959623247</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>893</v>
-      </c>
-      <c r="C235" t="n">
-        <v>892</v>
-      </c>
-      <c r="D235" t="n">
-        <v>893</v>
-      </c>
-      <c r="E235" t="n">
-        <v>892</v>
-      </c>
-      <c r="F235" t="n">
-        <v>372.2974</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-97305.78699623246</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>891</v>
-      </c>
-      <c r="C236" t="n">
-        <v>891</v>
-      </c>
-      <c r="D236" t="n">
-        <v>891</v>
-      </c>
-      <c r="E236" t="n">
-        <v>891</v>
-      </c>
-      <c r="F236" t="n">
-        <v>36.2147</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-97342.00169623246</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>894</v>
-      </c>
-      <c r="C237" t="n">
-        <v>894</v>
-      </c>
-      <c r="D237" t="n">
-        <v>894</v>
-      </c>
-      <c r="E237" t="n">
-        <v>894</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-97340.09069623247</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>889</v>
-      </c>
-      <c r="C238" t="n">
-        <v>887</v>
-      </c>
-      <c r="D238" t="n">
-        <v>889</v>
-      </c>
-      <c r="E238" t="n">
-        <v>887</v>
-      </c>
-      <c r="F238" t="n">
-        <v>820.3246</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-98160.41529623247</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>890</v>
-      </c>
-      <c r="C239" t="n">
-        <v>890</v>
-      </c>
-      <c r="D239" t="n">
-        <v>890</v>
-      </c>
-      <c r="E239" t="n">
-        <v>890</v>
-      </c>
-      <c r="F239" t="n">
-        <v>156.878</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-98003.53729623248</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>891</v>
-      </c>
-      <c r="C240" t="n">
-        <v>891</v>
-      </c>
-      <c r="D240" t="n">
-        <v>891</v>
-      </c>
-      <c r="E240" t="n">
-        <v>891</v>
-      </c>
-      <c r="F240" t="n">
-        <v>34.6536</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-97968.88369623247</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>897</v>
-      </c>
-      <c r="C241" t="n">
-        <v>897</v>
-      </c>
-      <c r="D241" t="n">
-        <v>897</v>
-      </c>
-      <c r="E241" t="n">
-        <v>897</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-97967.44369623247</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>892</v>
-      </c>
-      <c r="C242" t="n">
-        <v>893</v>
-      </c>
-      <c r="D242" t="n">
-        <v>893</v>
-      </c>
-      <c r="E242" t="n">
-        <v>892</v>
-      </c>
-      <c r="F242" t="n">
-        <v>310.664</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>894</v>
-      </c>
-      <c r="C243" t="n">
-        <v>893</v>
-      </c>
-      <c r="D243" t="n">
-        <v>894</v>
-      </c>
-      <c r="E243" t="n">
-        <v>893</v>
-      </c>
-      <c r="F243" t="n">
-        <v>271.6307</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>887</v>
-      </c>
-      <c r="C244" t="n">
-        <v>887</v>
-      </c>
-      <c r="D244" t="n">
-        <v>887</v>
-      </c>
-      <c r="E244" t="n">
-        <v>887</v>
-      </c>
-      <c r="F244" t="n">
-        <v>30</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-98308.10769623247</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>880</v>
-      </c>
-      <c r="C245" t="n">
-        <v>878</v>
-      </c>
-      <c r="D245" t="n">
-        <v>880</v>
-      </c>
-      <c r="E245" t="n">
-        <v>878</v>
-      </c>
-      <c r="F245" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>877</v>
-      </c>
-      <c r="C246" t="n">
-        <v>878</v>
-      </c>
-      <c r="D246" t="n">
-        <v>878</v>
-      </c>
-      <c r="E246" t="n">
-        <v>877</v>
-      </c>
-      <c r="F246" t="n">
-        <v>198.9065</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>883</v>
-      </c>
-      <c r="C247" t="n">
-        <v>883</v>
-      </c>
-      <c r="D247" t="n">
-        <v>883</v>
-      </c>
-      <c r="E247" t="n">
-        <v>883</v>
-      </c>
-      <c r="F247" t="n">
-        <v>708.5995</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-97664.02819623248</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>879</v>
-      </c>
-      <c r="C248" t="n">
-        <v>880</v>
-      </c>
-      <c r="D248" t="n">
-        <v>880</v>
-      </c>
-      <c r="E248" t="n">
-        <v>879</v>
-      </c>
-      <c r="F248" t="n">
-        <v>626.5199</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>880</v>
-      </c>
-      <c r="C249" t="n">
-        <v>880</v>
-      </c>
-      <c r="D249" t="n">
-        <v>880</v>
-      </c>
-      <c r="E249" t="n">
-        <v>880</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1238.3028</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>886</v>
-      </c>
-      <c r="C250" t="n">
-        <v>886</v>
-      </c>
-      <c r="D250" t="n">
-        <v>886</v>
-      </c>
-      <c r="E250" t="n">
-        <v>886</v>
-      </c>
-      <c r="F250" t="n">
-        <v>234.9512</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-98055.59689623248</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>889</v>
-      </c>
-      <c r="C251" t="n">
-        <v>889</v>
-      </c>
-      <c r="D251" t="n">
-        <v>889</v>
-      </c>
-      <c r="E251" t="n">
-        <v>889</v>
-      </c>
-      <c r="F251" t="n">
-        <v>216.154</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-97839.44289623249</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>892</v>
-      </c>
-      <c r="C252" t="n">
-        <v>891</v>
-      </c>
-      <c r="D252" t="n">
-        <v>892</v>
-      </c>
-      <c r="E252" t="n">
-        <v>891</v>
-      </c>
-      <c r="F252" t="n">
-        <v>499.9999</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-97339.44299623249</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>886</v>
-      </c>
-      <c r="C253" t="n">
-        <v>886</v>
-      </c>
-      <c r="D253" t="n">
-        <v>886</v>
-      </c>
-      <c r="E253" t="n">
-        <v>886</v>
-      </c>
-      <c r="F253" t="n">
-        <v>347.8036</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-97687.24659623249</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>883</v>
-      </c>
-      <c r="C254" t="n">
-        <v>883</v>
-      </c>
-      <c r="D254" t="n">
-        <v>883</v>
-      </c>
-      <c r="E254" t="n">
-        <v>883</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-97688.7965962325</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>888</v>
-      </c>
-      <c r="C255" t="n">
-        <v>888</v>
-      </c>
-      <c r="D255" t="n">
-        <v>888</v>
-      </c>
-      <c r="E255" t="n">
-        <v>888</v>
-      </c>
-      <c r="F255" t="n">
-        <v>122.07</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-97566.72659623249</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>885</v>
-      </c>
-      <c r="C256" t="n">
-        <v>893</v>
-      </c>
-      <c r="D256" t="n">
-        <v>893</v>
-      </c>
-      <c r="E256" t="n">
-        <v>885</v>
-      </c>
-      <c r="F256" t="n">
-        <v>956.4447</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>893</v>
-      </c>
-      <c r="C257" t="n">
-        <v>893</v>
-      </c>
-      <c r="D257" t="n">
-        <v>893</v>
-      </c>
-      <c r="E257" t="n">
-        <v>893</v>
-      </c>
-      <c r="F257" t="n">
-        <v>12</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>895</v>
-      </c>
-      <c r="C258" t="n">
-        <v>895</v>
-      </c>
-      <c r="D258" t="n">
-        <v>895</v>
-      </c>
-      <c r="E258" t="n">
-        <v>895</v>
-      </c>
-      <c r="F258" t="n">
-        <v>34.0288</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-96576.25309623248</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-17715.92920000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>879</v>
-      </c>
-      <c r="J6" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -623,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>879</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -662,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>879</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,19 +682,11 @@
         <v>-26662.05130000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>866</v>
-      </c>
-      <c r="J9" t="n">
-        <v>879</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -742,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>879</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -781,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>879</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -820,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>879</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -859,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>879</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -898,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>879</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,19 +880,11 @@
         <v>-26090.8891</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>876</v>
-      </c>
-      <c r="J15" t="n">
-        <v>879</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,19 +913,11 @@
         <v>-26090.8891</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>878</v>
-      </c>
-      <c r="J16" t="n">
-        <v>879</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1019,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>879</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,19 +979,11 @@
         <v>-25457.7009</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>880</v>
-      </c>
-      <c r="J18" t="n">
-        <v>879</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,19 +1012,11 @@
         <v>-23691.273</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>880</v>
-      </c>
-      <c r="J19" t="n">
-        <v>879</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1140,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>879</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1179,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>879</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1218,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>879</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1254,19 +1144,11 @@
         <v>-21758.8362</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>879</v>
-      </c>
-      <c r="J23" t="n">
-        <v>879</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1295,19 +1177,11 @@
         <v>-21331.2193</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>882</v>
-      </c>
-      <c r="J24" t="n">
-        <v>879</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1336,19 +1210,11 @@
         <v>-21294.9181</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>884</v>
-      </c>
-      <c r="J25" t="n">
-        <v>879</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>879</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1419,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>879</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1458,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>879</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1497,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>879</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1536,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>879</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1575,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>879</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1614,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>879</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1653,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>879</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1692,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>879</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1731,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>879</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>879</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>879</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>879</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>879</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1926,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>879</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>879</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>879</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>879</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>879</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>879</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>879</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2196,19 +1936,11 @@
         <v>-21909.6176</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>893</v>
-      </c>
-      <c r="J47" t="n">
-        <v>879</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>879</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>879</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2318,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>879</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2357,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>879</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>879</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>879</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>879</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>879</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>879</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2588,19 +2266,11 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>894</v>
-      </c>
-      <c r="J57" t="n">
-        <v>879</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>879</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2671,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>879</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2710,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>879</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2398,11 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>891</v>
-      </c>
-      <c r="J61" t="n">
-        <v>879</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2787,19 +2431,11 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>896</v>
-      </c>
-      <c r="J62" t="n">
-        <v>879</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2828,19 +2464,11 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>896</v>
-      </c>
-      <c r="J63" t="n">
-        <v>879</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2869,19 +2497,11 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>896</v>
-      </c>
-      <c r="J64" t="n">
-        <v>879</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>879</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>879</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>879</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3027,19 +2629,13 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>879</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.024579067121729</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -3066,7 +2662,7 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3099,7 +2695,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3132,7 +2728,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3165,7 +2761,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3198,7 +2794,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3231,7 +2827,7 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3264,7 +2860,7 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3297,7 +2893,7 @@
         <v>-22983.8136</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3330,7 +2926,7 @@
         <v>-22912.6921</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3495,7 +3091,7 @@
         <v>-23173.3721</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3594,7 +3190,7 @@
         <v>-25097.43359999999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3627,7 +3223,7 @@
         <v>-25097.43359999999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3924,7 +3520,7 @@
         <v>-21408.76749999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3957,7 +3553,7 @@
         <v>-21411.10749999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3990,7 +3586,7 @@
         <v>-20280.27229999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4023,7 +3619,7 @@
         <v>-23283.86129999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4287,7 +3883,7 @@
         <v>-24174.00089999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4320,7 +3916,7 @@
         <v>-23656.58029999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4353,7 +3949,7 @@
         <v>-23833.94779999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4386,7 +3982,7 @@
         <v>-20729.02509999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4419,7 +4015,7 @@
         <v>-26821.22509999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4452,7 +4048,7 @@
         <v>-4690.589199999991</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4485,7 +4081,7 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4518,7 +4114,7 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4551,7 +4147,7 @@
         <v>-295.2272999999905</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4584,7 +4180,7 @@
         <v>3917.77270000001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4617,7 +4213,7 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4650,7 +4246,7 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4683,7 +4279,7 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4716,7 +4312,7 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4749,7 +4345,7 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4782,7 +4378,7 @@
         <v>-15718.8804962325</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4815,7 +4411,7 @@
         <v>-35718.88049623249</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4848,7 +4444,7 @@
         <v>-35541.01539623249</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4881,7 +4477,7 @@
         <v>-36102.96909623249</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4914,7 +4510,7 @@
         <v>-38143.45029623249</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4947,7 +4543,7 @@
         <v>-55372.7913962325</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4980,7 +4576,7 @@
         <v>-78588.56279623249</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5013,7 +4609,7 @@
         <v>-79482.56279623249</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5046,7 +4642,7 @@
         <v>-81980.1023962325</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5079,7 +4675,7 @@
         <v>-77853.6231962325</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5112,7 +4708,7 @@
         <v>-93702.46199623249</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5145,7 +4741,7 @@
         <v>-95232.46199623249</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5178,7 +4774,7 @@
         <v>-94748.46199623249</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5211,7 +4807,7 @@
         <v>-95552.84369623249</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5244,7 +4840,7 @@
         <v>-95634.65369623249</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5277,7 +4873,7 @@
         <v>-96920.51329623249</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5310,7 +4906,7 @@
         <v>-96773.51329623249</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5343,7 +4939,7 @@
         <v>-95961.71129623249</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5376,7 +4972,7 @@
         <v>-95961.71129623249</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5409,7 +5005,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5442,7 +5038,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5475,7 +5071,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5508,7 +5104,7 @@
         <v>-96319.61639623249</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5541,7 +5137,7 @@
         <v>-96354.0251962325</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5607,7 +5203,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5640,7 +5236,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5673,7 +5269,7 @@
         <v>-95929.2971962325</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5706,7 +5302,7 @@
         <v>-96434.2971962325</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6861,10 +6457,14 @@
         <v>-97181.51849623249</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>891</v>
+      </c>
+      <c r="J184" t="n">
+        <v>891</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
@@ -6897,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>891</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6930,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>891</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7257,10 +6869,14 @@
         <v>-101105.9551962325</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>882</v>
+      </c>
+      <c r="J196" t="n">
+        <v>882</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -7290,11 +6906,19 @@
         <v>-100801.2552962325</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>882</v>
+      </c>
+      <c r="J197" t="n">
+        <v>882</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7323,11 +6947,19 @@
         <v>-100763.6850962325</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>883</v>
+      </c>
+      <c r="J198" t="n">
+        <v>882</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +7087,17 @@
         <v>-101101.3879962325</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>887</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7488,11 +7126,17 @@
         <v>-99989.40169623247</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>875</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +7165,17 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>876</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7554,11 +7204,17 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>879</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7587,11 +7243,17 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>879</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7620,11 +7282,17 @@
         <v>-99539.67169623246</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>879</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7321,17 @@
         <v>-99537.89169623246</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>881</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7690,7 +7364,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7723,7 +7401,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7756,7 +7438,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7789,7 +7475,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7822,7 +7512,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7855,7 +7549,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7888,7 +7586,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7917,11 +7619,17 @@
         <v>-99826.25389623248</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>886</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7950,11 +7658,17 @@
         <v>-99742.25389623248</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>882</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7987,7 +7701,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +7734,17 @@
         <v>-99959.26419623247</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>881</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +7773,17 @@
         <v>-99701.11419623248</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>880</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8082,11 +7812,17 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>881</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +7851,17 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>883</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8152,7 +7894,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8185,7 +7931,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8218,7 +7968,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8247,11 +8001,17 @@
         <v>-99593.06799623248</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>880</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8040,17 @@
         <v>-99568.06799623248</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>879</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +8079,17 @@
         <v>-96883.06049623247</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>880</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8118,17 @@
         <v>-96869.06049623247</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>885</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8383,7 +8161,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8416,7 +8198,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8449,7 +8235,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8482,7 +8272,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8515,7 +8309,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8548,7 +8346,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8581,7 +8383,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8614,7 +8420,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8647,7 +8457,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8680,7 +8494,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8713,7 +8531,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8746,7 +8568,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8779,7 +8605,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +8642,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8845,7 +8679,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8878,7 +8716,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8911,7 +8753,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8944,7 +8790,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8973,15 +8823,13 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -9123,11 +8971,9 @@
         <v>-97339.44299623249</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9236,11 +9082,9 @@
         <v>-97566.72659623249</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9275,11 +9119,9 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9314,11 +9156,9 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9353,11 +9193,9 @@
         <v>-96576.25309623248</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9370,6 +9208,6 @@
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>-21452.6484</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-23114.4642</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-21782.938</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-23175.8195</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-24118.8195</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-23806.0093</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-20159.7634</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-22032.7383</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-23141.1257</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-24489.5289</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-24526.1063</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-21408.76749999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21411.10749999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-23283.86129999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-24174.00089999999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-23656.58029999999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-23833.94779999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-20729.02509999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-26821.22509999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4690.589199999991</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-295.2272999999905</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3917.77270000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-15718.8804962325</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-35718.88049623249</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-35541.01539623249</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-36102.96909623249</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-38143.45029623249</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-55372.7913962325</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-78588.56279623249</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-79482.56279623249</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-81980.1023962325</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-77853.6231962325</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-93702.46199623249</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-95232.46199623249</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-94748.46199623249</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-95552.84369623249</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-95634.65369623249</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-96920.51329623249</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-96773.51329623249</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-95961.71129623249</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-95961.71129623249</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-96459.0251962325</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-95929.2971962325</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-96434.2971962325</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-100421.6544962325</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-98465.19029623247</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-97702.18449623247</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6457,14 +6457,10 @@
         <v>-97181.51849623249</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>891</v>
-      </c>
-      <c r="J184" t="n">
-        <v>891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
@@ -6497,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>891</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6536,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>891</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6869,14 +6853,10 @@
         <v>-101105.9551962325</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>882</v>
-      </c>
-      <c r="J196" t="n">
-        <v>882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6906,19 +6886,11 @@
         <v>-100801.2552962325</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>882</v>
-      </c>
-      <c r="J197" t="n">
-        <v>882</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6947,19 +6919,11 @@
         <v>-100763.6850962325</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>883</v>
-      </c>
-      <c r="J198" t="n">
-        <v>882</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7087,17 +7051,11 @@
         <v>-101101.3879962325</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7126,17 +7084,11 @@
         <v>-99989.40169623247</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7165,17 +7117,11 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7204,17 +7150,11 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7243,17 +7183,11 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7287,12 +7221,10 @@
       <c r="I207" t="n">
         <v>879</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="n">
+        <v>879</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7321,15 +7253,15 @@
         <v>-99537.89169623246</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>881</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>879</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -7363,10 +7295,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>879</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -7401,11 +7335,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7434,15 +7364,15 @@
         <v>-98558.44669623247</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>877</v>
+      </c>
+      <c r="J211" t="n">
+        <v>877</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7474,10 +7404,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>877</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -7511,10 +7443,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>877</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7549,11 +7483,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7516,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7619,17 +7545,11 @@
         <v>-99826.25389623248</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7658,17 +7578,11 @@
         <v>-99742.25389623248</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7615,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7734,17 +7644,11 @@
         <v>-99959.26419623247</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7773,17 +7677,11 @@
         <v>-99701.11419623248</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7812,17 +7710,11 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7851,17 +7743,11 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7780,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +7813,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7968,11 +7846,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8001,17 +7875,11 @@
         <v>-99593.06799623248</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8040,17 +7908,11 @@
         <v>-99568.06799623248</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8079,17 +7941,11 @@
         <v>-96883.06049623247</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8118,17 +7974,11 @@
         <v>-96869.06049623247</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +8011,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8198,11 +8044,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8235,11 +8077,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8110,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8309,11 +8143,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8176,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8379,15 +8205,11 @@
         <v>-97342.00169623246</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8416,15 +8238,11 @@
         <v>-97340.09069623247</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8453,15 +8271,11 @@
         <v>-98160.41529623247</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8490,15 +8304,11 @@
         <v>-98003.53729623248</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8527,15 +8337,11 @@
         <v>-97968.88369623247</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8374,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +8407,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8638,15 +8436,11 @@
         <v>-98278.10769623247</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8675,15 +8469,11 @@
         <v>-98308.10769623247</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8712,15 +8502,11 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8539,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +8572,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +8605,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8864,11 +8638,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8901,11 +8671,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8704,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8975,11 +8737,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8770,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +8803,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9082,15 +8832,11 @@
         <v>-97566.72659623249</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9119,15 +8865,11 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +8902,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9197,17 +8935,13 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -1408,7 +1408,7 @@
         <v>-21452.6484</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-23114.4642</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-21782.938</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-23175.8195</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-24118.8195</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-23806.0093</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-20159.7634</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-22032.7383</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-23141.1257</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-24489.5289</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-24526.1063</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-22984.19449999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-24075.46589999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-24056.72439999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-24174.00089999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-23833.94779999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-20729.02509999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-26821.22509999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4690.589199999991</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-295.2272999999905</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-15718.8804962325</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-35718.88049623249</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-35541.01539623249</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-96319.61639623249</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-96354.0251962325</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-96459.0251962325</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-100421.6544962325</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-98465.19029623247</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-97702.18449623247</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -7150,10 +7150,14 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>879</v>
+      </c>
+      <c r="J205" t="n">
+        <v>879</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7183,11 +7187,19 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>879</v>
+      </c>
+      <c r="J206" t="n">
+        <v>879</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,15 +7228,17 @@
         <v>-99539.67169623246</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>879</v>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>879</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>879</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +7366,10 @@
         <v>-98558.44669623247</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>877</v>
-      </c>
-      <c r="J211" t="n">
-        <v>877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7404,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>877</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>877</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7743,10 +7729,14 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>883</v>
+      </c>
+      <c r="J222" t="n">
+        <v>883</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
@@ -7779,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>883</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>883</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7908,10 +7910,14 @@
         <v>-99568.06799623248</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>879</v>
+      </c>
+      <c r="J227" t="n">
+        <v>879</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7941,11 +7947,19 @@
         <v>-96883.06049623247</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>880</v>
+      </c>
+      <c r="J228" t="n">
+        <v>879</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7988,19 @@
         <v>-96869.06049623247</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>885</v>
+      </c>
+      <c r="J229" t="n">
+        <v>879</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8007,10 +8029,14 @@
         <v>-96978.18049623247</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>888</v>
+      </c>
+      <c r="J230" t="n">
+        <v>888</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8043,8 +8069,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>888</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8076,8 +8108,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>888</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8243,7 @@
         <v>-97342.00169623246</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8238,7 +8276,7 @@
         <v>-97340.09069623247</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8271,7 +8309,7 @@
         <v>-98160.41529623247</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8304,7 +8342,7 @@
         <v>-98003.53729623248</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8337,10 +8375,14 @@
         <v>-97968.88369623247</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>890</v>
+      </c>
+      <c r="J240" t="n">
+        <v>890</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8370,11 +8412,19 @@
         <v>-97967.44369623247</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>891</v>
+      </c>
+      <c r="J241" t="n">
+        <v>890</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8406,8 +8456,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>890</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +8492,7 @@
         <v>-98278.10769623247</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8469,7 +8525,7 @@
         <v>-98308.10769623247</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8502,11 +8558,17 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>887</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +8597,17 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>878</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8636,17 @@
         <v>-97664.02819623248</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>878</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8601,11 +8675,17 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>883</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +8714,17 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>880</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +8753,17 @@
         <v>-98055.59689623248</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>880</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8704,7 +8796,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8737,7 +8833,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8770,7 +8870,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8799,11 +8903,17 @@
         <v>-97688.7965962325</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>886</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8942,17 @@
         <v>-97566.72659623249</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>883</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +8981,17 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>888</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8898,11 +9020,17 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>893</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8935,7 +9063,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest WTC.xlsx
+++ b/BackTest/2019-10-30 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>13.1262</v>
       </c>
       <c r="G2" t="n">
-        <v>-17755.75130000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>38.0926</v>
       </c>
       <c r="G3" t="n">
-        <v>-17793.84390000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>150.69</v>
       </c>
       <c r="G4" t="n">
-        <v>-17793.84390000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>81.74930000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-17712.09460000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>3.8346</v>
       </c>
       <c r="G6" t="n">
-        <v>-17715.92920000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-17715.92920000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>10048.6117</v>
       </c>
       <c r="G8" t="n">
-        <v>-27764.54090000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>1102.4896</v>
       </c>
       <c r="G9" t="n">
-        <v>-26662.05130000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>214.5498</v>
       </c>
       <c r="G10" t="n">
-        <v>-26447.50150000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>426.9014</v>
       </c>
       <c r="G11" t="n">
-        <v>-26874.4029</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>393.3875</v>
       </c>
       <c r="G12" t="n">
-        <v>-26874.4029</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>-26074.4029</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>22.2862</v>
       </c>
       <c r="G14" t="n">
-        <v>-26096.6891</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>-26090.8891</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>50.3799</v>
       </c>
       <c r="G16" t="n">
-        <v>-26090.8891</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>633.1882000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-25457.7009</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>525.4554000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-25457.7009</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,19 @@
         <v>1766.4279</v>
       </c>
       <c r="G19" t="n">
-        <v>-23691.273</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1083,19 @@
         <v>744.5993999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-22946.67360000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1117,19 @@
         <v>1137.672</v>
       </c>
       <c r="G21" t="n">
-        <v>-24084.3456</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1151,19 @@
         <v>1744.2992</v>
       </c>
       <c r="G22" t="n">
-        <v>-22340.0464</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1185,19 @@
         <v>581.2102</v>
       </c>
       <c r="G23" t="n">
-        <v>-21758.8362</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1219,19 @@
         <v>427.6169</v>
       </c>
       <c r="G24" t="n">
-        <v>-21331.2193</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1253,19 @@
         <v>36.3012</v>
       </c>
       <c r="G25" t="n">
-        <v>-21294.9181</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1287,19 @@
         <v>1740.122</v>
       </c>
       <c r="G26" t="n">
-        <v>-23035.0401</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1321,19 @@
         <v>10.0876</v>
       </c>
       <c r="G27" t="n">
-        <v>-23045.1277</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1355,19 @@
         <v>33.7599</v>
       </c>
       <c r="G28" t="n">
-        <v>-23011.3678</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1389,19 @@
         <v>440.3905</v>
       </c>
       <c r="G29" t="n">
-        <v>-23451.7583</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1423,19 @@
         <v>1955</v>
       </c>
       <c r="G30" t="n">
-        <v>-21496.7583</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1457,19 @@
         <v>44.1099</v>
       </c>
       <c r="G31" t="n">
-        <v>-21452.6484</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1491,19 @@
         <v>1661.8158</v>
       </c>
       <c r="G32" t="n">
-        <v>-23114.4642</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1525,19 @@
         <v>1297.8262</v>
       </c>
       <c r="G33" t="n">
-        <v>-21816.638</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1559,19 @@
         <v>5.9362</v>
       </c>
       <c r="G34" t="n">
-        <v>-21816.638</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1593,19 @@
         <v>278.774</v>
       </c>
       <c r="G35" t="n">
-        <v>-21816.638</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1627,19 @@
         <v>33.7</v>
       </c>
       <c r="G36" t="n">
-        <v>-21782.938</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1661,19 @@
         <v>1392.8815</v>
       </c>
       <c r="G37" t="n">
-        <v>-23175.8195</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1695,19 @@
         <v>943</v>
       </c>
       <c r="G38" t="n">
-        <v>-24118.8195</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1729,19 @@
         <v>2013.0955</v>
       </c>
       <c r="G39" t="n">
-        <v>-22105.724</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1763,19 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-22105.724</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1797,19 @@
         <v>1700.2853</v>
       </c>
       <c r="G41" t="n">
-        <v>-23806.0093</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1831,19 @@
         <v>18.2121</v>
       </c>
       <c r="G42" t="n">
-        <v>-23824.2214</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1865,19 @@
         <v>1025.6737</v>
       </c>
       <c r="G43" t="n">
-        <v>-24849.8951</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1899,19 @@
         <v>1150.0438</v>
       </c>
       <c r="G44" t="n">
-        <v>-23699.8513</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1933,19 @@
         <v>1051.68</v>
       </c>
       <c r="G45" t="n">
-        <v>-24751.5313</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1967,19 @@
         <v>68.42489999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-24683.1064</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2001,19 @@
         <v>2773.4888</v>
       </c>
       <c r="G47" t="n">
-        <v>-21909.6176</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2035,19 @@
         <v>1636.5542</v>
       </c>
       <c r="G48" t="n">
-        <v>-20273.0634</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2069,19 @@
         <v>2107.2934</v>
       </c>
       <c r="G49" t="n">
-        <v>-20273.0634</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2103,19 @@
         <v>113.3</v>
       </c>
       <c r="G50" t="n">
-        <v>-20159.7634</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2137,19 @@
         <v>1872.9749</v>
       </c>
       <c r="G51" t="n">
-        <v>-22032.7383</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2171,19 @@
         <v>1108.3874</v>
       </c>
       <c r="G52" t="n">
-        <v>-23141.1257</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2205,19 @@
         <v>1348.4032</v>
       </c>
       <c r="G53" t="n">
-        <v>-24489.5289</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2239,19 @@
         <v>36.5774</v>
       </c>
       <c r="G54" t="n">
-        <v>-24526.1063</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2273,19 @@
         <v>725.9598999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-23800.1464</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2307,19 @@
         <v>598.4782</v>
       </c>
       <c r="G56" t="n">
-        <v>-23800.1464</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2341,19 @@
         <v>371.7699</v>
       </c>
       <c r="G57" t="n">
-        <v>-23800.1464</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2375,19 @@
         <v>17.6231</v>
       </c>
       <c r="G58" t="n">
-        <v>-23800.1464</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2409,19 @@
         <v>193.2849</v>
       </c>
       <c r="G59" t="n">
-        <v>-23993.4313</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2443,19 @@
         <v>0.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>-23993.4313</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2477,19 @@
         <v>4.8</v>
       </c>
       <c r="G61" t="n">
-        <v>-23988.6313</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2511,19 @@
         <v>190.1861</v>
       </c>
       <c r="G62" t="n">
-        <v>-23988.6313</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2545,19 @@
         <v>44.69</v>
       </c>
       <c r="G63" t="n">
-        <v>-23988.6313</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2579,19 @@
         <v>734.607</v>
       </c>
       <c r="G64" t="n">
-        <v>-23254.0243</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2613,19 @@
         <v>2668.6065</v>
       </c>
       <c r="G65" t="n">
-        <v>-23254.0243</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2647,19 @@
         <v>17.6662</v>
       </c>
       <c r="G66" t="n">
-        <v>-23236.3581</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2681,19 @@
         <v>560.1284000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-23236.3581</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2715,19 @@
         <v>413.41</v>
       </c>
       <c r="G68" t="n">
-        <v>-23236.3581</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2749,19 @@
         <v>33.7461</v>
       </c>
       <c r="G69" t="n">
-        <v>-23270.1042</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2783,19 @@
         <v>363.94</v>
       </c>
       <c r="G70" t="n">
-        <v>-22906.1642</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2817,19 @@
         <v>3004.3248</v>
       </c>
       <c r="G71" t="n">
-        <v>-22906.1642</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2851,19 @@
         <v>86.73999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-22819.4242</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2885,19 @@
         <v>353.148</v>
       </c>
       <c r="G73" t="n">
-        <v>-22819.4242</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2919,19 @@
         <v>35.696</v>
       </c>
       <c r="G74" t="n">
-        <v>-22783.7282</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2953,19 @@
         <v>94.2099</v>
       </c>
       <c r="G75" t="n">
-        <v>-22877.9381</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2987,19 @@
         <v>105.8755</v>
       </c>
       <c r="G76" t="n">
-        <v>-22983.8136</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3021,19 @@
         <v>71.1215</v>
       </c>
       <c r="G77" t="n">
-        <v>-22912.6921</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3055,19 @@
         <v>12.77</v>
       </c>
       <c r="G78" t="n">
-        <v>-22899.9221</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3089,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-22900.9221</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3123,19 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-22901.9221</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3157,19 @@
         <v>270</v>
       </c>
       <c r="G81" t="n">
-        <v>-23171.9221</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3191,19 @@
         <v>1.45</v>
       </c>
       <c r="G82" t="n">
-        <v>-23173.3721</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3225,19 @@
         <v>53.99</v>
       </c>
       <c r="G83" t="n">
-        <v>-23119.3821</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3259,19 @@
         <v>119.4903</v>
       </c>
       <c r="G84" t="n">
-        <v>-22999.89179999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3293,19 @@
         <v>2097.5418</v>
       </c>
       <c r="G85" t="n">
-        <v>-25097.43359999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3327,19 @@
         <v>933.9272</v>
       </c>
       <c r="G86" t="n">
-        <v>-25097.43359999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3361,19 @@
         <v>35.0158</v>
       </c>
       <c r="G87" t="n">
-        <v>-25062.41779999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3395,19 @@
         <v>806.974</v>
       </c>
       <c r="G88" t="n">
-        <v>-24255.44379999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3429,19 @@
         <v>3790.265</v>
       </c>
       <c r="G89" t="n">
-        <v>-20465.17879999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3463,19 @@
         <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>-20465.17879999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3497,19 @@
         <v>977.6987</v>
       </c>
       <c r="G91" t="n">
-        <v>-21442.8775</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3531,19 @@
         <v>2.55</v>
       </c>
       <c r="G92" t="n">
-        <v>-21445.42749999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3565,19 @@
         <v>12.45</v>
       </c>
       <c r="G93" t="n">
-        <v>-21445.42749999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3599,19 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-21446.42749999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3633,19 @@
         <v>37.66</v>
       </c>
       <c r="G95" t="n">
-        <v>-21408.76749999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3667,19 @@
         <v>2.34</v>
       </c>
       <c r="G96" t="n">
-        <v>-21411.10749999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3701,19 @@
         <v>1130.8352</v>
       </c>
       <c r="G97" t="n">
-        <v>-20280.27229999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3735,19 @@
         <v>3003.589</v>
       </c>
       <c r="G98" t="n">
-        <v>-23283.86129999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3769,19 @@
         <v>2.87</v>
       </c>
       <c r="G99" t="n">
-        <v>-23280.99129999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3803,19 @@
         <v>277.49</v>
       </c>
       <c r="G100" t="n">
-        <v>-23003.50129999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3837,19 @@
         <v>16.7468</v>
       </c>
       <c r="G101" t="n">
-        <v>-22986.75449999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3871,19 @@
         <v>2.56</v>
       </c>
       <c r="G102" t="n">
-        <v>-22984.19449999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3905,19 @@
         <v>1091.2714</v>
       </c>
       <c r="G103" t="n">
-        <v>-24075.46589999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3939,19 @@
         <v>18.7415</v>
       </c>
       <c r="G104" t="n">
-        <v>-24056.72439999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3973,19 @@
         <v>1117.2764</v>
       </c>
       <c r="G105" t="n">
-        <v>-25174.00079999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4007,19 @@
         <v>999.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>-24174.00089999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4041,19 @@
         <v>517.4206</v>
       </c>
       <c r="G107" t="n">
-        <v>-23656.58029999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4075,17 @@
         <v>177.3675</v>
       </c>
       <c r="G108" t="n">
-        <v>-23833.94779999999</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4107,15 @@
         <v>3104.9227</v>
       </c>
       <c r="G109" t="n">
-        <v>-20729.02509999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4137,15 @@
         <v>6092.2</v>
       </c>
       <c r="G110" t="n">
-        <v>-26821.22509999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4167,15 @@
         <v>22130.6359</v>
       </c>
       <c r="G111" t="n">
-        <v>-4690.589199999991</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4197,15 @@
         <v>2084.6009</v>
       </c>
       <c r="G112" t="n">
-        <v>-6775.190099999991</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4227,15 @@
         <v>3710.608</v>
       </c>
       <c r="G113" t="n">
-        <v>-3064.582099999991</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4257,15 @@
         <v>2769.3548</v>
       </c>
       <c r="G114" t="n">
-        <v>-295.2272999999905</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4287,15 @@
         <v>4213</v>
       </c>
       <c r="G115" t="n">
-        <v>3917.77270000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4317,15 @@
         <v>2734.2866</v>
       </c>
       <c r="G116" t="n">
-        <v>1183.48610000001</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4347,15 @@
         <v>593</v>
       </c>
       <c r="G117" t="n">
-        <v>590.4861000000096</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4377,15 @@
         <v>2345.633403767492</v>
       </c>
       <c r="G118" t="n">
-        <v>2936.119503767502</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4407,15 @@
         <v>1055</v>
       </c>
       <c r="G119" t="n">
-        <v>1881.119503767502</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4437,15 @@
         <v>19000</v>
       </c>
       <c r="G120" t="n">
-        <v>-17118.8804962325</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4467,15 @@
         <v>1400</v>
       </c>
       <c r="G121" t="n">
-        <v>-15718.8804962325</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4497,15 @@
         <v>20000</v>
       </c>
       <c r="G122" t="n">
-        <v>-35718.88049623249</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4527,15 @@
         <v>177.8651</v>
       </c>
       <c r="G123" t="n">
-        <v>-35541.01539623249</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4557,15 @@
         <v>561.9537</v>
       </c>
       <c r="G124" t="n">
-        <v>-36102.96909623249</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4587,15 @@
         <v>2040.4812</v>
       </c>
       <c r="G125" t="n">
-        <v>-38143.45029623249</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4617,15 @@
         <v>17229.3411</v>
       </c>
       <c r="G126" t="n">
-        <v>-55372.7913962325</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4647,15 @@
         <v>23215.7714</v>
       </c>
       <c r="G127" t="n">
-        <v>-78588.56279623249</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4677,15 @@
         <v>894</v>
       </c>
       <c r="G128" t="n">
-        <v>-79482.56279623249</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4707,15 @@
         <v>2497.5396</v>
       </c>
       <c r="G129" t="n">
-        <v>-81980.1023962325</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4737,15 @@
         <v>4126.4792</v>
       </c>
       <c r="G130" t="n">
-        <v>-77853.6231962325</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4767,15 @@
         <v>15848.8388</v>
       </c>
       <c r="G131" t="n">
-        <v>-93702.46199623249</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4797,15 @@
         <v>1530</v>
       </c>
       <c r="G132" t="n">
-        <v>-95232.46199623249</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4827,15 @@
         <v>484</v>
       </c>
       <c r="G133" t="n">
-        <v>-94748.46199623249</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4857,15 @@
         <v>804.3817</v>
       </c>
       <c r="G134" t="n">
-        <v>-95552.84369623249</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4887,15 @@
         <v>81.81</v>
       </c>
       <c r="G135" t="n">
-        <v>-95634.65369623249</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4917,15 @@
         <v>1285.8596</v>
       </c>
       <c r="G136" t="n">
-        <v>-96920.51329623249</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4947,15 @@
         <v>147</v>
       </c>
       <c r="G137" t="n">
-        <v>-96773.51329623249</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4977,15 @@
         <v>811.802</v>
       </c>
       <c r="G138" t="n">
-        <v>-95961.71129623249</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5007,15 @@
         <v>103</v>
       </c>
       <c r="G139" t="n">
-        <v>-95961.71129623249</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5037,15 @@
         <v>172.0508</v>
       </c>
       <c r="G140" t="n">
-        <v>-95789.66049623249</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5067,15 @@
         <v>714.2608</v>
       </c>
       <c r="G141" t="n">
-        <v>-95789.66049623249</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5097,15 @@
         <v>511.6508</v>
       </c>
       <c r="G142" t="n">
-        <v>-95789.66049623249</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5127,15 @@
         <v>529.9559</v>
       </c>
       <c r="G143" t="n">
-        <v>-96319.61639623249</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5157,15 @@
         <v>34.4088</v>
       </c>
       <c r="G144" t="n">
-        <v>-96354.0251962325</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5187,15 @@
         <v>105</v>
       </c>
       <c r="G145" t="n">
-        <v>-96459.0251962325</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5217,15 @@
         <v>2218.728</v>
       </c>
       <c r="G146" t="n">
-        <v>-94240.2971962325</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5247,15 @@
         <v>42.9124</v>
       </c>
       <c r="G147" t="n">
-        <v>-94240.2971962325</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5277,15 @@
         <v>1689</v>
       </c>
       <c r="G148" t="n">
-        <v>-95929.2971962325</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5307,15 @@
         <v>505</v>
       </c>
       <c r="G149" t="n">
-        <v>-96434.2971962325</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5337,15 @@
         <v>2339.7693</v>
       </c>
       <c r="G150" t="n">
-        <v>-98774.0664962325</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5367,15 @@
         <v>36.45</v>
       </c>
       <c r="G151" t="n">
-        <v>-98737.6164962325</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5397,15 @@
         <v>2732.29</v>
       </c>
       <c r="G152" t="n">
-        <v>-101469.9064962325</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5427,15 @@
         <v>2254.85</v>
       </c>
       <c r="G153" t="n">
-        <v>-99215.05649623249</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5457,15 @@
         <v>3044.18</v>
       </c>
       <c r="G154" t="n">
-        <v>-102259.2364962325</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5487,15 @@
         <v>318.468</v>
       </c>
       <c r="G155" t="n">
-        <v>-102577.7044962325</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5517,15 @@
         <v>2156.05</v>
       </c>
       <c r="G156" t="n">
-        <v>-100421.6544962325</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5547,15 @@
         <v>1668.95</v>
       </c>
       <c r="G157" t="n">
-        <v>-98752.70449623247</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5577,15 @@
         <v>287.5142</v>
       </c>
       <c r="G158" t="n">
-        <v>-98465.19029623247</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5607,15 @@
         <v>916</v>
       </c>
       <c r="G159" t="n">
-        <v>-97549.19029623247</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5637,15 @@
         <v>43.37</v>
       </c>
       <c r="G160" t="n">
-        <v>-97505.82029623247</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5667,15 @@
         <v>196.3642</v>
       </c>
       <c r="G161" t="n">
-        <v>-97702.18449623247</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5697,15 @@
         <v>60</v>
       </c>
       <c r="G162" t="n">
-        <v>-97642.18449623247</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5727,15 @@
         <v>77.9081</v>
       </c>
       <c r="G163" t="n">
-        <v>-97720.09259623247</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5757,15 @@
         <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>-97220.09259623247</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5787,15 @@
         <v>60</v>
       </c>
       <c r="G165" t="n">
-        <v>-97160.09259623247</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5817,15 @@
         <v>120</v>
       </c>
       <c r="G166" t="n">
-        <v>-97040.09259623247</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5847,15 @@
         <v>810</v>
       </c>
       <c r="G167" t="n">
-        <v>-97850.09259623247</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5877,15 @@
         <v>980</v>
       </c>
       <c r="G168" t="n">
-        <v>-98830.09259623247</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5907,15 @@
         <v>535.2696999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>-99365.36229623247</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5937,15 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>-99364.36229623247</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5967,15 @@
         <v>281.82</v>
       </c>
       <c r="G171" t="n">
-        <v>-99646.18229623248</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5997,15 @@
         <v>99.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>-99646.18229623248</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6027,15 @@
         <v>1.56</v>
       </c>
       <c r="G173" t="n">
-        <v>-99644.62229623248</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6057,15 @@
         <v>173.4333</v>
       </c>
       <c r="G174" t="n">
-        <v>-99818.05559623249</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6087,15 @@
         <v>2022</v>
       </c>
       <c r="G175" t="n">
-        <v>-99818.05559623249</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6117,15 @@
         <v>1662.2791</v>
       </c>
       <c r="G176" t="n">
-        <v>-98155.77649623249</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6147,15 @@
         <v>175.981</v>
       </c>
       <c r="G177" t="n">
-        <v>-97979.79549623249</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6177,15 @@
         <v>175.981</v>
       </c>
       <c r="G178" t="n">
-        <v>-98155.77649623249</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6207,15 @@
         <v>2.2295</v>
       </c>
       <c r="G179" t="n">
-        <v>-98153.54699623249</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6237,15 @@
         <v>116.3296</v>
       </c>
       <c r="G180" t="n">
-        <v>-98269.87659623248</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6267,15 @@
         <v>397.1238</v>
       </c>
       <c r="G181" t="n">
-        <v>-98269.87659623248</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6297,15 @@
         <v>268.558</v>
       </c>
       <c r="G182" t="n">
-        <v>-98538.43459623249</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6327,15 @@
         <v>2.2239</v>
       </c>
       <c r="G183" t="n">
-        <v>-98540.65849623249</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6357,15 @@
         <v>1359.14</v>
       </c>
       <c r="G184" t="n">
-        <v>-97181.51849623249</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6387,15 @@
         <v>308.0461</v>
       </c>
       <c r="G185" t="n">
-        <v>-97489.56459623249</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6417,15 @@
         <v>330.1282</v>
       </c>
       <c r="G186" t="n">
-        <v>-97819.6927962325</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6447,15 @@
         <v>1107.5824</v>
       </c>
       <c r="G187" t="n">
-        <v>-98927.2751962325</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6477,15 @@
         <v>21.9994</v>
       </c>
       <c r="G188" t="n">
-        <v>-98949.2745962325</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6507,15 @@
         <v>37.94</v>
       </c>
       <c r="G189" t="n">
-        <v>-98911.3345962325</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6537,15 @@
         <v>955.1306</v>
       </c>
       <c r="G190" t="n">
-        <v>-99866.4651962325</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6567,15 @@
         <v>235.803</v>
       </c>
       <c r="G191" t="n">
-        <v>-99630.6621962325</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6597,15 @@
         <v>302.6227</v>
       </c>
       <c r="G192" t="n">
-        <v>-99328.03949623249</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6627,15 @@
         <v>225.2252</v>
       </c>
       <c r="G193" t="n">
-        <v>-99553.26469623249</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6657,15 @@
         <v>797.2012</v>
       </c>
       <c r="G194" t="n">
-        <v>-100350.4658962325</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6687,15 @@
         <v>755.4893</v>
       </c>
       <c r="G195" t="n">
-        <v>-101105.9551962325</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6717,15 @@
         <v>70.5538</v>
       </c>
       <c r="G196" t="n">
-        <v>-101105.9551962325</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6747,15 @@
         <v>304.6999</v>
       </c>
       <c r="G197" t="n">
-        <v>-100801.2552962325</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6777,15 @@
         <v>37.5702</v>
       </c>
       <c r="G198" t="n">
-        <v>-100763.6850962325</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6807,15 @@
         <v>7.2312</v>
       </c>
       <c r="G199" t="n">
-        <v>-100770.9162962325</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6837,15 @@
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>-100771.9162962325</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6867,15 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>-100772.9162962325</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6897,15 @@
         <v>328.4717</v>
       </c>
       <c r="G202" t="n">
-        <v>-101101.3879962325</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6927,21 @@
         <v>1111.9863</v>
       </c>
       <c r="G203" t="n">
-        <v>-99989.40169623247</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6963,21 @@
         <v>186.57</v>
       </c>
       <c r="G204" t="n">
-        <v>-99802.83169623246</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,22 +6999,21 @@
         <v>108.8299</v>
       </c>
       <c r="G205" t="n">
-        <v>-99802.83169623246</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
         <v>879</v>
       </c>
-      <c r="J205" t="n">
-        <v>879</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7184,26 +7035,21 @@
         <v>52.1146</v>
       </c>
       <c r="G206" t="n">
-        <v>-99802.83169623246</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
         <v>879</v>
       </c>
-      <c r="J206" t="n">
-        <v>879</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7225,24 +7071,21 @@
         <v>263.16</v>
       </c>
       <c r="G207" t="n">
-        <v>-99539.67169623246</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>879</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7264,18 +7107,21 @@
         <v>1.78</v>
       </c>
       <c r="G208" t="n">
-        <v>-99537.89169623246</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7297,18 +7143,19 @@
         <v>16.1115</v>
       </c>
       <c r="G209" t="n">
-        <v>-99554.00319623246</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7330,18 +7177,19 @@
         <v>140.8435</v>
       </c>
       <c r="G210" t="n">
-        <v>-99694.84669623246</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7363,18 +7211,19 @@
         <v>1136.4</v>
       </c>
       <c r="G211" t="n">
-        <v>-98558.44669623247</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7396,18 +7245,19 @@
         <v>888.2324</v>
       </c>
       <c r="G212" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7429,18 +7279,19 @@
         <v>275.9509</v>
       </c>
       <c r="G213" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7462,18 +7313,19 @@
         <v>15</v>
       </c>
       <c r="G214" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7495,18 +7347,19 @@
         <v>7.9</v>
       </c>
       <c r="G215" t="n">
-        <v>-97670.21429623247</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7528,18 +7381,19 @@
         <v>2156.0396</v>
       </c>
       <c r="G216" t="n">
-        <v>-99826.25389623248</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7561,18 +7415,19 @@
         <v>84</v>
       </c>
       <c r="G217" t="n">
-        <v>-99742.25389623248</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7594,18 +7449,19 @@
         <v>49.67</v>
       </c>
       <c r="G218" t="n">
-        <v>-99791.92389623247</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7627,18 +7483,19 @@
         <v>167.3403</v>
       </c>
       <c r="G219" t="n">
-        <v>-99959.26419623247</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7660,18 +7517,19 @@
         <v>258.15</v>
       </c>
       <c r="G220" t="n">
-        <v>-99701.11419623248</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7693,18 +7551,19 @@
         <v>470.4932</v>
       </c>
       <c r="G221" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7726,22 +7585,19 @@
         <v>66.1542</v>
       </c>
       <c r="G222" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>883</v>
-      </c>
-      <c r="J222" t="n">
-        <v>883</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7763,24 +7619,19 @@
         <v>36.3072</v>
       </c>
       <c r="G223" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>883</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7802,24 +7653,19 @@
         <v>846.9654</v>
       </c>
       <c r="G224" t="n">
-        <v>-99230.62099623248</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>883</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7841,18 +7687,19 @@
         <v>76.1803</v>
       </c>
       <c r="G225" t="n">
-        <v>-99306.80129623249</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7874,18 +7721,19 @@
         <v>286.2667</v>
       </c>
       <c r="G226" t="n">
-        <v>-99593.06799623248</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7907,22 +7755,19 @@
         <v>25</v>
       </c>
       <c r="G227" t="n">
-        <v>-99568.06799623248</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>879</v>
-      </c>
-      <c r="J227" t="n">
-        <v>879</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7944,26 +7789,19 @@
         <v>2685.0075</v>
       </c>
       <c r="G228" t="n">
-        <v>-96883.06049623247</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>880</v>
-      </c>
-      <c r="J228" t="n">
-        <v>879</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7985,26 +7823,19 @@
         <v>14</v>
       </c>
       <c r="G229" t="n">
-        <v>-96869.06049623247</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>885</v>
-      </c>
-      <c r="J229" t="n">
-        <v>879</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8026,22 +7857,19 @@
         <v>109.12</v>
       </c>
       <c r="G230" t="n">
-        <v>-96978.18049623247</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>888</v>
-      </c>
-      <c r="J230" t="n">
-        <v>888</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8063,24 +7891,19 @@
         <v>1.7755</v>
       </c>
       <c r="G231" t="n">
-        <v>-96976.40499623246</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>888</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8102,24 +7925,19 @@
         <v>68.38</v>
       </c>
       <c r="G232" t="n">
-        <v>-97044.78499623247</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>888</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8141,18 +7959,19 @@
         <v>109.7454</v>
       </c>
       <c r="G233" t="n">
-        <v>-96935.03959623247</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8174,18 +7993,19 @@
         <v>1.55</v>
       </c>
       <c r="G234" t="n">
-        <v>-96933.48959623247</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8207,18 +8027,19 @@
         <v>372.2974</v>
       </c>
       <c r="G235" t="n">
-        <v>-97305.78699623246</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8240,18 +8061,19 @@
         <v>36.2147</v>
       </c>
       <c r="G236" t="n">
-        <v>-97342.00169623246</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8273,18 +8095,19 @@
         <v>1.911</v>
       </c>
       <c r="G237" t="n">
-        <v>-97340.09069623247</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8306,18 +8129,19 @@
         <v>820.3246</v>
       </c>
       <c r="G238" t="n">
-        <v>-98160.41529623247</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8339,18 +8163,19 @@
         <v>156.878</v>
       </c>
       <c r="G239" t="n">
-        <v>-98003.53729623248</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8372,22 +8197,19 @@
         <v>34.6536</v>
       </c>
       <c r="G240" t="n">
-        <v>-97968.88369623247</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>890</v>
-      </c>
-      <c r="J240" t="n">
-        <v>890</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8409,26 +8231,19 @@
         <v>1.44</v>
       </c>
       <c r="G241" t="n">
-        <v>-97967.44369623247</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>891</v>
-      </c>
-      <c r="J241" t="n">
-        <v>890</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8450,24 +8265,19 @@
         <v>310.664</v>
       </c>
       <c r="G242" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>890</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8489,18 +8299,19 @@
         <v>271.6307</v>
       </c>
       <c r="G243" t="n">
-        <v>-98278.10769623247</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8522,18 +8333,19 @@
         <v>30</v>
       </c>
       <c r="G244" t="n">
-        <v>-98308.10769623247</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8555,24 +8367,19 @@
         <v>64.52</v>
       </c>
       <c r="G245" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>887</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8594,24 +8401,19 @@
         <v>198.9065</v>
       </c>
       <c r="G246" t="n">
-        <v>-98372.62769623248</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>878</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8633,24 +8435,19 @@
         <v>708.5995</v>
       </c>
       <c r="G247" t="n">
-        <v>-97664.02819623248</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>878</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8672,24 +8469,19 @@
         <v>626.5199</v>
       </c>
       <c r="G248" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>883</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8711,24 +8503,19 @@
         <v>1238.3028</v>
       </c>
       <c r="G249" t="n">
-        <v>-98290.54809623248</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>880</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8750,24 +8537,19 @@
         <v>234.9512</v>
       </c>
       <c r="G250" t="n">
-        <v>-98055.59689623248</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>880</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8789,22 +8571,19 @@
         <v>216.154</v>
       </c>
       <c r="G251" t="n">
-        <v>-97839.44289623249</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8826,22 +8605,19 @@
         <v>499.9999</v>
       </c>
       <c r="G252" t="n">
-        <v>-97339.44299623249</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8863,22 +8639,19 @@
         <v>347.8036</v>
       </c>
       <c r="G253" t="n">
-        <v>-97687.24659623249</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8900,24 +8673,19 @@
         <v>1.55</v>
       </c>
       <c r="G254" t="n">
-        <v>-97688.7965962325</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>886</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8939,24 +8707,19 @@
         <v>122.07</v>
       </c>
       <c r="G255" t="n">
-        <v>-97566.72659623249</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>883</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8978,24 +8741,19 @@
         <v>956.4447</v>
       </c>
       <c r="G256" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>888</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9017,24 +8775,19 @@
         <v>12</v>
       </c>
       <c r="G257" t="n">
-        <v>-96610.28189623248</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>893</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9056,22 +8809,19 @@
         <v>34.0288</v>
       </c>
       <c r="G258" t="n">
-        <v>-96576.25309623248</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
